--- a/Analyzer Results/RESULTS_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MERGED.xlsx
@@ -521,16 +521,16 @@
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09504886817653614</v>
+        <v>61.8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.102591602498469</v>
+        <v>16.444</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7485810773648778</v>
+        <v>163.184</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1120761553463378</v>
+        <v>6528.83</v>
       </c>
     </row>
     <row r="3">
@@ -564,16 +564,16 @@
         <v>18.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06057560849829065</v>
+        <v>54.25</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06122583086499391</v>
+        <v>14.1775</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6748961468015744</v>
+        <v>153.2125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06188378434583717</v>
+        <v>5510.422500000001</v>
       </c>
     </row>
     <row r="4">
@@ -607,16 +607,16 @@
         <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05958208305366675</v>
+        <v>54</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04400790738079532</v>
+        <v>12.9675</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6022617433038308</v>
+        <v>144.6175</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04423283449132796</v>
+        <v>5038.925</v>
       </c>
     </row>
     <row r="5">
@@ -650,16 +650,16 @@
         <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1034386207264197</v>
+        <v>63.4</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1090576310175528</v>
+        <v>16.75</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8110651412916647</v>
+        <v>173.34</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1213112888338131</v>
+        <v>6687.386</v>
       </c>
     </row>
     <row r="6">
@@ -693,16 +693,16 @@
         <v>16.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01966771517906031</v>
+        <v>40.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01681570469240521</v>
+        <v>10.178</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6887942953295418</v>
+        <v>154.976</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0178183296984489</v>
+        <v>4019.618000000001</v>
       </c>
     </row>
     <row r="7">
@@ -736,16 +736,16 @@
         <v>16.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06865367401993561</v>
+        <v>56.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06847512433358745</v>
+        <v>14.626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5912270126738097</v>
+        <v>143.384</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07153227114128805</v>
+        <v>5734.658</v>
       </c>
     </row>
     <row r="8">
@@ -779,16 +779,16 @@
         <v>19.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1002494415620192</v>
+        <v>62.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1048086160461367</v>
+        <v>16.55</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7659725437929277</v>
+        <v>165.812</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1155919173182517</v>
+        <v>6589.93</v>
       </c>
     </row>
     <row r="9">
@@ -822,16 +822,16 @@
         <v>18.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1002494415620192</v>
+        <v>62.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0980683764112652</v>
+        <v>16.224</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6911534378384061</v>
+        <v>155.28</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1006305237356316</v>
+        <v>6322.86</v>
       </c>
     </row>
     <row r="10">
@@ -865,16 +865,16 @@
         <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03014613186288325</v>
+        <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0289993744703518</v>
+        <v>11.642</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8194066419007582</v>
+        <v>174.874</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03402012442861048</v>
+        <v>4710.397999999999</v>
       </c>
     </row>
     <row r="11">
@@ -908,16 +908,16 @@
         <v>17.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02962893249556844</v>
+        <v>44.8</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0270347600060655</v>
+        <v>11.438</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7412131871534136</v>
+        <v>162.108</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03004187070900051</v>
+        <v>4565.388</v>
       </c>
     </row>
     <row r="12">
@@ -951,16 +951,16 @@
         <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01704324659261783</v>
+        <v>39</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01321911628610646</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5363302994163329</v>
+        <v>137.4475</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01349468938131882</v>
+        <v>3764.9425</v>
       </c>
     </row>
     <row r="13">
@@ -994,16 +994,16 @@
         <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04910945106930836</v>
+        <v>51.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0465460801804438</v>
+        <v>13.162</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6311037325108932</v>
+        <v>147.922</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04855086209674239</v>
+        <v>5163.52</v>
       </c>
     </row>
     <row r="14">
@@ -1037,16 +1037,16 @@
         <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03227272657288131</v>
+        <v>45.8</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02383586088182054</v>
+        <v>11.084</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5398718953054216</v>
+        <v>137.822</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02178479580443131</v>
+        <v>4218.411999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1080,16 +1080,16 @@
         <v>17.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03173237401953186</v>
+        <v>45.6</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03264454665364097</v>
+        <v>11.998</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6871426777964666</v>
+        <v>154.764</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03653024647678086</v>
+        <v>4796.368</v>
       </c>
     </row>
     <row r="16">
@@ -1123,16 +1123,16 @@
         <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03213709249113159</v>
+        <v>45.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03020214184936817</v>
+        <v>11.7625</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7738052132385893</v>
+        <v>167.04</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03027151623120824</v>
+        <v>4574.085</v>
       </c>
     </row>
     <row r="17">
@@ -1166,16 +1166,16 @@
         <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02523034312145309</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01940982338556686</v>
+        <v>10.538</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5266805738943715</v>
+        <v>136.432</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0164125957630016</v>
+        <v>3941.98</v>
       </c>
     </row>
     <row r="18">
@@ -1209,16 +1209,16 @@
         <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03173237401953186</v>
+        <v>45.6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02806368921239061</v>
+        <v>11.546</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7392585037871208</v>
+        <v>161.826</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0282770867335605</v>
+        <v>4497.066</v>
       </c>
     </row>
     <row r="19">
@@ -1252,16 +1252,16 @@
         <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07302144917032974</v>
+        <v>57.2</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07368960410324102</v>
+        <v>14.932</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6892452339340484</v>
+        <v>155.034</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07834044620981208</v>
+        <v>5882.634</v>
       </c>
     </row>
     <row r="20">
@@ -1295,16 +1295,16 @@
         <v>22.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7900255808854836</v>
+        <v>162.6</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8190236543585622</v>
+        <v>43.534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4443221079646199</v>
+        <v>127.974</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7871608092465635</v>
+        <v>15918.314</v>
       </c>
     </row>
     <row r="21">
@@ -1338,16 +1338,16 @@
         <v>22.8</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6789346886758958</v>
+        <v>141.8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7121657795325509</v>
+        <v>37.938</v>
       </c>
       <c r="J21" t="n">
-        <v>0.541174543601927</v>
+        <v>137.96</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6708607486260767</v>
+        <v>13850.216</v>
       </c>
     </row>
     <row r="22">
@@ -1381,16 +1381,16 @@
         <v>24.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5320305804546969</v>
+        <v>120.6</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5205967468266803</v>
+        <v>30.728</v>
       </c>
       <c r="J22" t="n">
-        <v>0.46835646996778</v>
+        <v>130.414</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4745895557566819</v>
+        <v>11216.966</v>
       </c>
     </row>
     <row r="23">
@@ -1424,16 +1424,16 @@
         <v>24.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7594577841079906</v>
+        <v>156.2</v>
       </c>
       <c r="I23" t="n">
-        <v>0.791244594759701</v>
+        <v>41.878</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5965404148539102</v>
+        <v>143.976</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7685565298378721</v>
+        <v>15539.71</v>
       </c>
     </row>
     <row r="24">
@@ -1467,16 +1467,16 @@
         <v>24.4</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7854565168617004</v>
+        <v>161.6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.847341525147795</v>
+        <v>45.44600000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6531245007297868</v>
+        <v>150.536</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8210809435686435</v>
+        <v>16680.038</v>
       </c>
     </row>
     <row r="25">
@@ -1510,16 +1510,16 @@
         <v>20.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0.727898330856646</v>
+        <v>150.2</v>
       </c>
       <c r="I25" t="n">
-        <v>0.795429726134132</v>
+        <v>42.116</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8074339811981398</v>
+        <v>172.688</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8085209823995796</v>
+        <v>16385.752</v>
       </c>
     </row>
     <row r="26">
@@ -1553,16 +1553,16 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7499431880944931</v>
+        <v>154.3333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7440388301302665</v>
+        <v>39.41666666666666</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4208721123209361</v>
+        <v>125.6033333333333</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6782162475668565</v>
+        <v>13964.33333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1596,16 +1596,16 @@
         <v>35.6</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6432357279119855</v>
+        <v>136.2</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6943748804027476</v>
+        <v>37.162</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4034542140302351</v>
+        <v>123.844</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5590053556328396</v>
+        <v>12276.214</v>
       </c>
     </row>
     <row r="28">
@@ -1639,16 +1639,16 @@
         <v>20.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6664609950681848</v>
+        <v>139.8</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7265478625700059</v>
+        <v>38.59</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6179015627428841</v>
+        <v>146.394</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7241230652181201</v>
+        <v>14719.204</v>
       </c>
     </row>
     <row r="29">
@@ -1682,16 +1682,16 @@
         <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>0.668980487577268</v>
+        <v>140.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7045064586932637</v>
+        <v>37.6</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3940966817772165</v>
+        <v>122.898</v>
       </c>
       <c r="K29" t="n">
-        <v>0.673907087063584</v>
+        <v>13897.276</v>
       </c>
     </row>
     <row r="30">
@@ -1725,16 +1725,16 @@
         <v>20.4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5723209221539868</v>
+        <v>126</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5918897397956258</v>
+        <v>33.178</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4286792153893483</v>
+        <v>126.392</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5437095690174062</v>
+        <v>12078.422</v>
       </c>
     </row>
     <row r="31">
@@ -1768,16 +1768,16 @@
         <v>20.4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7311822060514959</v>
+        <v>150.8</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7467412094325976</v>
+        <v>39.54799999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4754559614769857</v>
+        <v>131.138</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7015212373770283</v>
+        <v>14337.676</v>
       </c>
     </row>
     <row r="32">
@@ -1811,16 +1811,16 @@
         <v>19.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6497856825263246</v>
+        <v>137.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7080134255923149</v>
+        <v>37.754</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6068401947769422</v>
+        <v>145.134</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6867602233828616</v>
+        <v>14099.05</v>
       </c>
     </row>
     <row r="33">
@@ -1854,16 +1854,16 @@
         <v>24.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.752347468246781</v>
+        <v>154.8</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8110944852923736</v>
+        <v>43.04199999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6573347684995388</v>
+        <v>151.046</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7753622671075139</v>
+        <v>15675.44</v>
       </c>
     </row>
     <row r="34">
@@ -1897,16 +1897,16 @@
         <v>20.5</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7113377359745785</v>
+        <v>147.25</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7403184624644914</v>
+        <v>39.2375</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4848847831418064</v>
+        <v>132.1025</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7198396892497236</v>
+        <v>14645.2725</v>
       </c>
     </row>
     <row r="35">
@@ -1940,16 +1940,16 @@
         <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5766883285467346</v>
+        <v>126.6</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5961235505597369</v>
+        <v>33.33</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4213341513403269</v>
+        <v>125.65</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5570503023543312</v>
+        <v>12250.756</v>
       </c>
     </row>
     <row r="36">
@@ -1983,16 +1983,16 @@
         <v>17.6</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7355163672943372</v>
+        <v>151.6</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7651648541335283</v>
+        <v>40.472</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6038468898170122</v>
+        <v>144.796</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7864404173684898</v>
+        <v>15903.194</v>
       </c>
     </row>
     <row r="37">
@@ -2026,16 +2026,16 @@
         <v>20.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6114638343942151</v>
+        <v>131.5</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6059178197684223</v>
+        <v>33.685</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4029198182179388</v>
+        <v>123.79</v>
       </c>
       <c r="K37" t="n">
-        <v>0.533142683426328</v>
+        <v>11943.53</v>
       </c>
     </row>
     <row r="38">
@@ -2069,16 +2069,16 @@
         <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5867885098225263</v>
+        <v>128</v>
       </c>
       <c r="I38" t="n">
-        <v>0.543642433827485</v>
+        <v>31.5</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2412834024424223</v>
+        <v>106.794</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4389294987222493</v>
+        <v>10787.114</v>
       </c>
     </row>
     <row r="39">
@@ -2112,16 +2112,16 @@
         <v>17.6</v>
       </c>
       <c r="H39" t="n">
-        <v>0.588220891517686</v>
+        <v>128.2</v>
       </c>
       <c r="I39" t="n">
-        <v>0.585663605877113</v>
+        <v>32.956</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3049681256313764</v>
+        <v>113.738</v>
       </c>
       <c r="K39" t="n">
-        <v>0.531403477397505</v>
+        <v>11921.456</v>
       </c>
     </row>
     <row r="40">
@@ -2155,16 +2155,16 @@
         <v>24.8</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1583950024927018</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1239067159566643</v>
+        <v>17.42</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3980125663969523</v>
+        <v>123.294</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1040813046643001</v>
+        <v>6386.172</v>
       </c>
     </row>
     <row r="41">
@@ -2198,16 +2198,16 @@
         <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5903644767000913</v>
+        <v>128.5</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5682019990417212</v>
+        <v>32.3425</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2822970870612304</v>
+        <v>111.3225</v>
       </c>
       <c r="K41" t="n">
-        <v>0.439853996205329</v>
+        <v>10798.175</v>
       </c>
     </row>
     <row r="42">
@@ -2241,16 +2241,16 @@
         <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5853534807224838</v>
+        <v>127.8</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5384320494944969</v>
+        <v>31.324</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2234650053506033</v>
+        <v>104.742</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3994421272972399</v>
+        <v>10317.342</v>
       </c>
     </row>
     <row r="43">
@@ -2284,16 +2284,16 @@
         <v>19.2</v>
       </c>
       <c r="H43" t="n">
-        <v>0.434158299044555</v>
+        <v>108.2</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3764771044439265</v>
+        <v>26.14</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2427826814079939</v>
+        <v>106.964</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2847488888688264</v>
+        <v>8947.166000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2327,16 +2327,16 @@
         <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3122787226956374</v>
+        <v>93.25</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3115265490803675</v>
+        <v>24.1025</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5694724661236417</v>
+        <v>140.995</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2586582441462367</v>
+        <v>8624.377500000001</v>
       </c>
     </row>
     <row r="45">
@@ -2370,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5605639687546446</v>
+        <v>124.4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5188459792108641</v>
+        <v>30.67</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2801597758258343</v>
+        <v>111.092</v>
       </c>
       <c r="K45" t="n">
-        <v>0.426497204148006</v>
+        <v>10638.702</v>
       </c>
     </row>
     <row r="46">
@@ -2413,16 +2413,16 @@
         <v>18.8</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4470962650826417</v>
+        <v>109.8</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4151491475782118</v>
+        <v>27.348</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3016540425612121</v>
+        <v>113.388</v>
       </c>
       <c r="K46" t="n">
-        <v>0.343199032527278</v>
+        <v>9650.784000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2456,16 +2456,16 @@
         <v>17.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4838592954434815</v>
+        <v>114.4</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4373654828930929</v>
+        <v>28.046</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2665012928761291</v>
+        <v>109.606</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3729132443820769</v>
+        <v>10003.226</v>
       </c>
     </row>
     <row r="48">
@@ -2499,16 +2499,16 @@
         <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2487130370940044</v>
+        <v>85.2</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2434998549289642</v>
+        <v>21.894</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4449541946899933</v>
+        <v>128.038</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2319636080795812</v>
+        <v>8285.182000000001</v>
       </c>
     </row>
     <row r="49">
@@ -2542,16 +2542,16 @@
         <v>19.2</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3199537604792362</v>
+        <v>94.2</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2870756760940496</v>
+        <v>23.322</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2876541734320281</v>
+        <v>111.898</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2071841032992282</v>
+        <v>7959.406</v>
       </c>
     </row>
     <row r="50">
@@ -2585,16 +2585,16 @@
         <v>25.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5120530851804407</v>
+        <v>118</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4946761640006758</v>
+        <v>29.8775</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2075216416792927</v>
+        <v>102.85</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3627203904237754</v>
+        <v>9882.497499999999</v>
       </c>
     </row>
     <row r="51">
@@ -2628,16 +2628,16 @@
         <v>23.6</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4179050849216276</v>
+        <v>106.2</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4074812723410876</v>
+        <v>27.108</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4161854642631811</v>
+        <v>125.13</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3299448524635009</v>
+        <v>9492.828000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2671,16 +2671,16 @@
         <v>17.5</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3264360154703753</v>
+        <v>95</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3312471754763669</v>
+        <v>24.725</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4506740754514658</v>
+        <v>128.6175</v>
       </c>
       <c r="K52" t="n">
-        <v>0.312527174932217</v>
+        <v>9284.075000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2714,16 +2714,16 @@
         <v>21.2</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4806925208663923</v>
+        <v>114</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4731840378517169</v>
+        <v>29.184</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3437127477613963</v>
+        <v>117.768</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4018027661225314</v>
+        <v>10345.32</v>
       </c>
     </row>
     <row r="54">
@@ -2757,16 +2757,16 @@
         <v>19.6</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3054350856374892</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2916214321407946</v>
+        <v>23.468</v>
       </c>
       <c r="J54" t="n">
-        <v>0.466588783801457</v>
+        <v>130.234</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2638404699441648</v>
+        <v>8689.092000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2800,16 +2800,16 @@
         <v>20</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3856351510210594</v>
+        <v>102.25</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2848392306611349</v>
+        <v>23.25</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1699627132748009</v>
+        <v>98.1225</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1661205458258911</v>
+        <v>7386.5225</v>
       </c>
     </row>
     <row r="56">
@@ -2843,16 +2843,16 @@
         <v>18.8</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2720319699925915</v>
+        <v>88.2</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2662908084653822</v>
+        <v>22.648</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5982568019369763</v>
+        <v>144.168</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2775456953410068</v>
+        <v>8858.762000000001</v>
       </c>
     </row>
     <row r="57">
@@ -2886,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2334816017747376</v>
+        <v>83.2</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2482904022827147</v>
+        <v>22.054</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7767410842824216</v>
+        <v>167.508</v>
       </c>
       <c r="K57" t="n">
-        <v>0.265519472721344</v>
+        <v>8709.990000000002</v>
       </c>
     </row>
     <row r="58">
@@ -2929,16 +2929,16 @@
         <v>15.5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06464551861440057</v>
+        <v>55.25</v>
       </c>
       <c r="I58" t="n">
-        <v>0.05304864605008867</v>
+        <v>13.6325</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6311080135845279</v>
+        <v>147.9225</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05589688369413768</v>
+        <v>5360.827499999999</v>
       </c>
     </row>
     <row r="59">
@@ -2972,16 +2972,16 @@
         <v>19</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1693511207522453</v>
+        <v>74.25</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1499239645946182</v>
+        <v>18.5075</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6842357636277192</v>
+        <v>154.3925</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1515802297070828</v>
+        <v>7170.19</v>
       </c>
     </row>
     <row r="60">
@@ -3015,16 +3015,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1917798503821199</v>
+        <v>77.5</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1637265372350596</v>
+        <v>19.05</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5518142361617397</v>
+        <v>139.0925</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1563246076416419</v>
+        <v>7241.7225</v>
       </c>
     </row>
     <row r="61">
@@ -3058,16 +3058,16 @@
         <v>18.4</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2304691411377503</v>
+        <v>82.8</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2265398734745128</v>
+        <v>21.32</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6400872163320583</v>
+        <v>148.978</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2281664494228235</v>
+        <v>8236.022000000001</v>
       </c>
     </row>
     <row r="62">
@@ -3101,16 +3101,16 @@
         <v>19.2</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2170642017598569</v>
+        <v>81</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2517193243629073</v>
+        <v>22.168</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7771404618126708</v>
+        <v>167.572</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2873251680283851</v>
+        <v>8978.668</v>
       </c>
     </row>
     <row r="63">
@@ -3144,16 +3144,16 @@
         <v>18.4</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1730696817629563</v>
+        <v>74.8</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1483926056951258</v>
+        <v>18.446</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5685237469579418</v>
+        <v>140.892</v>
       </c>
       <c r="K63" t="n">
-        <v>0.139255958485128</v>
+        <v>6979.564</v>
       </c>
     </row>
     <row r="64">
@@ -3187,16 +3187,16 @@
         <v>19.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1757943682801317</v>
+        <v>75.2</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1628980307946521</v>
+        <v>19.018</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5833070514923039</v>
+        <v>142.508</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1596799254511173</v>
+        <v>7291.744000000001</v>
       </c>
     </row>
     <row r="65">
@@ -3230,16 +3230,16 @@
         <v>18.8</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1744299093065901</v>
+        <v>75</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1766816712074684</v>
+        <v>19.542</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7139333930717913</v>
+        <v>158.292</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1911043971544525</v>
+        <v>7740.770000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3273,16 +3273,16 @@
         <v>18.4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1623437929980724</v>
+        <v>73.2</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1477968887510244</v>
+        <v>18.422</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5934028903019999</v>
+        <v>143.626</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1476739369636806</v>
+        <v>7110.55</v>
       </c>
     </row>
     <row r="67">
@@ -3316,16 +3316,16 @@
         <v>18.4</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1236278979237559</v>
+        <v>67</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1120392605684409</v>
+        <v>16.888</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6277738489703025</v>
+        <v>147.534</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1164751979288394</v>
+        <v>6605.134</v>
       </c>
     </row>
     <row r="68">
@@ -3359,16 +3359,16 @@
         <v>18.4</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1343750461436966</v>
+        <v>68.8</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1197809219637784</v>
+        <v>17.238</v>
       </c>
       <c r="J68" t="n">
-        <v>0.646931413052531</v>
+        <v>149.792</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1234257087556077</v>
+        <v>6722.842</v>
       </c>
     </row>
     <row r="69">
@@ -3402,16 +3402,16 @@
         <v>18.8</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1405250692350682</v>
+        <v>69.8</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1214955407972782</v>
+        <v>17.314</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5808706333004083</v>
+        <v>142.24</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1214843932778431</v>
+        <v>6690.3</v>
       </c>
     </row>
     <row r="70">
@@ -3445,16 +3445,16 @@
         <v>18.4</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1099696644203119</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1058628111550948</v>
+        <v>16.6</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7144350879977837</v>
+        <v>158.36</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1134430719678894</v>
+        <v>6552.698</v>
       </c>
     </row>
     <row r="71">
@@ -3488,16 +3488,16 @@
         <v>19.2</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08508493517997388</v>
+        <v>59.8</v>
       </c>
       <c r="I71" t="n">
-        <v>0.07410775365668426</v>
+        <v>14.956</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6425000084082397</v>
+        <v>149.264</v>
       </c>
       <c r="K71" t="n">
-        <v>0.07211908463146711</v>
+        <v>5747.717999999999</v>
       </c>
     </row>
     <row r="72">
@@ -3531,16 +3531,16 @@
         <v>18.5</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1900168217888894</v>
+        <v>77.25</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2047616950904682</v>
+        <v>20.5625</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7909963570016429</v>
+        <v>169.845</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2367912167883057</v>
+        <v>8347.327499999999</v>
       </c>
     </row>
     <row r="73">
@@ -3574,16 +3574,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1250952344294646</v>
+        <v>67.25</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1228234044206732</v>
+        <v>17.3725</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6900295452582063</v>
+        <v>155.135</v>
       </c>
       <c r="K73" t="n">
-        <v>0.125741012844224</v>
+        <v>6761.33</v>
       </c>
     </row>
     <row r="74">
@@ -3617,16 +3617,16 @@
         <v>18.8</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1812939090351444</v>
+        <v>76</v>
       </c>
       <c r="I74" t="n">
-        <v>0.235299246075227</v>
+        <v>21.618</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7771030417180608</v>
+        <v>167.566</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3055087276109171</v>
+        <v>9199.476000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3660,16 +3660,16 @@
         <v>19.6</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1570878704205668</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1654408723911866</v>
+        <v>19.116</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5395885386595681</v>
+        <v>137.792</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1722429272238919</v>
+        <v>7475.204000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3703,16 +3703,16 @@
         <v>18</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03563781585163738</v>
+        <v>47</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03937771541709193</v>
+        <v>12.594</v>
       </c>
       <c r="J76" t="n">
-        <v>0.7688261493383076</v>
+        <v>166.256</v>
       </c>
       <c r="K76" t="n">
-        <v>0.05189602418836829</v>
+        <v>5255.456</v>
       </c>
     </row>
     <row r="77">
@@ -3746,16 +3746,16 @@
         <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1812939090351444</v>
+        <v>76</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2062753034043123</v>
+        <v>20.616</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7238459771128715</v>
+        <v>159.65</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2465903239085059</v>
+        <v>8472.33</v>
       </c>
     </row>
     <row r="78">
@@ -3789,16 +3789,16 @@
         <v>20</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1455346327501639</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1609374103019723</v>
+        <v>18.942</v>
       </c>
       <c r="J78" t="n">
-        <v>0.7918467735718401</v>
+        <v>169.988</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1968591484393834</v>
+        <v>7819.762</v>
       </c>
     </row>
     <row r="79">
@@ -3832,16 +3832,16 @@
         <v>19.6</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1355949645662222</v>
+        <v>69</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1731135759406489</v>
+        <v>19.408</v>
       </c>
       <c r="J79" t="n">
-        <v>0.7497455467754606</v>
+        <v>163.356</v>
       </c>
       <c r="K79" t="n">
-        <v>0.1992982407809687</v>
+        <v>7852.983999999999</v>
       </c>
     </row>
     <row r="80">
@@ -3875,16 +3875,16 @@
         <v>19.5</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1882598599492148</v>
+        <v>77</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2331441417808056</v>
+        <v>21.545</v>
       </c>
       <c r="J80" t="n">
-        <v>0.8003829890383873</v>
+        <v>171.4475</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2903890961948757</v>
+        <v>9016.057499999999</v>
       </c>
     </row>
     <row r="81">
@@ -3918,16 +3918,16 @@
         <v>19.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1519057563681007</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1885978069196992</v>
+        <v>19.982</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7819180143380595</v>
+        <v>168.344</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2340393070363558</v>
+        <v>8311.950000000001</v>
       </c>
     </row>
     <row r="82">
@@ -3961,16 +3961,16 @@
         <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1236278979237559</v>
+        <v>67</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1431674421854882</v>
+        <v>18.234</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6857205791720589</v>
+        <v>154.582</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1665237481149878</v>
+        <v>7392.404</v>
       </c>
     </row>
     <row r="83">
@@ -4004,16 +4004,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0.104872451787432</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1127364146510363</v>
+        <v>16.92</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6329393581940067</v>
+        <v>148.1366666666667</v>
       </c>
       <c r="K83" t="n">
-        <v>0.130586015038319</v>
+        <v>6840.783333333333</v>
       </c>
     </row>
     <row r="84">
@@ -4047,16 +4047,16 @@
         <v>18.8</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1236278979237559</v>
+        <v>67</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1179889133770645</v>
+        <v>17.158</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5840512802154403</v>
+        <v>142.59</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1254274669188275</v>
+        <v>6756.138000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4090,16 +4090,16 @@
         <v>18.8</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06779839614544116</v>
+        <v>56</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08134567766888286</v>
+        <v>15.36</v>
       </c>
       <c r="J85" t="n">
-        <v>0.768941319918897</v>
+        <v>166.274</v>
       </c>
       <c r="K85" t="n">
-        <v>0.1013158224048921</v>
+        <v>6335.522</v>
       </c>
     </row>
     <row r="86">
@@ -4133,16 +4133,16 @@
         <v>19.2</v>
       </c>
       <c r="H86" t="n">
-        <v>0.09199806781572448</v>
+        <v>61.2</v>
       </c>
       <c r="I86" t="n">
-        <v>0.08567089740574015</v>
+        <v>15.592</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7527747655330166</v>
+        <v>163.806</v>
       </c>
       <c r="K86" t="n">
-        <v>0.09366037644695015</v>
+        <v>6191.412</v>
       </c>
     </row>
     <row r="87">
@@ -4176,16 +4176,16 @@
         <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1189883656555249</v>
+        <v>66.2</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1374023713902414</v>
+        <v>17.996</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7514853715572259</v>
+        <v>163.614</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1601411128586759</v>
+        <v>7298.584</v>
       </c>
     </row>
     <row r="88">
@@ -4219,16 +4219,16 @@
         <v>19.2</v>
       </c>
       <c r="H88" t="n">
-        <v>0.09300917023342077</v>
+        <v>61.4</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1006460007228421</v>
+        <v>16.35</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7279824008427243</v>
+        <v>160.226</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1188197500588691</v>
+        <v>6645.216</v>
       </c>
     </row>
     <row r="89">
@@ -4262,16 +4262,16 @@
         <v>19.2</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1610229924644744</v>
+        <v>73</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2027731121960512</v>
+        <v>20.492</v>
       </c>
       <c r="J89" t="n">
-        <v>0.8047731774282535</v>
+        <v>172.216</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2598393614262367</v>
+        <v>8639.155999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4305,16 +4305,16 @@
         <v>20</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1023698641338502</v>
+        <v>63.2</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1048086160461367</v>
+        <v>16.55</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8025884979066696</v>
+        <v>171.832</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1236084259263515</v>
+        <v>6725.892</v>
       </c>
     </row>
     <row r="91">
@@ -4348,16 +4348,16 @@
         <v>20.4</v>
       </c>
       <c r="H91" t="n">
-        <v>0.127163352438041</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>0.131182330677768</v>
+        <v>17.734</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6453234581816027</v>
+        <v>149.6</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1388883042161145</v>
+        <v>6973.762000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4391,16 +4391,16 @@
         <v>16</v>
       </c>
       <c r="H92" t="n">
-        <v>0.482672497724681</v>
+        <v>114.25</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5326584119582786</v>
+        <v>31.13</v>
       </c>
       <c r="J92" t="n">
-        <v>0.7653781951252105</v>
+        <v>165.72</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6170169741283276</v>
+        <v>13059.7225</v>
       </c>
     </row>
     <row r="93">
@@ -4434,16 +4434,16 @@
         <v>20</v>
       </c>
       <c r="H93" t="n">
-        <v>0.83012153475099</v>
+        <v>172.2</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8764985714722674</v>
+        <v>47.748</v>
       </c>
       <c r="J93" t="n">
-        <v>0.498944013891738</v>
+        <v>133.548</v>
       </c>
       <c r="K93" t="n">
-        <v>0.8881487437036999</v>
+        <v>18619.364</v>
       </c>
     </row>
     <row r="94">
@@ -4477,16 +4477,16 @@
         <v>20</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7193766209898769</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6507845551486958</v>
+        <v>35.38</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3369345047824393</v>
+        <v>117.07</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6331629274592268</v>
+        <v>13289.28666666667</v>
       </c>
     </row>
     <row r="95">
@@ -4520,16 +4520,16 @@
         <v>21</v>
       </c>
       <c r="H95" t="n">
-        <v>0.7720156772684456</v>
+        <v>158.75</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7753266051602756</v>
+        <v>41.005</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1471088827078142</v>
+        <v>94.9975</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7920480791659958</v>
+        <v>16021.9425</v>
       </c>
     </row>
     <row r="96">
@@ -4563,16 +4563,16 @@
         <v>13.6</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6458647165653264</v>
+        <v>136.6</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7190242767767867</v>
+        <v>38.246</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6471655743027744</v>
+        <v>149.82</v>
       </c>
       <c r="K96" t="n">
-        <v>0.8097643327214097</v>
+        <v>16414.192</v>
       </c>
     </row>
     <row r="97">
@@ -4606,16 +4606,16 @@
         <v>17.2</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5546267185651095</v>
+        <v>123.6</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6431825674672043</v>
+        <v>35.084</v>
       </c>
       <c r="J97" t="n">
-        <v>0.8396327185937293</v>
+        <v>178.83</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7481053970671452</v>
+        <v>15148.98</v>
       </c>
     </row>
     <row r="98">
@@ -4649,16 +4649,16 @@
         <v>19</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6892925988837038</v>
+        <v>143.5</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8108566948265717</v>
+        <v>43.0275</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9337508104426242</v>
+        <v>205.5525</v>
       </c>
       <c r="K98" t="n">
-        <v>0.8930799729160189</v>
+        <v>18797.85</v>
       </c>
     </row>
     <row r="99">
@@ -4692,16 +4692,16 @@
         <v>19.6</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6862696197984464</v>
+        <v>143</v>
       </c>
       <c r="I99" t="n">
-        <v>0.7697442188932191</v>
+        <v>40.71</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7221249719777693</v>
+        <v>159.412</v>
       </c>
       <c r="K99" t="n">
-        <v>0.8084045409324276</v>
+        <v>16383.096</v>
       </c>
     </row>
     <row r="100">
@@ -4735,16 +4735,16 @@
         <v>21.6</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2304691411377503</v>
+        <v>82.8</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1894760458600113</v>
+        <v>20.014</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4421290206114528</v>
+        <v>127.752</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1921151786199074</v>
+        <v>7754.707999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4778,16 +4778,16 @@
         <v>18.8</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5228533465349461</v>
+        <v>119.4</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5978990454035698</v>
+        <v>33.394</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3641385684350484</v>
+        <v>119.858</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6963809733513733</v>
+        <v>14253.696</v>
       </c>
     </row>
     <row r="102">
@@ -4821,16 +4821,16 @@
         <v>17.5</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4162756907889478</v>
+        <v>106</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4575519387468912</v>
+        <v>28.685</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6135394332644833</v>
+        <v>145.895</v>
       </c>
       <c r="K102" t="n">
-        <v>0.4716227516863616</v>
+        <v>11180.915</v>
       </c>
     </row>
     <row r="103">
@@ -4864,16 +4864,16 @@
         <v>25</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1610229924644744</v>
+        <v>73</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2093710636648519</v>
+        <v>20.725</v>
       </c>
       <c r="J103" t="n">
-        <v>0.8409225230128485</v>
+        <v>179.095</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2823500715582104</v>
+        <v>8917.779999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4907,16 +4907,16 @@
         <v>17.6</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3183358202427949</v>
+        <v>94</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3390480648827823</v>
+        <v>24.97</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5100969778511948</v>
+        <v>134.702</v>
       </c>
       <c r="K104" t="n">
-        <v>0.4096226473531657</v>
+        <v>10438.068</v>
       </c>
     </row>
     <row r="105">
@@ -4950,16 +4950,16 @@
         <v>20.8</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6601084573519905</v>
+        <v>138.8</v>
       </c>
       <c r="I105" t="n">
-        <v>0.6732713763104073</v>
+        <v>36.28</v>
       </c>
       <c r="J105" t="n">
-        <v>0.701634257295608</v>
+        <v>156.648</v>
       </c>
       <c r="K105" t="n">
-        <v>0.6839521642892405</v>
+        <v>14054.51</v>
       </c>
     </row>
     <row r="106">
@@ -4993,16 +4993,16 @@
         <v>18.5</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5813935892537393</v>
+        <v>127.25</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6592657099673985</v>
+        <v>35.715</v>
       </c>
       <c r="J106" t="n">
-        <v>0.7693472949901023</v>
+        <v>166.3375</v>
       </c>
       <c r="K106" t="n">
-        <v>0.7111111698805643</v>
+        <v>14497.0275</v>
       </c>
     </row>
     <row r="107">
@@ -5036,16 +5036,16 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5747500940728507</v>
+        <v>126.3333333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>0.6696719480163967</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="J107" t="n">
-        <v>0.7618684372538618</v>
+        <v>165.18</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7416319978872918</v>
+        <v>15030.17</v>
       </c>
     </row>
     <row r="108">
@@ -5079,16 +5079,16 @@
         <v>17.6</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1981760271201579</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2355357825994931</v>
+        <v>21.626</v>
       </c>
       <c r="J108" t="n">
-        <v>0.8923605721128846</v>
+        <v>191.396</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2898169828353051</v>
+        <v>9009.082</v>
       </c>
     </row>
     <row r="109">
@@ -5122,16 +5122,16 @@
         <v>19.2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4791067795797082</v>
+        <v>113.8</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4534277964997339</v>
+        <v>28.55399999999999</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5717072845008602</v>
+        <v>141.238</v>
       </c>
       <c r="K109" t="n">
-        <v>0.4800356675363966</v>
+        <v>11283.304</v>
       </c>
     </row>
     <row r="110">
@@ -5165,16 +5165,16 @@
         <v>26</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3569922404032936</v>
+        <v>98.75</v>
       </c>
       <c r="I110" t="n">
-        <v>0.404507012621671</v>
+        <v>27.015</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6773057462023282</v>
+        <v>153.515</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4363628714611238</v>
+        <v>10756.425</v>
       </c>
     </row>
     <row r="111">
@@ -5208,16 +5208,16 @@
         <v>19.2</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2365056959298527</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2518398685179288</v>
+        <v>22.172</v>
       </c>
       <c r="J111" t="n">
-        <v>0.8186892151313329</v>
+        <v>174.74</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2942921890298453</v>
+        <v>9063.574000000001</v>
       </c>
     </row>
     <row r="112">
@@ -5251,16 +5251,16 @@
         <v>17.2</v>
       </c>
       <c r="H112" t="n">
-        <v>0.06117632471038031</v>
+        <v>54.4</v>
       </c>
       <c r="I112" t="n">
-        <v>0.07692938429596193</v>
+        <v>15.116</v>
       </c>
       <c r="J112" t="n">
-        <v>0.8680976751936056</v>
+        <v>185.114</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1350650569496737</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="113">
@@ -5294,16 +5294,16 @@
         <v>20</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4284788120945846</v>
+        <v>107.5</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4570014642802514</v>
+        <v>28.6675</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4367962858851425</v>
+        <v>127.2125</v>
       </c>
       <c r="K113" t="n">
-        <v>0.4964166515506107</v>
+        <v>11484.1975</v>
       </c>
     </row>
     <row r="114">
@@ -5337,16 +5337,16 @@
         <v>18.8</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2942184255393595</v>
+        <v>91</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3281005808059708</v>
+        <v>24.626</v>
       </c>
       <c r="J114" t="n">
-        <v>0.5719093750930404</v>
+        <v>141.26</v>
       </c>
       <c r="K114" t="n">
-        <v>0.4022468353462439</v>
+        <v>10350.584</v>
       </c>
     </row>
     <row r="115">
@@ -5380,16 +5380,16 @@
         <v>20.8</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3248139413922663</v>
+        <v>94.8</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3547613812931167</v>
+        <v>25.462</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5941569145696013</v>
+        <v>143.71</v>
       </c>
       <c r="K115" t="n">
-        <v>0.4120078282985214</v>
+        <v>10466.382</v>
       </c>
     </row>
     <row r="116">
@@ -5423,16 +5423,16 @@
         <v>19.2</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3574009931958142</v>
+        <v>98.8</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3774386900251324</v>
+        <v>26.17</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4756126557163559</v>
+        <v>131.154</v>
       </c>
       <c r="K116" t="n">
-        <v>0.4374118297232964</v>
+        <v>10768.964</v>
       </c>
     </row>
     <row r="117">
@@ -5466,16 +5466,16 @@
         <v>18.8</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3102634628466635</v>
+        <v>93</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3367536425651747</v>
+        <v>24.898</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5907227523074523</v>
+        <v>143.328</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3968779126265653</v>
+        <v>10286.96</v>
       </c>
     </row>
     <row r="118">
@@ -5509,16 +5509,16 @@
         <v>18</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2365056959298527</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2702720950363356</v>
+        <v>22.778</v>
       </c>
       <c r="J118" t="n">
-        <v>0.6232523474394885</v>
+        <v>147.01</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3484325942801823</v>
+        <v>9712.994000000001</v>
       </c>
     </row>
     <row r="119">
@@ -5552,16 +5552,16 @@
         <v>16</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1868586999705918</v>
+        <v>76.8</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2111104617832889</v>
+        <v>20.786</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5050990947325249</v>
+        <v>134.184</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2976470865658568</v>
+        <v>9104.32</v>
       </c>
     </row>
     <row r="120">
@@ -5595,16 +5595,16 @@
         <v>18.8</v>
       </c>
       <c r="H120" t="n">
-        <v>0.1493429393282194</v>
+        <v>71.2</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1792019168094208</v>
+        <v>19.636</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7596268601777407</v>
+        <v>164.838</v>
       </c>
       <c r="K120" t="n">
-        <v>0.282650726817702</v>
+        <v>8921.466</v>
       </c>
     </row>
     <row r="121">
@@ -5638,16 +5638,16 @@
         <v>18</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1882598599492148</v>
+        <v>77</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2028294314281172</v>
+        <v>20.494</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6680976138333889</v>
+        <v>152.366</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2761359962208917</v>
+        <v>8841.401999999998</v>
       </c>
     </row>
     <row r="122">
@@ -5681,16 +5681,16 @@
         <v>18.4</v>
       </c>
       <c r="H122" t="n">
-        <v>0.1417700757324311</v>
+        <v>70</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1707863072990877</v>
+        <v>19.32</v>
       </c>
       <c r="J122" t="n">
-        <v>0.9684032664791888</v>
+        <v>225.452</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2790393240760197</v>
+        <v>8877.134</v>
       </c>
     </row>
     <row r="123">
@@ -5724,16 +5724,16 @@
         <v>18</v>
       </c>
       <c r="H123" t="n">
-        <v>0.1099696644203119</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1267562679581174</v>
+        <v>17.544</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9186989318267617</v>
+        <v>199.71</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1779497005095158</v>
+        <v>7556.714</v>
       </c>
     </row>
     <row r="124">
@@ -5767,16 +5767,16 @@
         <v>20.4</v>
       </c>
       <c r="H124" t="n">
-        <v>0.1224599974834285</v>
+        <v>66.8</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1276820833859559</v>
+        <v>17.584</v>
       </c>
       <c r="J124" t="n">
-        <v>0.920130710409449</v>
+        <v>200.224</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1744091014813866</v>
+        <v>7506.270000000001</v>
       </c>
     </row>
     <row r="125">
@@ -5810,16 +5810,16 @@
         <v>18.5</v>
       </c>
       <c r="H125" t="n">
-        <v>0.2079098248282364</v>
+        <v>79.75</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2120105928657297</v>
+        <v>20.8175</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6134956006884372</v>
+        <v>145.89</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2680451467115878</v>
+        <v>8741.365</v>
       </c>
     </row>
     <row r="126">
@@ -5853,16 +5853,16 @@
         <v>19.2</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1981760271201579</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2067287263527511</v>
+        <v>20.632</v>
       </c>
       <c r="J126" t="n">
-        <v>0.6287881841026767</v>
+        <v>147.652</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2547119788578426</v>
+        <v>8574.871999999999</v>
       </c>
     </row>
     <row r="127">
@@ -5896,16 +5896,16 @@
         <v>19.6</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1953238600389193</v>
+        <v>78</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2429625634942605</v>
+        <v>21.876</v>
       </c>
       <c r="J127" t="n">
-        <v>0.7803912943935296</v>
+        <v>168.096</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3586168665731526</v>
+        <v>9833.856000000002</v>
       </c>
     </row>
     <row r="128">
@@ -5939,16 +5939,16 @@
         <v>24.4</v>
       </c>
       <c r="H128" t="n">
-        <v>0.980591255185583</v>
+        <v>256</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9769326953682501</v>
+        <v>64.006</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07686802472735732</v>
+        <v>83.208</v>
       </c>
       <c r="K128" t="n">
-        <v>0.93260195432863</v>
+        <v>20564.348</v>
       </c>
     </row>
     <row r="129">
@@ -5982,16 +5982,16 @@
         <v>20</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9628723942545149</v>
+        <v>232.8</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9241454210896933</v>
+        <v>52.776</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04125791997117816</v>
+        <v>74.32599999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>0.8267956429247733</v>
+        <v>16819.404</v>
       </c>
     </row>
     <row r="130">
@@ -6025,16 +6025,16 @@
         <v>19</v>
       </c>
       <c r="H130" t="n">
-        <v>0.81237024986398</v>
+        <v>167.75</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6552313172795283</v>
+        <v>35.555</v>
       </c>
       <c r="J130" t="n">
-        <v>0.01409647287026562</v>
+        <v>62.44</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5499965796403297</v>
+        <v>12159.3425</v>
       </c>
     </row>
     <row r="131">
@@ -6068,16 +6068,16 @@
         <v>20</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9626693422487482</v>
+        <v>232.6</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9427577632382096</v>
+        <v>55.54600000000001</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05413890609832987</v>
+        <v>77.976</v>
       </c>
       <c r="K131" t="n">
-        <v>0.8637587767318385</v>
+        <v>17823.932</v>
       </c>
     </row>
     <row r="132">
@@ -6111,16 +6111,16 @@
         <v>20</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9644607081791752</v>
+        <v>234.4</v>
       </c>
       <c r="I132" t="n">
-        <v>0.895889047939181</v>
+        <v>49.54799999999999</v>
       </c>
       <c r="J132" t="n">
-        <v>0.01224968537503217</v>
+        <v>61.12</v>
       </c>
       <c r="K132" t="n">
-        <v>0.7463220592260429</v>
+        <v>15116.03</v>
       </c>
     </row>
     <row r="133">
@@ -6154,16 +6154,16 @@
         <v>24.4</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9702091556809622</v>
+        <v>240.8</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9571253995148561</v>
+        <v>58.30800000000001</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07540577905913295</v>
+        <v>82.90400000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>0.8766715573063377</v>
+        <v>18228.546</v>
       </c>
     </row>
     <row r="134">
@@ -6197,16 +6197,16 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9397586833755364</v>
+        <v>214.6666666666667</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9038049696069355</v>
+        <v>50.36666666666667</v>
       </c>
       <c r="J134" t="n">
-        <v>0.01468024393211892</v>
+        <v>62.83000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>0.7233545365076995</v>
+        <v>14705.88</v>
       </c>
     </row>
     <row r="135">
@@ -6240,16 +6240,16 @@
         <v>24.4</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9620540639577783</v>
+        <v>232</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9416136525200385</v>
+        <v>55.354</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05083032492767136</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>0.8359685695178537</v>
+        <v>17051.03</v>
       </c>
     </row>
     <row r="136">
@@ -6283,16 +6283,16 @@
         <v>20.8</v>
       </c>
       <c r="H136" t="n">
-        <v>0.9370886740865682</v>
+        <v>213</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8766604570979943</v>
+        <v>47.762</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02380146968434433</v>
+        <v>67.8</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7430219000431202</v>
+        <v>15055.496</v>
       </c>
     </row>
     <row r="137">
@@ -6326,16 +6326,16 @@
         <v>24.8</v>
       </c>
       <c r="H137" t="n">
-        <v>0.9393384237589365</v>
+        <v>214.4</v>
       </c>
       <c r="I137" t="n">
-        <v>0.895788986429082</v>
+        <v>49.538</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02366274228371682</v>
+        <v>67.736</v>
       </c>
       <c r="K137" t="n">
-        <v>0.7739490908672551</v>
+        <v>15647.004</v>
       </c>
     </row>
     <row r="138">
@@ -6369,16 +6369,16 @@
         <v>20</v>
       </c>
       <c r="H138" t="n">
-        <v>0.9337453261413655</v>
+        <v>211</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8749809178881566</v>
+        <v>47.6175</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02524405785865538</v>
+        <v>68.45</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7536237485040214</v>
+        <v>15252.0325</v>
       </c>
     </row>
     <row r="139">
@@ -6412,16 +6412,16 @@
         <v>21.6</v>
       </c>
       <c r="H139" t="n">
-        <v>0.9219588580613638</v>
+        <v>204.6</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8659573017526736</v>
+        <v>46.86799999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02700495811839695</v>
+        <v>69.208</v>
       </c>
       <c r="K139" t="n">
-        <v>0.7277086506181469</v>
+        <v>14781.716</v>
       </c>
     </row>
     <row r="140">
@@ -6455,16 +6455,16 @@
         <v>20.5</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9202616153680913</v>
+        <v>203.75</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8514234014838876</v>
+        <v>45.745</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02365517261424462</v>
+        <v>67.7325</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7312016629526144</v>
+        <v>14843.1775</v>
       </c>
     </row>
     <row r="141">
@@ -6498,16 +6498,16 @@
         <v>20</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9377389575621227</v>
+        <v>213.4</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8959890268134242</v>
+        <v>49.558</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03384365024908248</v>
+        <v>71.854</v>
       </c>
       <c r="K141" t="n">
-        <v>0.8042392723266768</v>
+        <v>16288.91</v>
       </c>
     </row>
     <row r="142">
@@ -6541,16 +6541,16 @@
         <v>20.8</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9340866514703928</v>
+        <v>211.2</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8860071569475013</v>
+        <v>48.598</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02901249517427873</v>
+        <v>70.03</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7695017532049413</v>
+        <v>15558.38</v>
       </c>
     </row>
     <row r="143">
@@ -6584,16 +6584,16 @@
         <v>24.4</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9526630038923877</v>
+        <v>223.8</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9265841495201791</v>
+        <v>53.102</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02950650062146679</v>
+        <v>70.226</v>
       </c>
       <c r="K143" t="n">
-        <v>0.8145572546214561</v>
+        <v>16525.214</v>
       </c>
     </row>
     <row r="144">
@@ -6627,16 +6627,16 @@
         <v>20</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9345956994080376</v>
+        <v>211.5</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8740428015394688</v>
+        <v>47.5375</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01800299403229276</v>
+        <v>64.85249999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>0.7490621393202443</v>
+        <v>15166.7275</v>
       </c>
     </row>
     <row r="145">
@@ -6670,16 +6670,16 @@
         <v>24.8</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9534159046807447</v>
+        <v>224.4</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9264513262701994</v>
+        <v>53.084</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02786174622142789</v>
+        <v>69.56399999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>0.8207507208595672</v>
+        <v>16672.094</v>
       </c>
     </row>
     <row r="146">
@@ -6713,16 +6713,16 @@
         <v>17.6</v>
       </c>
       <c r="H146" t="n">
-        <v>0.448708786389215</v>
+        <v>110</v>
       </c>
       <c r="I146" t="n">
-        <v>0.3660302726694224</v>
+        <v>25.814</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3549494958587984</v>
+        <v>118.92</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2848841982238683</v>
+        <v>8948.822</v>
       </c>
     </row>
     <row r="147">
@@ -6756,16 +6756,16 @@
         <v>15.6</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5693966336504828</v>
+        <v>125.6</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5157607965822584</v>
+        <v>30.568</v>
       </c>
       <c r="J147" t="n">
-        <v>0.229899168035937</v>
+        <v>105.49</v>
       </c>
       <c r="K147" t="n">
-        <v>0.4937199374331187</v>
+        <v>11450.976</v>
       </c>
     </row>
     <row r="148">
@@ -6799,16 +6799,16 @@
         <v>20.5</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2376426757603686</v>
+        <v>83.75</v>
       </c>
       <c r="I148" t="n">
-        <v>0.158577473787299</v>
+        <v>18.85</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2827613477923558</v>
+        <v>111.3725</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1225430647423516</v>
+        <v>6708.077499999999</v>
       </c>
     </row>
     <row r="149">
@@ -6842,16 +6842,16 @@
         <v>12.8</v>
       </c>
       <c r="H149" t="n">
-        <v>0.3688536946096528</v>
+        <v>100.2</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3314697909417919</v>
+        <v>24.732</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3255925031871906</v>
+        <v>115.896</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3832920613924854</v>
+        <v>10126.09</v>
       </c>
     </row>
     <row r="150">
@@ -6885,16 +6885,16 @@
         <v>13.2</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4097519849373644</v>
+        <v>105.2</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3681447398101086</v>
+        <v>25.88</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2788085077488118</v>
+        <v>110.946</v>
       </c>
       <c r="K150" t="n">
-        <v>0.3467501773679603</v>
+        <v>9693.004000000001</v>
       </c>
     </row>
     <row r="151">
@@ -6928,16 +6928,16 @@
         <v>12.5</v>
       </c>
       <c r="H151" t="n">
-        <v>0.3467822615208782</v>
+        <v>97.5</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2433057941201627</v>
+        <v>21.8875</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1376397240157824</v>
+        <v>93.63</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1831044550916208</v>
+        <v>7629.4475</v>
       </c>
     </row>
     <row r="152">
@@ -6971,16 +6971,16 @@
         <v>13.6</v>
       </c>
       <c r="H152" t="n">
-        <v>0.3167189933747293</v>
+        <v>93.8</v>
       </c>
       <c r="I152" t="n">
-        <v>0.2600724017983947</v>
+        <v>22.444</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4369495530111995</v>
+        <v>127.228</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2838285573613682</v>
+        <v>8935.897999999999</v>
       </c>
     </row>
     <row r="153">
@@ -7014,16 +7014,16 @@
         <v>18</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3304953048947329</v>
+        <v>95.5</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2926196257434209</v>
+        <v>23.5</v>
       </c>
       <c r="J153" t="n">
-        <v>0.6087914625709916</v>
+        <v>145.355</v>
       </c>
       <c r="K153" t="n">
-        <v>0.3041254912599511</v>
+        <v>9182.765000000001</v>
       </c>
     </row>
     <row r="154">
@@ -7057,16 +7057,16 @@
         <v>13.6</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4130150118619862</v>
+        <v>105.6</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3246720067906328</v>
+        <v>24.518</v>
       </c>
       <c r="J154" t="n">
-        <v>0.3877925699384255</v>
+        <v>122.26</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2779463246829926</v>
+        <v>8863.691999999999</v>
       </c>
     </row>
     <row r="155">
@@ -7100,16 +7100,16 @@
         <v>11.2</v>
       </c>
       <c r="H155" t="n">
-        <v>0.4032197261074102</v>
+        <v>104.4</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3239741407652376</v>
+        <v>24.496</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3086907136305932</v>
+        <v>114.13</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3586377824933901</v>
+        <v>9834.103999999999</v>
       </c>
     </row>
     <row r="156">
@@ -7143,16 +7143,16 @@
         <v>18</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5182366906054762</v>
+        <v>118.8</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4526083341081394</v>
+        <v>28.528</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5760708464149049</v>
+        <v>141.714</v>
       </c>
       <c r="K156" t="n">
-        <v>0.3979429479560278</v>
+        <v>10299.578</v>
       </c>
     </row>
     <row r="157">
@@ -7186,16 +7186,16 @@
         <v>12.4</v>
       </c>
       <c r="H157" t="n">
-        <v>0.4743403850693799</v>
+        <v>113.2</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3329967398772883</v>
+        <v>24.78</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1598979748558724</v>
+        <v>96.774</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2044086676590434</v>
+        <v>7922.117999999999</v>
       </c>
     </row>
     <row r="158">
@@ -7229,16 +7229,16 @@
         <v>15.2</v>
       </c>
       <c r="H158" t="n">
-        <v>0.2799139385421296</v>
+        <v>89.2</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2086027411185153</v>
+        <v>20.698</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1942857962913089</v>
+        <v>101.232</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1551327061246519</v>
+        <v>7223.842</v>
       </c>
     </row>
     <row r="159">
@@ -7272,16 +7272,16 @@
         <v>12.8</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2862539247033746</v>
+        <v>90</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2255470303604904</v>
+        <v>21.286</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2964653061157023</v>
+        <v>112.838</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2282727747258039</v>
+        <v>8237.402</v>
       </c>
     </row>
     <row r="160">
@@ -7315,16 +7315,16 @@
         <v>10.8</v>
       </c>
       <c r="H160" t="n">
-        <v>0.2990166125811392</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>0.267453108835832</v>
+        <v>22.686</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4016136224402531</v>
+        <v>123.658</v>
       </c>
       <c r="K160" t="n">
-        <v>0.3252926143735527</v>
+        <v>9437.218000000001</v>
       </c>
     </row>
     <row r="161">
@@ -7358,16 +7358,16 @@
         <v>17</v>
       </c>
       <c r="H161" t="n">
-        <v>0.2510207607103472</v>
+        <v>85.5</v>
       </c>
       <c r="I161" t="n">
-        <v>0.232039394717715</v>
+        <v>21.5075</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4285357125420872</v>
+        <v>126.3775</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2111613534304327</v>
+        <v>8012.5375</v>
       </c>
     </row>
     <row r="162">
@@ -7401,16 +7401,16 @@
         <v>15.2</v>
       </c>
       <c r="H162" t="n">
-        <v>0.4583594257978283</v>
+        <v>111.2</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3763488942579308</v>
+        <v>26.136</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1316567365967431</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>0.3015340394577652</v>
+        <v>9151.422</v>
       </c>
     </row>
     <row r="163">
@@ -7444,16 +7444,16 @@
         <v>12.4</v>
       </c>
       <c r="H163" t="n">
-        <v>0.4438679315137374</v>
+        <v>109.4</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2500935038865622</v>
+        <v>22.114</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06092802281634798</v>
+        <v>79.66800000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1151809344096802</v>
+        <v>6582.836</v>
       </c>
     </row>
     <row r="164">
@@ -7487,16 +7487,16 @@
         <v>30</v>
       </c>
       <c r="H164" t="n">
-        <v>0.6739824002107537</v>
+        <v>141</v>
       </c>
       <c r="I164" t="n">
-        <v>0.8076274966841379</v>
+        <v>42.832</v>
       </c>
       <c r="J164" t="n">
-        <v>0.6657822576098611</v>
+        <v>152.08</v>
       </c>
       <c r="K164" t="n">
-        <v>0.8375504338238235</v>
+        <v>17092.026</v>
       </c>
     </row>
     <row r="165">
@@ -7530,16 +7530,16 @@
         <v>24.8</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6813921567676828</v>
+        <v>142.2</v>
       </c>
       <c r="I165" t="n">
-        <v>0.7720654191089711</v>
+        <v>40.83199999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>0.5533986926653942</v>
+        <v>139.262</v>
       </c>
       <c r="K165" t="n">
-        <v>0.808233723800724</v>
+        <v>16379.202</v>
       </c>
     </row>
     <row r="166">
@@ -7573,16 +7573,16 @@
         <v>23.6</v>
       </c>
       <c r="H166" t="n">
-        <v>0.2053706174509289</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2127115910907743</v>
+        <v>20.842</v>
       </c>
       <c r="J166" t="n">
-        <v>0.6316686105326348</v>
+        <v>147.988</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2816015880651264</v>
+        <v>8908.6</v>
       </c>
     </row>
     <row r="167">
@@ -7616,16 +7616,16 @@
         <v>17.2</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6079904677015581</v>
+        <v>131</v>
       </c>
       <c r="I167" t="n">
-        <v>0.720390918987353</v>
+        <v>38.308</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5916230195986617</v>
+        <v>143.428</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7958253852658437</v>
+        <v>16103.33</v>
       </c>
     </row>
     <row r="168">
@@ -7659,16 +7659,16 @@
         <v>24.4</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6458647165653264</v>
+        <v>136.6</v>
       </c>
       <c r="I168" t="n">
-        <v>0.7508163704696806</v>
+        <v>39.748</v>
       </c>
       <c r="J168" t="n">
-        <v>0.667013947115635</v>
+        <v>152.232</v>
       </c>
       <c r="K168" t="n">
-        <v>0.7994146457957286</v>
+        <v>16181.754</v>
       </c>
     </row>
     <row r="169">
@@ -7702,16 +7702,16 @@
         <v>24</v>
       </c>
       <c r="H169" t="n">
-        <v>0.55908327079947</v>
+        <v>124.2</v>
       </c>
       <c r="I169" t="n">
-        <v>0.6512945556923309</v>
+        <v>35.4</v>
       </c>
       <c r="J169" t="n">
-        <v>0.5563655245481727</v>
+        <v>139.58</v>
       </c>
       <c r="K169" t="n">
-        <v>0.703213116721531</v>
+        <v>14365.532</v>
       </c>
     </row>
     <row r="170">
@@ -7745,16 +7745,16 @@
         <v>24.8</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6458647165653264</v>
+        <v>136.6</v>
       </c>
       <c r="I170" t="n">
-        <v>0.7624003403543836</v>
+        <v>40.33</v>
       </c>
       <c r="J170" t="n">
-        <v>0.7974559716990601</v>
+        <v>170.942</v>
       </c>
       <c r="K170" t="n">
-        <v>0.8262281004691968</v>
+        <v>16805.4</v>
       </c>
     </row>
     <row r="171">
@@ -7788,16 +7788,16 @@
         <v>20</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5810326183784337</v>
+        <v>127.2</v>
       </c>
       <c r="I171" t="n">
-        <v>0.6503251585774306</v>
+        <v>35.362</v>
       </c>
       <c r="J171" t="n">
-        <v>0.5789207043553699</v>
+        <v>142.026</v>
       </c>
       <c r="K171" t="n">
-        <v>0.7251193722061287</v>
+        <v>14736.516</v>
       </c>
     </row>
     <row r="172">
@@ -7831,16 +7831,16 @@
         <v>20</v>
       </c>
       <c r="H172" t="n">
-        <v>0.4667665786436656</v>
+        <v>112.25</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5580052960531756</v>
+        <v>31.99</v>
       </c>
       <c r="J172" t="n">
-        <v>0.6578610886122415</v>
+        <v>151.11</v>
       </c>
       <c r="K172" t="n">
-        <v>0.6497517763134636</v>
+        <v>13531.5</v>
       </c>
     </row>
     <row r="173">
@@ -7874,16 +7874,16 @@
         <v>21.6</v>
       </c>
       <c r="H173" t="n">
-        <v>0.3737649879352482</v>
+        <v>100.8</v>
       </c>
       <c r="I173" t="n">
-        <v>0.4336203131649449</v>
+        <v>27.928</v>
       </c>
       <c r="J173" t="n">
-        <v>0.5594733939756651</v>
+        <v>139.914</v>
       </c>
       <c r="K173" t="n">
-        <v>0.5296951603693103</v>
+        <v>11899.808</v>
       </c>
     </row>
     <row r="174">
@@ -7917,16 +7917,16 @@
         <v>20</v>
       </c>
       <c r="H174" t="n">
-        <v>0.4130150118619862</v>
+        <v>105.6</v>
       </c>
       <c r="I174" t="n">
-        <v>0.414382907997137</v>
+        <v>27.324</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4246803862089679</v>
+        <v>125.988</v>
       </c>
       <c r="K174" t="n">
-        <v>0.4676945604290378</v>
+        <v>11133.272</v>
       </c>
     </row>
     <row r="175">
@@ -7960,16 +7960,16 @@
         <v>22</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5953427171708396</v>
+        <v>129.2</v>
       </c>
       <c r="I175" t="n">
-        <v>0.6312227638184433</v>
+        <v>34.626</v>
       </c>
       <c r="J175" t="n">
-        <v>0.605938034018512</v>
+        <v>145.032</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6843450518616194</v>
+        <v>14060.726</v>
       </c>
     </row>
     <row r="176">
@@ -8003,16 +8003,16 @@
         <v>24.8</v>
       </c>
       <c r="H176" t="n">
-        <v>0.5781390092336069</v>
+        <v>126.8</v>
       </c>
       <c r="I176" t="n">
-        <v>0.675564838173955</v>
+        <v>36.374</v>
       </c>
       <c r="J176" t="n">
-        <v>0.6485520747632547</v>
+        <v>149.986</v>
       </c>
       <c r="K176" t="n">
-        <v>0.7270745078925818</v>
+        <v>14770.618</v>
       </c>
     </row>
     <row r="177">
@@ -8046,16 +8046,16 @@
         <v>19.6</v>
       </c>
       <c r="H177" t="n">
-        <v>0.5576001541904912</v>
+        <v>124</v>
       </c>
       <c r="I177" t="n">
-        <v>0.6199945548558082</v>
+        <v>34.20399999999999</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4783141911816458</v>
+        <v>131.43</v>
       </c>
       <c r="K177" t="n">
-        <v>0.6779773209418255</v>
+        <v>13960.6</v>
       </c>
     </row>
     <row r="178">
@@ -8089,16 +8089,16 @@
         <v>20</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5561146322827676</v>
+        <v>123.8</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6502230195180521</v>
+        <v>35.358</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6218315045550004</v>
+        <v>146.846</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7366964372509488</v>
+        <v>14941.024</v>
       </c>
     </row>
     <row r="179">
@@ -8132,16 +8132,16 @@
         <v>24.8</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6093819187755515</v>
+        <v>131.2</v>
       </c>
       <c r="I179" t="n">
-        <v>0.704917850229052</v>
+        <v>37.618</v>
       </c>
       <c r="J179" t="n">
-        <v>0.5054082488244134</v>
+        <v>134.216</v>
       </c>
       <c r="K179" t="n">
-        <v>0.7445958650832291</v>
+        <v>15084.296</v>
       </c>
     </row>
     <row r="180">
@@ -8175,16 +8175,16 @@
         <v>19.6</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6135394106462205</v>
+        <v>131.8</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6548515613705617</v>
+        <v>35.54</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4228984277872029</v>
+        <v>125.808</v>
       </c>
       <c r="K180" t="n">
-        <v>0.7000120242876402</v>
+        <v>14312.918</v>
       </c>
     </row>
     <row r="181">
@@ -8218,16 +8218,16 @@
         <v>20</v>
       </c>
       <c r="H181" t="n">
-        <v>0.5456497805475184</v>
+        <v>122.4</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6365792109124848</v>
+        <v>34.83</v>
       </c>
       <c r="J181" t="n">
-        <v>0.6055485606211761</v>
+        <v>144.988</v>
       </c>
       <c r="K181" t="n">
-        <v>0.7194581697119531</v>
+        <v>14638.726</v>
       </c>
     </row>
     <row r="182">
@@ -8261,16 +8261,16 @@
         <v>20.8</v>
       </c>
       <c r="H182" t="n">
-        <v>0.448708786389215</v>
+        <v>110</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5405075386503084</v>
+        <v>31.394</v>
       </c>
       <c r="J182" t="n">
-        <v>0.7514988263186468</v>
+        <v>163.616</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6621878138692001</v>
+        <v>13717.748</v>
       </c>
     </row>
     <row r="183">
@@ -8304,16 +8304,16 @@
         <v>21.6</v>
       </c>
       <c r="H183" t="n">
-        <v>0.471155353768862</v>
+        <v>112.8</v>
       </c>
       <c r="I183" t="n">
-        <v>0.5104798044668822</v>
+        <v>30.394</v>
       </c>
       <c r="J183" t="n">
-        <v>0.6108260000905731</v>
+        <v>145.586</v>
       </c>
       <c r="K183" t="n">
-        <v>0.6053410933839931</v>
+        <v>12897.156</v>
       </c>
     </row>
     <row r="184">
@@ -8347,16 +8347,16 @@
         <v>26.4</v>
       </c>
       <c r="H184" t="n">
-        <v>0.1570878704205668</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1831440537370087</v>
+        <v>19.782</v>
       </c>
       <c r="J184" t="n">
-        <v>0.8294829568764374</v>
+        <v>176.8</v>
       </c>
       <c r="K184" t="n">
-        <v>0.2674027701845162</v>
+        <v>8733.392</v>
       </c>
     </row>
     <row r="185">
@@ -8390,16 +8390,16 @@
         <v>19.6</v>
       </c>
       <c r="H185" t="n">
-        <v>0.6299124621851946</v>
+        <v>134.2</v>
       </c>
       <c r="I185" t="n">
-        <v>0.732565322108458</v>
+        <v>38.86999999999999</v>
       </c>
       <c r="J185" t="n">
-        <v>0.823960162658318</v>
+        <v>175.734</v>
       </c>
       <c r="K185" t="n">
-        <v>0.83984598670913</v>
+        <v>17152.098</v>
       </c>
     </row>
     <row r="186">
@@ -8433,16 +8433,16 @@
         <v>20.4</v>
       </c>
       <c r="H186" t="n">
-        <v>0.3901363739337351</v>
+        <v>102.8</v>
       </c>
       <c r="I186" t="n">
-        <v>0.4879674523196765</v>
+        <v>29.66</v>
       </c>
       <c r="J186" t="n">
-        <v>0.8464976262141046</v>
+        <v>180.26</v>
       </c>
       <c r="K186" t="n">
-        <v>0.6394416011267976</v>
+        <v>13380.166</v>
       </c>
     </row>
     <row r="187">
@@ -8476,16 +8476,16 @@
         <v>20.4</v>
       </c>
       <c r="H187" t="n">
-        <v>0.6009914617721244</v>
+        <v>130</v>
       </c>
       <c r="I187" t="n">
-        <v>0.7152975925146672</v>
+        <v>38.078</v>
       </c>
       <c r="J187" t="n">
-        <v>0.8393884547479417</v>
+        <v>178.78</v>
       </c>
       <c r="K187" t="n">
-        <v>0.8364372916433335</v>
+        <v>17063.144</v>
       </c>
     </row>
     <row r="188">
@@ -8519,16 +8519,16 @@
         <v>22</v>
       </c>
       <c r="H188" t="n">
-        <v>0.5217009036923943</v>
+        <v>119.25</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6514219834079353</v>
+        <v>35.405</v>
       </c>
       <c r="J188" t="n">
-        <v>0.8864614326548056</v>
+        <v>189.77</v>
       </c>
       <c r="K188" t="n">
-        <v>0.7841361972898093</v>
+        <v>15855.0925</v>
       </c>
     </row>
     <row r="189">
@@ -8562,16 +8562,16 @@
         <v>20</v>
       </c>
       <c r="H189" t="n">
-        <v>0.6562602133883264</v>
+        <v>138.2</v>
       </c>
       <c r="I189" t="n">
-        <v>0.7892523609362541</v>
+        <v>41.766</v>
       </c>
       <c r="J189" t="n">
-        <v>0.8216837966447545</v>
+        <v>175.302</v>
       </c>
       <c r="K189" t="n">
-        <v>0.8875213613559029</v>
+        <v>18597.14</v>
       </c>
     </row>
     <row r="190">
@@ -8605,16 +8605,16 @@
         <v>20</v>
       </c>
       <c r="H190" t="n">
-        <v>0.448708786389215</v>
+        <v>110</v>
       </c>
       <c r="I190" t="n">
-        <v>0.5102060415478128</v>
+        <v>30.385</v>
       </c>
       <c r="J190" t="n">
-        <v>0.772937484680982</v>
+        <v>166.9025</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6191357260035439</v>
+        <v>13089.5225</v>
       </c>
     </row>
     <row r="191">
@@ -8648,16 +8648,16 @@
         <v>20</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5011577251310103</v>
+        <v>116.6</v>
       </c>
       <c r="I191" t="n">
-        <v>0.6076967016214713</v>
+        <v>33.75</v>
       </c>
       <c r="J191" t="n">
-        <v>0.8783052352123299</v>
+        <v>187.632</v>
       </c>
       <c r="K191" t="n">
-        <v>0.7561146225058182</v>
+        <v>15299.104</v>
       </c>
     </row>
     <row r="192">
@@ -8691,16 +8691,16 @@
         <v>20.5</v>
       </c>
       <c r="H192" t="n">
-        <v>0.4406353661270111</v>
+        <v>109</v>
       </c>
       <c r="I192" t="n">
-        <v>0.5614895577441515</v>
+        <v>32.11</v>
       </c>
       <c r="J192" t="n">
-        <v>0.8379414406425103</v>
+        <v>178.485</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7107958125001679</v>
+        <v>14491.73</v>
       </c>
     </row>
     <row r="193">
@@ -8734,16 +8734,16 @@
         <v>19.6</v>
       </c>
       <c r="H193" t="n">
-        <v>0.4195338145136543</v>
+        <v>106.4</v>
       </c>
       <c r="I193" t="n">
-        <v>0.5259534121495293</v>
+        <v>30.906</v>
       </c>
       <c r="J193" t="n">
-        <v>0.8690576727862181</v>
+        <v>185.344</v>
       </c>
       <c r="K193" t="n">
-        <v>0.6744973978414334</v>
+        <v>13906.428</v>
       </c>
     </row>
     <row r="194">
@@ -8777,16 +8777,16 @@
         <v>20</v>
       </c>
       <c r="H194" t="n">
-        <v>0.528979962647843</v>
+        <v>120.2</v>
       </c>
       <c r="I194" t="n">
-        <v>0.6679120985898555</v>
+        <v>36.062</v>
       </c>
       <c r="J194" t="n">
-        <v>0.88426408194735</v>
+        <v>189.182</v>
       </c>
       <c r="K194" t="n">
-        <v>0.8062235994900593</v>
+        <v>16333.582</v>
       </c>
     </row>
     <row r="195">
@@ -8820,16 +8820,16 @@
         <v>20.4</v>
       </c>
       <c r="H195" t="n">
-        <v>0.6405947845685186</v>
+        <v>135.8</v>
       </c>
       <c r="I195" t="n">
-        <v>0.668159169401523</v>
+        <v>36.072</v>
       </c>
       <c r="J195" t="n">
-        <v>0.648718921577084</v>
+        <v>150.006</v>
       </c>
       <c r="K195" t="n">
-        <v>0.7063868627261506</v>
+        <v>14418.08</v>
       </c>
     </row>
     <row r="196">
@@ -8863,16 +8863,16 @@
         <v>20</v>
       </c>
       <c r="H196" t="n">
-        <v>0.5365902864813208</v>
+        <v>121.2</v>
       </c>
       <c r="I196" t="n">
-        <v>0.603034749794354</v>
+        <v>33.58</v>
       </c>
       <c r="J196" t="n">
-        <v>0.7563102841071527</v>
+        <v>164.336</v>
       </c>
       <c r="K196" t="n">
-        <v>0.7299170274888256</v>
+        <v>14820.508</v>
       </c>
     </row>
     <row r="197">
@@ -8906,16 +8906,16 @@
         <v>21.2</v>
       </c>
       <c r="H197" t="n">
-        <v>0.5766883285467346</v>
+        <v>126.6</v>
       </c>
       <c r="I197" t="n">
-        <v>0.653989811475117</v>
+        <v>35.506</v>
       </c>
       <c r="J197" t="n">
-        <v>0.7869240336906003</v>
+        <v>169.166</v>
       </c>
       <c r="K197" t="n">
-        <v>0.7587306544264018</v>
+        <v>15348.924</v>
       </c>
     </row>
     <row r="198">
@@ -8949,16 +8949,16 @@
         <v>20.8</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3557661245057019</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I198" t="n">
-        <v>0.4617307544454879</v>
+        <v>28.818</v>
       </c>
       <c r="J198" t="n">
-        <v>0.9028099707536164</v>
+        <v>194.466</v>
       </c>
       <c r="K198" t="n">
-        <v>0.6042551680351851</v>
+        <v>12882.174</v>
       </c>
     </row>
     <row r="199">
@@ -8992,16 +8992,16 @@
         <v>20.5</v>
       </c>
       <c r="H199" t="n">
-        <v>0.5686639899149033</v>
+        <v>125.5</v>
       </c>
       <c r="I199" t="n">
-        <v>0.6476507061756656</v>
+        <v>35.25750000000001</v>
       </c>
       <c r="J199" t="n">
-        <v>0.7663950537607915</v>
+        <v>165.8775</v>
       </c>
       <c r="K199" t="n">
-        <v>0.7561126982598738</v>
+        <v>15299.0675</v>
       </c>
     </row>
     <row r="200">
@@ -9035,16 +9035,16 @@
         <v>18</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9810306930777347</v>
+        <v>256.8</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9550815032834472</v>
+        <v>57.86800000000001</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4638764434806238</v>
+        <v>129.958</v>
       </c>
       <c r="K200" t="n">
-        <v>0.9322375440775067</v>
+        <v>20544.272</v>
       </c>
     </row>
     <row r="201">
@@ -9078,16 +9078,16 @@
         <v>24.4</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9913015154434464</v>
+        <v>283.4</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9977706999262264</v>
+        <v>83.69800000000001</v>
       </c>
       <c r="J201" t="n">
-        <v>0.8685575052594862</v>
+        <v>185.224</v>
       </c>
       <c r="K201" t="n">
-        <v>0.9992175714383164</v>
+        <v>34880.332</v>
       </c>
     </row>
     <row r="202">
@@ -9121,16 +9121,16 @@
         <v>22.4</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9436227529928302</v>
+        <v>217.2</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9678120356114683</v>
+        <v>60.97799999999999</v>
       </c>
       <c r="J202" t="n">
-        <v>0.8398181669174813</v>
+        <v>178.868</v>
       </c>
       <c r="K202" t="n">
-        <v>0.9832004566766128</v>
+        <v>25419.98</v>
       </c>
     </row>
     <row r="203">
@@ -9164,16 +9164,16 @@
         <v>24</v>
       </c>
       <c r="H203" t="n">
-        <v>0.9852013481946781</v>
+        <v>265.4</v>
       </c>
       <c r="I203" t="n">
-        <v>0.9935624671395408</v>
+        <v>75.03400000000001</v>
       </c>
       <c r="J203" t="n">
-        <v>0.8297387177962768</v>
+        <v>176.85</v>
       </c>
       <c r="K203" t="n">
-        <v>0.9969479592374864</v>
+        <v>30825.388</v>
       </c>
     </row>
     <row r="204">
@@ -9207,16 +9207,16 @@
         <v>33.2</v>
       </c>
       <c r="H204" t="n">
-        <v>0.9867547264289253</v>
+        <v>269.2</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9946993062415076</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="J204" t="n">
-        <v>0.7701800508257955</v>
+        <v>166.468</v>
       </c>
       <c r="K204" t="n">
-        <v>0.9952325377646621</v>
+        <v>29453.194</v>
       </c>
     </row>
     <row r="205">
@@ -9250,16 +9250,16 @@
         <v>28.4</v>
       </c>
       <c r="H205" t="n">
-        <v>0.9894742128459397</v>
+        <v>277</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9928508287433981</v>
+        <v>74.15599999999999</v>
       </c>
       <c r="J205" t="n">
-        <v>0.6733412864497283</v>
+        <v>153.018</v>
       </c>
       <c r="K205" t="n">
-        <v>0.9938025102059238</v>
+        <v>28633.92</v>
       </c>
     </row>
     <row r="206">
@@ -9293,16 +9293,16 @@
         <v>20</v>
       </c>
       <c r="H206" t="n">
-        <v>0.9869089815154956</v>
+        <v>269.6</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9824022642415101</v>
+        <v>66.414</v>
       </c>
       <c r="J206" t="n">
-        <v>0.5957526046377151</v>
+        <v>143.888</v>
       </c>
       <c r="K206" t="n">
-        <v>0.9850789092728803</v>
+        <v>25811.592</v>
       </c>
     </row>
     <row r="207">
@@ -9336,16 +9336,16 @@
         <v>20</v>
       </c>
       <c r="H207" t="n">
-        <v>0.9822937779750233</v>
+        <v>259.2</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9775015467248009</v>
+        <v>64.22999999999999</v>
       </c>
       <c r="J207" t="n">
-        <v>0.5927920210235817</v>
+        <v>143.558</v>
       </c>
       <c r="K207" t="n">
-        <v>0.9812488567008555</v>
+        <v>25054.396</v>
       </c>
     </row>
     <row r="208">
@@ -9379,16 +9379,16 @@
         <v>24.4</v>
       </c>
       <c r="H208" t="n">
-        <v>0.989221742097917</v>
+        <v>276.2</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9841183982690785</v>
+        <v>67.316</v>
       </c>
       <c r="J208" t="n">
-        <v>0.4228786274213123</v>
+        <v>125.806</v>
       </c>
       <c r="K208" t="n">
-        <v>0.9738446396760549</v>
+        <v>23930.76</v>
       </c>
     </row>
     <row r="209">
@@ -9422,16 +9422,16 @@
         <v>17</v>
       </c>
       <c r="H209" t="n">
-        <v>0.9893959237157888</v>
+        <v>276.75</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9931749105895544</v>
+        <v>74.545</v>
       </c>
       <c r="J209" t="n">
-        <v>0.5736071948290845</v>
+        <v>141.445</v>
       </c>
       <c r="K209" t="n">
-        <v>0.9978606905305287</v>
+        <v>31901.815</v>
       </c>
     </row>
     <row r="210">
@@ -9465,16 +9465,16 @@
         <v>31</v>
       </c>
       <c r="H210" t="n">
-        <v>0.9866769575235614</v>
+        <v>269</v>
       </c>
       <c r="I210" t="n">
-        <v>0.997384370951112</v>
+        <v>82.41499999999999</v>
       </c>
       <c r="J210" t="n">
-        <v>0.9291178606202781</v>
+        <v>203.6425</v>
       </c>
       <c r="K210" t="n">
-        <v>0.9988406598797064</v>
+        <v>33727.0425</v>
       </c>
     </row>
     <row r="211">
@@ -9508,16 +9508,16 @@
         <v>20</v>
       </c>
       <c r="H211" t="n">
-        <v>0.9195533550632813</v>
+        <v>203.4</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9087839703191513</v>
+        <v>50.912</v>
       </c>
       <c r="J211" t="n">
-        <v>0.548306005216038</v>
+        <v>138.718</v>
       </c>
       <c r="K211" t="n">
-        <v>0.9138899239952213</v>
+        <v>19639.294</v>
       </c>
     </row>
     <row r="212">
@@ -9551,16 +9551,16 @@
         <v>17.6</v>
       </c>
       <c r="H212" t="n">
-        <v>0.932711877410117</v>
+        <v>210.4</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9619839943796271</v>
+        <v>59.436</v>
       </c>
       <c r="J212" t="n">
-        <v>0.7777012282881569</v>
+        <v>167.662</v>
       </c>
       <c r="K212" t="n">
-        <v>0.9832792029321853</v>
+        <v>25435.552</v>
       </c>
     </row>
     <row r="213">
@@ -9594,16 +9594,16 @@
         <v>19.6</v>
       </c>
       <c r="H213" t="n">
-        <v>0.954157913963034</v>
+        <v>225</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9737494678775088</v>
+        <v>62.84000000000001</v>
       </c>
       <c r="J213" t="n">
-        <v>0.8247453958673366</v>
+        <v>175.884</v>
       </c>
       <c r="K213" t="n">
-        <v>0.9888675598731295</v>
+        <v>26767.248</v>
       </c>
     </row>
     <row r="214">
@@ -9637,16 +9637,16 @@
         <v>20</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9707828548725991</v>
+        <v>241.5</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9779491665267621</v>
+        <v>64.41</v>
       </c>
       <c r="J214" t="n">
-        <v>0.6552249602203543</v>
+        <v>150.79</v>
       </c>
       <c r="K214" t="n">
-        <v>0.9876649875381925</v>
+        <v>26434.4</v>
       </c>
     </row>
     <row r="215">
@@ -9680,16 +9680,16 @@
         <v>20</v>
       </c>
       <c r="H215" t="n">
-        <v>0.9882691773867062</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="I215" t="n">
-        <v>0.9926558672218762</v>
+        <v>73.92999999999999</v>
       </c>
       <c r="J215" t="n">
-        <v>0.732606048443955</v>
+        <v>160.8766666666667</v>
       </c>
       <c r="K215" t="n">
-        <v>0.9970203187564934</v>
+        <v>30898.52333333333</v>
       </c>
     </row>
     <row r="216">
@@ -9723,16 +9723,16 @@
         <v>20</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9788571701567852</v>
+        <v>253</v>
       </c>
       <c r="I216" t="n">
-        <v>0.9845089151002338</v>
+        <v>67.53400000000001</v>
       </c>
       <c r="J216" t="n">
-        <v>0.7764912157118278</v>
+        <v>167.468</v>
       </c>
       <c r="K216" t="n">
-        <v>0.9914886707565729</v>
+        <v>27629.686</v>
       </c>
     </row>
     <row r="217">
@@ -9766,16 +9766,16 @@
         <v>21.6</v>
       </c>
       <c r="H217" t="n">
-        <v>0.9702091556809622</v>
+        <v>240.8</v>
       </c>
       <c r="I217" t="n">
-        <v>0.9833549920298622</v>
+        <v>66.904</v>
       </c>
       <c r="J217" t="n">
-        <v>0.8349024547760351</v>
+        <v>177.872</v>
       </c>
       <c r="K217" t="n">
-        <v>0.9933311729168322</v>
+        <v>28403.252</v>
       </c>
     </row>
     <row r="218">
@@ -9809,16 +9809,16 @@
         <v>21.2</v>
       </c>
       <c r="H218" t="n">
-        <v>0.09711178977381815</v>
+        <v>62.2</v>
       </c>
       <c r="I218" t="n">
-        <v>0.1144887352330023</v>
+        <v>17</v>
       </c>
       <c r="J218" t="n">
-        <v>0.9391507605047568</v>
+        <v>207.93</v>
       </c>
       <c r="K218" t="n">
-        <v>0.174563338869468</v>
+        <v>7508.476</v>
       </c>
     </row>
     <row r="219">
@@ -9852,16 +9852,16 @@
         <v>18.8</v>
       </c>
       <c r="H219" t="n">
-        <v>0.1967480778713459</v>
+        <v>78.2</v>
       </c>
       <c r="I219" t="n">
-        <v>0.2396270693067757</v>
+        <v>21.764</v>
       </c>
       <c r="J219" t="n">
-        <v>0.8116285636177286</v>
+        <v>173.442</v>
       </c>
       <c r="K219" t="n">
-        <v>0.3524641298091708</v>
+        <v>9760.865999999998</v>
       </c>
     </row>
     <row r="220">
@@ -9895,16 +9895,16 @@
         <v>18.8</v>
       </c>
       <c r="H220" t="n">
-        <v>0.09402610863089569</v>
+        <v>61.6</v>
       </c>
       <c r="I220" t="n">
-        <v>0.1287041798525007</v>
+        <v>17.628</v>
       </c>
       <c r="J220" t="n">
-        <v>0.9389271778421747</v>
+        <v>207.828</v>
       </c>
       <c r="K220" t="n">
-        <v>0.211084640978242</v>
+        <v>8011.516000000001</v>
       </c>
     </row>
     <row r="221">
@@ -9938,16 +9938,16 @@
         <v>18.8</v>
       </c>
       <c r="H221" t="n">
-        <v>0.1455346327501639</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I221" t="n">
-        <v>0.2099123159252007</v>
+        <v>20.744</v>
       </c>
       <c r="J221" t="n">
-        <v>0.8788378416197177</v>
+        <v>187.768</v>
       </c>
       <c r="K221" t="n">
-        <v>0.327760860991583</v>
+        <v>9466.734</v>
       </c>
     </row>
     <row r="222">
@@ -9981,16 +9981,16 @@
         <v>19.5</v>
       </c>
       <c r="H222" t="n">
-        <v>0.3264360154703753</v>
+        <v>95</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4646162700594508</v>
+        <v>28.91</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9464525661584983</v>
+        <v>211.455</v>
       </c>
       <c r="K222" t="n">
-        <v>0.6491075711333008</v>
+        <v>13521.965</v>
       </c>
     </row>
     <row r="223">
@@ -10024,16 +10024,16 @@
         <v>25</v>
       </c>
       <c r="H223" t="n">
-        <v>0.2724248754548407</v>
+        <v>88.25</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3911398258070444</v>
+        <v>26.5975</v>
       </c>
       <c r="J223" t="n">
-        <v>0.9141387574420533</v>
+        <v>198.1225</v>
       </c>
       <c r="K223" t="n">
-        <v>0.5043555291157</v>
+        <v>11582.3675</v>
       </c>
     </row>
     <row r="224">
@@ -10067,16 +10067,16 @@
         <v>18</v>
       </c>
       <c r="H224" t="n">
-        <v>0.2259728487987398</v>
+        <v>82.2</v>
       </c>
       <c r="I224" t="n">
-        <v>0.326449237766562</v>
+        <v>24.574</v>
       </c>
       <c r="J224" t="n">
-        <v>0.9788216536933141</v>
+        <v>235.574</v>
       </c>
       <c r="K224" t="n">
-        <v>0.4920712868718791</v>
+        <v>11430.696</v>
       </c>
     </row>
     <row r="225">
@@ -10110,16 +10110,16 @@
         <v>18.4</v>
       </c>
       <c r="H225" t="n">
-        <v>0.2380220217542193</v>
+        <v>83.8</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3218183193814634</v>
+        <v>24.428</v>
       </c>
       <c r="J225" t="n">
-        <v>0.9011349072795309</v>
+        <v>193.956</v>
       </c>
       <c r="K225" t="n">
-        <v>0.466241514647552</v>
+        <v>11115.674</v>
       </c>
     </row>
     <row r="226">
@@ -10153,16 +10153,16 @@
         <v>18</v>
       </c>
       <c r="H226" t="n">
-        <v>0.2079098248282364</v>
+        <v>79.75</v>
       </c>
       <c r="I226" t="n">
-        <v>0.304913692850359</v>
+        <v>23.8925</v>
       </c>
       <c r="J226" t="n">
-        <v>0.9012060043949512</v>
+        <v>193.9775</v>
       </c>
       <c r="K226" t="n">
-        <v>0.4662824838752229</v>
+        <v>11116.17</v>
       </c>
     </row>
     <row r="227">
@@ -10196,16 +10196,16 @@
         <v>17</v>
       </c>
       <c r="H227" t="n">
-        <v>0.03563781585163738</v>
+        <v>47</v>
       </c>
       <c r="I227" t="n">
-        <v>0.05351683619757303</v>
+        <v>13.665</v>
       </c>
       <c r="J227" t="n">
-        <v>0.991674249958205</v>
+        <v>257.935</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1004482698440328</v>
+        <v>6319.485</v>
       </c>
     </row>
     <row r="228">
@@ -10239,16 +10239,16 @@
         <v>20</v>
       </c>
       <c r="H228" t="n">
-        <v>0.09402610863089569</v>
+        <v>61.6</v>
       </c>
       <c r="I228" t="n">
-        <v>0.1307130494239234</v>
+        <v>17.714</v>
       </c>
       <c r="J228" t="n">
-        <v>0.8778258435349721</v>
+        <v>187.51</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2260633543927718</v>
+        <v>8208.683999999999</v>
       </c>
     </row>
     <row r="229">
@@ -10282,16 +10282,16 @@
         <v>20.4</v>
       </c>
       <c r="H229" t="n">
-        <v>0.1155652992261175</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I229" t="n">
-        <v>0.1407320022442003</v>
+        <v>18.134</v>
       </c>
       <c r="J229" t="n">
-        <v>0.9397999067172491</v>
+        <v>208.228</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2190415218753424</v>
+        <v>8116.81</v>
       </c>
     </row>
     <row r="230">
@@ -10325,16 +10325,16 @@
         <v>44</v>
       </c>
       <c r="H230" t="n">
-        <v>0.02569653937164122</v>
+        <v>43.2</v>
       </c>
       <c r="I230" t="n">
-        <v>0.0432488743072729</v>
+        <v>12.908</v>
       </c>
       <c r="J230" t="n">
-        <v>0.9143134907086305</v>
+        <v>198.182</v>
       </c>
       <c r="K230" t="n">
-        <v>0.07904395374082483</v>
+        <v>5897.505999999999</v>
       </c>
     </row>
     <row r="231">
@@ -10368,16 +10368,16 @@
         <v>18.8</v>
       </c>
       <c r="H231" t="n">
-        <v>0.07939095543848781</v>
+        <v>58.6</v>
       </c>
       <c r="I231" t="n">
-        <v>0.1000701881188706</v>
+        <v>16.322</v>
       </c>
       <c r="J231" t="n">
-        <v>0.8122017426702944</v>
+        <v>173.546</v>
       </c>
       <c r="K231" t="n">
-        <v>0.165868576222881</v>
+        <v>7382.844</v>
       </c>
     </row>
     <row r="232">
@@ -10411,16 +10411,16 @@
         <v>20.4</v>
       </c>
       <c r="H232" t="n">
-        <v>0.1077702006805496</v>
+        <v>64.2</v>
       </c>
       <c r="I232" t="n">
-        <v>0.1386527300674139</v>
+        <v>18.048</v>
       </c>
       <c r="J232" t="n">
-        <v>0.8504405351276997</v>
+        <v>181.104</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2299096706245037</v>
+        <v>8258.621999999999</v>
       </c>
     </row>
     <row r="233">
@@ -10454,16 +10454,16 @@
         <v>22.4</v>
       </c>
       <c r="H233" t="n">
-        <v>0.04300978845621471</v>
+        <v>49.4</v>
       </c>
       <c r="I233" t="n">
-        <v>0.05631815327807842</v>
+        <v>13.856</v>
       </c>
       <c r="J233" t="n">
-        <v>0.8854940568070805</v>
+        <v>189.51</v>
       </c>
       <c r="K233" t="n">
-        <v>0.09854121301620494</v>
+        <v>6283.976000000001</v>
       </c>
     </row>
     <row r="234">
@@ -10497,16 +10497,16 @@
         <v>19.6</v>
       </c>
       <c r="H234" t="n">
-        <v>0.05419553648261683</v>
+        <v>52.6</v>
       </c>
       <c r="I234" t="n">
-        <v>0.08006475256992736</v>
+        <v>15.29</v>
       </c>
       <c r="J234" t="n">
-        <v>0.9068975347509922</v>
+        <v>195.742</v>
       </c>
       <c r="K234" t="n">
-        <v>0.137366472418256</v>
+        <v>6949.67</v>
       </c>
     </row>
     <row r="235">
@@ -10540,16 +10540,16 @@
         <v>19</v>
       </c>
       <c r="H235" t="n">
-        <v>0.2626422160591992</v>
+        <v>87</v>
       </c>
       <c r="I235" t="n">
-        <v>0.3350656808447268</v>
+        <v>24.845</v>
       </c>
       <c r="J235" t="n">
-        <v>0.8613215653933527</v>
+        <v>183.5275</v>
       </c>
       <c r="K235" t="n">
-        <v>0.4638085340293303</v>
+        <v>11086.2375</v>
       </c>
     </row>
     <row r="236">
@@ -10583,16 +10583,16 @@
         <v>24</v>
       </c>
       <c r="H236" t="n">
-        <v>0.903230796576576</v>
+        <v>196</v>
       </c>
       <c r="I236" t="n">
-        <v>0.9440902165351815</v>
+        <v>55.774</v>
       </c>
       <c r="J236" t="n">
-        <v>0.8114298518763396</v>
+        <v>173.406</v>
       </c>
       <c r="K236" t="n">
-        <v>0.9583243353235901</v>
+        <v>22309.752</v>
       </c>
     </row>
     <row r="237">
@@ -10626,16 +10626,16 @@
         <v>20</v>
       </c>
       <c r="H237" t="n">
-        <v>0.9256379041050536</v>
+        <v>206.5</v>
       </c>
       <c r="I237" t="n">
-        <v>0.9407269187699585</v>
+        <v>55.2075</v>
       </c>
       <c r="J237" t="n">
-        <v>0.535406714714911</v>
+        <v>137.35</v>
       </c>
       <c r="K237" t="n">
-        <v>0.9428373436421886</v>
+        <v>21171.965</v>
       </c>
     </row>
     <row r="238">
@@ -10669,16 +10669,16 @@
         <v>20</v>
       </c>
       <c r="H238" t="n">
-        <v>0.6994238289975101</v>
+        <v>145.2</v>
       </c>
       <c r="I238" t="n">
-        <v>0.752392567261486</v>
+        <v>39.826</v>
       </c>
       <c r="J238" t="n">
-        <v>0.8858073273194227</v>
+        <v>189.594</v>
       </c>
       <c r="K238" t="n">
-        <v>0.8040231498878869</v>
+        <v>16284.066</v>
       </c>
     </row>
     <row r="239">
@@ -10712,16 +10712,16 @@
         <v>15.2</v>
       </c>
       <c r="H239" t="n">
-        <v>0.9145459618036375</v>
+        <v>201</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9352378022879163</v>
+        <v>54.34200000000001</v>
       </c>
       <c r="J239" t="n">
-        <v>0.5458644281535463</v>
+        <v>138.458</v>
       </c>
       <c r="K239" t="n">
-        <v>0.9561317236862074</v>
+        <v>22127.42</v>
       </c>
     </row>
     <row r="240">
@@ -10755,16 +10755,16 @@
         <v>20</v>
       </c>
       <c r="H240" t="n">
-        <v>0.8978536659415974</v>
+        <v>193.8</v>
       </c>
       <c r="I240" t="n">
-        <v>0.9283926695096097</v>
+        <v>53.35</v>
       </c>
       <c r="J240" t="n">
-        <v>0.8595459673569334</v>
+        <v>183.122</v>
       </c>
       <c r="K240" t="n">
-        <v>0.9516365088541137</v>
+        <v>21778.136</v>
       </c>
     </row>
     <row r="241">
@@ -10798,16 +10798,16 @@
         <v>28.4</v>
       </c>
       <c r="H241" t="n">
-        <v>0.843467665604245</v>
+        <v>175.8</v>
       </c>
       <c r="I241" t="n">
-        <v>0.8825253355550383</v>
+        <v>48.28</v>
       </c>
       <c r="J241" t="n">
-        <v>0.7065059388860657</v>
+        <v>157.294</v>
       </c>
       <c r="K241" t="n">
-        <v>0.8881402382916996</v>
+        <v>18619.062</v>
       </c>
     </row>
     <row r="242">
@@ -10841,16 +10841,16 @@
         <v>17.6</v>
       </c>
       <c r="H242" t="n">
-        <v>0.8427493933294482</v>
+        <v>175.6</v>
       </c>
       <c r="I242" t="n">
-        <v>0.8712467399757179</v>
+        <v>47.302</v>
       </c>
       <c r="J242" t="n">
-        <v>0.6025328071215179</v>
+        <v>144.648</v>
       </c>
       <c r="K242" t="n">
-        <v>0.8873568518422701</v>
+        <v>18591.33</v>
       </c>
     </row>
     <row r="243">
@@ -10884,16 +10884,16 @@
         <v>20</v>
       </c>
       <c r="H243" t="n">
-        <v>0.9002064850977449</v>
+        <v>194.75</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9578787213829534</v>
+        <v>58.47499999999999</v>
       </c>
       <c r="J243" t="n">
-        <v>0.9052590255902183</v>
+        <v>195.225</v>
       </c>
       <c r="K243" t="n">
-        <v>0.9781074229767117</v>
+        <v>24534.6525</v>
       </c>
     </row>
     <row r="244">
@@ -10927,16 +10927,16 @@
         <v>20</v>
       </c>
       <c r="H244" t="n">
-        <v>0.8470187962570722</v>
+        <v>176.8</v>
       </c>
       <c r="I244" t="n">
-        <v>0.8629802766348619</v>
+        <v>46.63</v>
       </c>
       <c r="J244" t="n">
-        <v>0.5793219436662163</v>
+        <v>142.07</v>
       </c>
       <c r="K244" t="n">
-        <v>0.8716053611561225</v>
+        <v>18065.748</v>
       </c>
     </row>
     <row r="245">
@@ -10970,16 +10970,16 @@
         <v>20</v>
       </c>
       <c r="H245" t="n">
-        <v>0.8901071965364203</v>
+        <v>190.8</v>
       </c>
       <c r="I245" t="n">
-        <v>0.9225368453996476</v>
+        <v>52.566</v>
       </c>
       <c r="J245" t="n">
-        <v>0.7584544439059528</v>
+        <v>164.66</v>
       </c>
       <c r="K245" t="n">
-        <v>0.9460177434111494</v>
+        <v>21380.694</v>
       </c>
     </row>
     <row r="246">
@@ -11013,16 +11013,16 @@
         <v>18</v>
       </c>
       <c r="H246" t="n">
-        <v>0.8778388774816261</v>
+        <v>186.4</v>
       </c>
       <c r="I246" t="n">
-        <v>0.8777198233259165</v>
+        <v>47.854</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4594298378016635</v>
+        <v>129.506</v>
       </c>
       <c r="K246" t="n">
-        <v>0.8847361251672831</v>
+        <v>18499.734</v>
       </c>
     </row>
     <row r="247">
@@ -11056,16 +11056,16 @@
         <v>20</v>
       </c>
       <c r="H247" t="n">
-        <v>0.8566105965761022</v>
+        <v>179.6</v>
       </c>
       <c r="I247" t="n">
-        <v>0.8813224558438404</v>
+        <v>48.172</v>
       </c>
       <c r="J247" t="n">
-        <v>0.7658175976324952</v>
+        <v>165.788</v>
       </c>
       <c r="K247" t="n">
-        <v>0.9051985206401724</v>
+        <v>19268.512</v>
       </c>
     </row>
     <row r="248">
@@ -11099,16 +11099,16 @@
         <v>20</v>
       </c>
       <c r="H248" t="n">
-        <v>0.9055927211446215</v>
+        <v>197</v>
       </c>
       <c r="I248" t="n">
-        <v>0.9332047589939706</v>
+        <v>54.038</v>
       </c>
       <c r="J248" t="n">
-        <v>0.7622471471245148</v>
+        <v>165.238</v>
       </c>
       <c r="K248" t="n">
-        <v>0.9555226213297378</v>
+        <v>22078.24</v>
       </c>
     </row>
     <row r="249">
@@ -11142,16 +11142,16 @@
         <v>20.4</v>
       </c>
       <c r="H249" t="n">
-        <v>0.8868704436288914</v>
+        <v>189.6</v>
       </c>
       <c r="I249" t="n">
-        <v>0.9054861248345788</v>
+        <v>50.548</v>
       </c>
       <c r="J249" t="n">
-        <v>0.7167151148185525</v>
+        <v>158.67</v>
       </c>
       <c r="K249" t="n">
-        <v>0.9138292335431537</v>
+        <v>19636.594</v>
       </c>
     </row>
     <row r="250">
@@ -11185,16 +11185,16 @@
         <v>20</v>
       </c>
       <c r="H250" t="n">
-        <v>0.8846676525841941</v>
+        <v>188.8</v>
       </c>
       <c r="I250" t="n">
-        <v>0.9037052761735644</v>
+        <v>50.35600000000001</v>
       </c>
       <c r="J250" t="n">
-        <v>0.6520467244182508</v>
+        <v>150.406</v>
       </c>
       <c r="K250" t="n">
-        <v>0.9231741683887867</v>
+        <v>20073.39</v>
       </c>
     </row>
     <row r="251">
@@ -11228,16 +11228,16 @@
         <v>19.6</v>
       </c>
       <c r="H251" t="n">
-        <v>0.8618640045180316</v>
+        <v>181.2</v>
       </c>
       <c r="I251" t="n">
-        <v>0.903798741387798</v>
+        <v>50.366</v>
       </c>
       <c r="J251" t="n">
-        <v>0.8088323707158993</v>
+        <v>172.938</v>
       </c>
       <c r="K251" t="n">
-        <v>0.9381240064313827</v>
+        <v>20881.026</v>
       </c>
     </row>
     <row r="252">
@@ -11271,16 +11271,16 @@
         <v>20</v>
       </c>
       <c r="H252" t="n">
-        <v>0.8456063662886456</v>
+        <v>176.4</v>
       </c>
       <c r="I252" t="n">
-        <v>0.8903034267828953</v>
+        <v>49.002</v>
       </c>
       <c r="J252" t="n">
-        <v>0.7775767001914691</v>
+        <v>167.642</v>
       </c>
       <c r="K252" t="n">
-        <v>0.919851334138172</v>
+        <v>19912.986</v>
       </c>
     </row>
     <row r="253">
@@ -11314,16 +11314,16 @@
         <v>20</v>
       </c>
       <c r="H253" t="n">
-        <v>0.8801522883527946</v>
+        <v>187.2</v>
       </c>
       <c r="I253" t="n">
-        <v>0.9106757062725942</v>
+        <v>51.126</v>
       </c>
       <c r="J253" t="n">
-        <v>0.668695185493924</v>
+        <v>152.44</v>
       </c>
       <c r="K253" t="n">
-        <v>0.935000519773729</v>
+        <v>20698.95</v>
       </c>
     </row>
     <row r="254">
@@ -11357,16 +11357,16 @@
         <v>18</v>
       </c>
       <c r="H254" t="n">
-        <v>0.7940730691780215</v>
+        <v>163.5</v>
       </c>
       <c r="I254" t="n">
-        <v>0.5357872253689094</v>
+        <v>31.235</v>
       </c>
       <c r="J254" t="n">
-        <v>0.001009766015814986</v>
+        <v>43.2825</v>
       </c>
       <c r="K254" t="n">
-        <v>0.2585276584887373</v>
+        <v>8622.7425</v>
       </c>
     </row>
     <row r="255">
@@ -11400,16 +11400,16 @@
         <v>15.6</v>
       </c>
       <c r="H255" t="n">
-        <v>0.7041126708990443</v>
+        <v>146</v>
       </c>
       <c r="I255" t="n">
-        <v>0.5639205714021245</v>
+        <v>32.194</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04007639210371516</v>
+        <v>73.95400000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>0.4929145396190483</v>
+        <v>11441.066</v>
       </c>
     </row>
     <row r="256">
@@ -11443,16 +11443,16 @@
         <v>21.5</v>
       </c>
       <c r="H256" t="n">
-        <v>0.508172488149422</v>
+        <v>117.5</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3540576727962714</v>
+        <v>25.44</v>
       </c>
       <c r="J256" t="n">
-        <v>0.171728336659177</v>
+        <v>98.35499999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3117888653765596</v>
+        <v>9275.190000000001</v>
       </c>
     </row>
     <row r="257">
@@ -11486,16 +11486,16 @@
         <v>20.4</v>
       </c>
       <c r="H257" t="n">
-        <v>0.8511924371321168</v>
+        <v>178</v>
       </c>
       <c r="I257" t="n">
-        <v>0.6568234279527854</v>
+        <v>35.618</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01432486118201059</v>
+        <v>62.59400000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>0.4144917357221764</v>
+        <v>10495.882</v>
       </c>
     </row>
     <row r="258">
@@ -11529,16 +11529,16 @@
         <v>15.6</v>
       </c>
       <c r="H258" t="n">
-        <v>0.8398492862083716</v>
+        <v>174.8</v>
       </c>
       <c r="I258" t="n">
-        <v>0.6058904171801691</v>
+        <v>33.684</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0002719714131388406</v>
+        <v>36.75</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3586846748755321</v>
+        <v>9834.66</v>
       </c>
     </row>
     <row r="259">
@@ -11572,16 +11572,16 @@
         <v>18</v>
       </c>
       <c r="H259" t="n">
-        <v>0.6838371413672359</v>
+        <v>142.6</v>
       </c>
       <c r="I259" t="n">
-        <v>0.4438281860616822</v>
+        <v>28.25</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0659342723418989</v>
+        <v>80.83799999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>0.2593184225440424</v>
+        <v>8632.639999999999</v>
       </c>
     </row>
     <row r="260">
@@ -11615,16 +11615,16 @@
         <v>19.6</v>
       </c>
       <c r="H260" t="n">
-        <v>0.7891178334233275</v>
+        <v>162.4</v>
       </c>
       <c r="I260" t="n">
-        <v>0.5241505814901546</v>
+        <v>30.846</v>
       </c>
       <c r="J260" t="n">
-        <v>0.001127260169956107</v>
+        <v>43.9</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2168862620091846</v>
+        <v>8088.418</v>
       </c>
     </row>
     <row r="261">
@@ -11658,16 +11658,16 @@
         <v>17.6</v>
       </c>
       <c r="H261" t="n">
-        <v>0.7836076092890816</v>
+        <v>161.2</v>
       </c>
       <c r="I261" t="n">
-        <v>0.5314640850969625</v>
+        <v>31.09</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0008729679935597307</v>
+        <v>42.48399999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3102119553788492</v>
+        <v>9256.202000000001</v>
       </c>
     </row>
     <row r="262">
@@ -11701,16 +11701,16 @@
         <v>21.2</v>
       </c>
       <c r="H262" t="n">
-        <v>0.6107705654511895</v>
+        <v>131.4</v>
       </c>
       <c r="I262" t="n">
-        <v>0.3894256161016452</v>
+        <v>26.544</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1427365032722218</v>
+        <v>94.372</v>
       </c>
       <c r="K262" t="n">
-        <v>0.2520886789959679</v>
+        <v>8541.85</v>
       </c>
     </row>
     <row r="263">
@@ -11744,16 +11744,16 @@
         <v>17.6</v>
       </c>
       <c r="H263" t="n">
-        <v>0.7872932481830517</v>
+        <v>162</v>
       </c>
       <c r="I263" t="n">
-        <v>0.5687626508445531</v>
+        <v>32.362</v>
       </c>
       <c r="J263" t="n">
-        <v>0.002194371846830359</v>
+        <v>47.912</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3642700585358866</v>
+        <v>9900.859999999999</v>
       </c>
     </row>
     <row r="264">
@@ -11787,16 +11787,16 @@
         <v>19.2</v>
       </c>
       <c r="H264" t="n">
-        <v>0.6639291870981197</v>
+        <v>139.4</v>
       </c>
       <c r="I264" t="n">
-        <v>0.4438281860616822</v>
+        <v>28.25</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0108078162503591</v>
+        <v>59.98</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3376612897989087</v>
+        <v>9584.866</v>
       </c>
     </row>
     <row r="265">
@@ -11830,16 +11830,16 @@
         <v>18.8</v>
       </c>
       <c r="H265" t="n">
-        <v>0.7471744647651413</v>
+        <v>153.8</v>
       </c>
       <c r="I265" t="n">
-        <v>0.4919192580546325</v>
+        <v>29.788</v>
       </c>
       <c r="J265" t="n">
-        <v>0.002038697886229649</v>
+        <v>47.444</v>
       </c>
       <c r="K265" t="n">
-        <v>0.282512380970079</v>
+        <v>8919.77</v>
       </c>
     </row>
     <row r="266">
@@ -11873,16 +11873,16 @@
         <v>20</v>
       </c>
       <c r="H266" t="n">
-        <v>0.661385097156558</v>
+        <v>139</v>
       </c>
       <c r="I266" t="n">
-        <v>0.4172556192387704</v>
+        <v>27.414</v>
       </c>
       <c r="J266" t="n">
-        <v>0.01573486782095001</v>
+        <v>63.50599999999999</v>
       </c>
       <c r="K266" t="n">
-        <v>0.2434343159071956</v>
+        <v>8432.23</v>
       </c>
     </row>
     <row r="267">
@@ -11916,16 +11916,16 @@
         <v>19.5</v>
       </c>
       <c r="H267" t="n">
-        <v>0.7815129972078847</v>
+        <v>160.75</v>
       </c>
       <c r="I267" t="n">
-        <v>0.5668347921568651</v>
+        <v>32.295</v>
       </c>
       <c r="J267" t="n">
-        <v>0.001748336051726284</v>
+        <v>46.4875</v>
       </c>
       <c r="K267" t="n">
-        <v>0.3127921100327541</v>
+        <v>9287.262500000001</v>
       </c>
     </row>
     <row r="268">
@@ -11959,16 +11959,16 @@
         <v>19.6</v>
       </c>
       <c r="H268" t="n">
-        <v>0.5305063424416178</v>
+        <v>120.4</v>
       </c>
       <c r="I268" t="n">
-        <v>0.3300707727320824</v>
+        <v>24.688</v>
       </c>
       <c r="J268" t="n">
-        <v>0.02488772857797715</v>
+        <v>68.292</v>
       </c>
       <c r="K268" t="n">
-        <v>0.251443318308772</v>
+        <v>8533.712</v>
       </c>
     </row>
     <row r="269">
@@ -12002,16 +12002,16 @@
         <v>19.6</v>
       </c>
       <c r="H269" t="n">
-        <v>0.7673963177474348</v>
+        <v>157.8</v>
       </c>
       <c r="I269" t="n">
-        <v>0.527873267864437</v>
+        <v>30.97</v>
       </c>
       <c r="J269" t="n">
-        <v>0.001702811715678148</v>
+        <v>46.326</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3007343185991528</v>
+        <v>9141.74</v>
       </c>
     </row>
     <row r="270">
@@ -12045,16 +12045,16 @@
         <v>15.5</v>
       </c>
       <c r="H270" t="n">
-        <v>0.8350436482910528</v>
+        <v>173.5</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6464951470906959</v>
+        <v>35.2125</v>
       </c>
       <c r="J270" t="n">
-        <v>0.009017756107587892</v>
+        <v>58.39</v>
       </c>
       <c r="K270" t="n">
-        <v>0.5338460784052359</v>
+        <v>11952.4675</v>
       </c>
     </row>
     <row r="271">
@@ -12088,16 +12088,16 @@
         <v>21.6</v>
       </c>
       <c r="H271" t="n">
-        <v>0.6874811625192541</v>
+        <v>143.2</v>
       </c>
       <c r="I271" t="n">
-        <v>0.4192972544393059</v>
+        <v>27.478</v>
       </c>
       <c r="J271" t="n">
-        <v>0.01788207318127844</v>
+        <v>64.78399999999999</v>
       </c>
       <c r="K271" t="n">
-        <v>0.187654880444478</v>
+        <v>7692.992000000001</v>
       </c>
     </row>
     <row r="272">
@@ -12131,16 +12131,16 @@
         <v>20</v>
       </c>
       <c r="H272" t="n">
-        <v>0.6079904677015581</v>
+        <v>131</v>
       </c>
       <c r="I272" t="n">
-        <v>0.6372585167833482</v>
+        <v>34.856</v>
       </c>
       <c r="J272" t="n">
-        <v>0.5369977284204092</v>
+        <v>137.518</v>
       </c>
       <c r="K272" t="n">
-        <v>0.5970431751542491</v>
+        <v>12783.242</v>
       </c>
     </row>
     <row r="273">
@@ -12174,16 +12174,16 @@
         <v>19.6</v>
       </c>
       <c r="H273" t="n">
-        <v>0.538105800731574</v>
+        <v>121.4</v>
       </c>
       <c r="I273" t="n">
-        <v>0.5035876439648543</v>
+        <v>30.168</v>
       </c>
       <c r="J273" t="n">
-        <v>0.4238884237164656</v>
+        <v>125.908</v>
       </c>
       <c r="K273" t="n">
-        <v>0.4301249063304001</v>
+        <v>10681.948</v>
       </c>
     </row>
     <row r="274">
@@ -12217,16 +12217,16 @@
         <v>21.6</v>
       </c>
       <c r="H274" t="n">
-        <v>0.2942184255393595</v>
+        <v>91</v>
       </c>
       <c r="I274" t="n">
-        <v>0.2367787575690232</v>
+        <v>21.668</v>
       </c>
       <c r="J274" t="n">
-        <v>0.4026427336693176</v>
+        <v>123.762</v>
       </c>
       <c r="K274" t="n">
-        <v>0.1904303573003553</v>
+        <v>7731.460000000001</v>
       </c>
     </row>
     <row r="275">
@@ -12260,16 +12260,16 @@
         <v>20</v>
       </c>
       <c r="H275" t="n">
-        <v>0.5781390092336069</v>
+        <v>126.8</v>
       </c>
       <c r="I275" t="n">
-        <v>0.5494132755760917</v>
+        <v>31.696</v>
       </c>
       <c r="J275" t="n">
-        <v>0.3239375167007338</v>
+        <v>115.724</v>
       </c>
       <c r="K275" t="n">
-        <v>0.4581407830768716</v>
+        <v>11017.802</v>
       </c>
     </row>
     <row r="276">
@@ -12303,16 +12303,16 @@
         <v>19.6</v>
       </c>
       <c r="H276" t="n">
-        <v>0.5441455131408104</v>
+        <v>122.2</v>
       </c>
       <c r="I276" t="n">
-        <v>0.5345665884755245</v>
+        <v>31.194</v>
       </c>
       <c r="J276" t="n">
-        <v>0.3563971704310957</v>
+        <v>119.068</v>
       </c>
       <c r="K276" t="n">
-        <v>0.4540991943155345</v>
+        <v>10969.114</v>
       </c>
     </row>
     <row r="277">
@@ -12346,16 +12346,16 @@
         <v>19.6</v>
       </c>
       <c r="H277" t="n">
-        <v>0.5027197967842595</v>
+        <v>116.8</v>
       </c>
       <c r="I277" t="n">
-        <v>0.489635891592355</v>
+        <v>29.714</v>
       </c>
       <c r="J277" t="n">
-        <v>0.4562588427300495</v>
+        <v>129.184</v>
       </c>
       <c r="K277" t="n">
-        <v>0.4060804919604645</v>
+        <v>10396.042</v>
       </c>
     </row>
     <row r="278">
@@ -12389,16 +12389,16 @@
         <v>20.8</v>
       </c>
       <c r="H278" t="n">
-        <v>0.653679494661221</v>
+        <v>137.8</v>
       </c>
       <c r="I278" t="n">
-        <v>0.6174128032519701</v>
+        <v>34.108</v>
       </c>
       <c r="J278" t="n">
-        <v>0.3538545400707768</v>
+        <v>118.808</v>
       </c>
       <c r="K278" t="n">
-        <v>0.5306045710120265</v>
+        <v>11911.328</v>
       </c>
     </row>
     <row r="279">
@@ -12432,16 +12432,16 @@
         <v>19.6</v>
       </c>
       <c r="H279" t="n">
-        <v>0.6037993776017072</v>
+        <v>130.4</v>
       </c>
       <c r="I279" t="n">
-        <v>0.5587613488009214</v>
+        <v>32.016</v>
       </c>
       <c r="J279" t="n">
-        <v>0.345425630832825</v>
+        <v>117.944</v>
       </c>
       <c r="K279" t="n">
-        <v>0.4684446757639509</v>
+        <v>11142.362</v>
       </c>
     </row>
     <row r="280">
@@ -12475,16 +12475,16 @@
         <v>20</v>
       </c>
       <c r="H280" t="n">
-        <v>0.5335526608853389</v>
+        <v>120.8</v>
       </c>
       <c r="I280" t="n">
-        <v>0.4633622205488112</v>
+        <v>28.87</v>
       </c>
       <c r="J280" t="n">
-        <v>0.2958818987968487</v>
+        <v>112.776</v>
       </c>
       <c r="K280" t="n">
-        <v>0.3727183102421963</v>
+        <v>10000.918</v>
       </c>
     </row>
     <row r="281">
@@ -12518,16 +12518,16 @@
         <v>19</v>
       </c>
       <c r="H281" t="n">
-        <v>0.4767252825065736</v>
+        <v>113.5</v>
       </c>
       <c r="I281" t="n">
-        <v>0.4176065970893286</v>
+        <v>27.425</v>
       </c>
       <c r="J281" t="n">
-        <v>0.3000666055578024</v>
+        <v>113.22</v>
       </c>
       <c r="K281" t="n">
-        <v>0.3360740166744688</v>
+        <v>9565.952500000001</v>
       </c>
     </row>
     <row r="282">
@@ -12561,16 +12561,16 @@
         <v>20</v>
       </c>
       <c r="H282" t="n">
-        <v>0.5737792731677296</v>
+        <v>126.2</v>
       </c>
       <c r="I282" t="n">
-        <v>0.5531636168050986</v>
+        <v>31.824</v>
       </c>
       <c r="J282" t="n">
-        <v>0.3545583820895057</v>
+        <v>118.88</v>
       </c>
       <c r="K282" t="n">
-        <v>0.4650687330171234</v>
+        <v>11101.48</v>
       </c>
     </row>
     <row r="283">
@@ -12604,16 +12604,16 @@
         <v>20</v>
       </c>
       <c r="H283" t="n">
-        <v>0.4759306910611704</v>
+        <v>113.4</v>
       </c>
       <c r="I283" t="n">
-        <v>0.4732464274234877</v>
+        <v>29.186</v>
       </c>
       <c r="J283" t="n">
-        <v>0.4162448738679149</v>
+        <v>125.136</v>
       </c>
       <c r="K283" t="n">
-        <v>0.4121717201457058</v>
+        <v>10468.328</v>
       </c>
     </row>
     <row r="284">
@@ -12647,16 +12647,16 @@
         <v>19.6</v>
       </c>
       <c r="H284" t="n">
-        <v>0.4695606705381079</v>
+        <v>112.6</v>
       </c>
       <c r="I284" t="n">
-        <v>0.4167450539120704</v>
+        <v>27.398</v>
       </c>
       <c r="J284" t="n">
-        <v>0.3500457991377784</v>
+        <v>118.418</v>
       </c>
       <c r="K284" t="n">
-        <v>0.3376048805794403</v>
+        <v>9584.194</v>
       </c>
     </row>
     <row r="285">
@@ -12690,16 +12690,16 @@
         <v>19.6</v>
       </c>
       <c r="H285" t="n">
-        <v>0.4631679844901886</v>
+        <v>111.8</v>
       </c>
       <c r="I285" t="n">
-        <v>0.4291708021004007</v>
+        <v>27.788</v>
       </c>
       <c r="J285" t="n">
-        <v>0.4116308284951905</v>
+        <v>124.67</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3738313531938373</v>
+        <v>10014.096</v>
       </c>
     </row>
     <row r="286">
@@ -12733,16 +12733,16 @@
         <v>23.6</v>
       </c>
       <c r="H286" t="n">
-        <v>0.6051991880423557</v>
+        <v>130.6</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5595167783306174</v>
+        <v>32.04199999999999</v>
       </c>
       <c r="J286" t="n">
-        <v>0.3170680191441784</v>
+        <v>115.008</v>
       </c>
       <c r="K286" t="n">
-        <v>0.4476409640970154</v>
+        <v>10891.494</v>
       </c>
     </row>
     <row r="287">
@@ -12776,16 +12776,16 @@
         <v>20</v>
       </c>
       <c r="H287" t="n">
-        <v>0.4379384654661496</v>
+        <v>108.6666666666667</v>
       </c>
       <c r="I287" t="n">
-        <v>0.3740198141364411</v>
+        <v>26.06333333333333</v>
       </c>
       <c r="J287" t="n">
-        <v>0.3122463081442771</v>
+        <v>114.5033333333333</v>
       </c>
       <c r="K287" t="n">
-        <v>0.2986524248637282</v>
+        <v>9116.513333333334</v>
       </c>
     </row>
     <row r="288">
@@ -12819,16 +12819,16 @@
         <v>20</v>
       </c>
       <c r="H288" t="n">
-        <v>0.5631493305974932</v>
+        <v>124.75</v>
       </c>
       <c r="I288" t="n">
-        <v>0.5264486886239759</v>
+        <v>30.9225</v>
       </c>
       <c r="J288" t="n">
-        <v>0.3337144385648005</v>
+        <v>116.7375</v>
       </c>
       <c r="K288" t="n">
-        <v>0.4501750436725632</v>
+        <v>10921.925</v>
       </c>
     </row>
     <row r="289">
@@ -12862,16 +12862,16 @@
         <v>20</v>
       </c>
       <c r="H289" t="n">
-        <v>0.5445217942249534</v>
+        <v>122.25</v>
       </c>
       <c r="I289" t="n">
-        <v>0.4913641679891279</v>
+        <v>29.77</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3845346196859948</v>
+        <v>121.93</v>
       </c>
       <c r="K289" t="n">
-        <v>0.412423906206551</v>
+        <v>10471.3225</v>
       </c>
     </row>
     <row r="290">
@@ -12905,16 +12905,16 @@
         <v>19.6</v>
       </c>
       <c r="H290" t="n">
-        <v>0.4964606937316504</v>
+        <v>116</v>
       </c>
       <c r="I290" t="n">
-        <v>0.559807161827677</v>
+        <v>32.052</v>
       </c>
       <c r="J290" t="n">
-        <v>0.6022484100418313</v>
+        <v>144.616</v>
       </c>
       <c r="K290" t="n">
-        <v>0.6260742885243256</v>
+        <v>13187.788</v>
       </c>
     </row>
     <row r="291">
@@ -12948,16 +12948,16 @@
         <v>21.6</v>
       </c>
       <c r="H291" t="n">
-        <v>0.4933205133968835</v>
+        <v>115.6</v>
       </c>
       <c r="I291" t="n">
-        <v>0.5505868314709288</v>
+        <v>31.736</v>
       </c>
       <c r="J291" t="n">
-        <v>0.5630173671089583</v>
+        <v>140.296</v>
       </c>
       <c r="K291" t="n">
-        <v>0.5780804980250263</v>
+        <v>12527.556</v>
       </c>
     </row>
     <row r="292">
@@ -12991,16 +12991,16 @@
         <v>24</v>
       </c>
       <c r="H292" t="n">
-        <v>0.3199537604792362</v>
+        <v>94.2</v>
       </c>
       <c r="I292" t="n">
-        <v>0.3689137230027325</v>
+        <v>25.904</v>
       </c>
       <c r="J292" t="n">
-        <v>0.6453737668591916</v>
+        <v>149.606</v>
       </c>
       <c r="K292" t="n">
-        <v>0.4245935124236103</v>
+        <v>10616.026</v>
       </c>
     </row>
     <row r="293">
@@ -13034,16 +13034,16 @@
         <v>23.6</v>
       </c>
       <c r="H293" t="n">
-        <v>0.665196628460247</v>
+        <v>139.6</v>
       </c>
       <c r="I293" t="n">
-        <v>0.7391162213607747</v>
+        <v>39.18</v>
       </c>
       <c r="J293" t="n">
-        <v>0.5139080755178134</v>
+        <v>135.098</v>
       </c>
       <c r="K293" t="n">
-        <v>0.7778803450418209</v>
+        <v>15726.446</v>
       </c>
     </row>
     <row r="294">
@@ -13077,16 +13077,16 @@
         <v>22.4</v>
       </c>
       <c r="H294" t="n">
-        <v>0.1744299093065901</v>
+        <v>75</v>
       </c>
       <c r="I294" t="n">
-        <v>0.1844473613103829</v>
+        <v>19.83</v>
       </c>
       <c r="J294" t="n">
-        <v>0.5476115874099818</v>
+        <v>138.644</v>
       </c>
       <c r="K294" t="n">
-        <v>0.1994825230037609</v>
+        <v>7855.488</v>
       </c>
     </row>
     <row r="295">
@@ -13120,16 +13120,16 @@
         <v>20.5</v>
       </c>
       <c r="H295" t="n">
-        <v>0.442656205292537</v>
+        <v>109.25</v>
       </c>
       <c r="I295" t="n">
-        <v>0.4986711757563002</v>
+        <v>30.0075</v>
       </c>
       <c r="J295" t="n">
-        <v>0.6118501172056638</v>
+        <v>145.7025</v>
       </c>
       <c r="K295" t="n">
-        <v>0.5264530864751124</v>
+        <v>11858.815</v>
       </c>
     </row>
     <row r="296">
@@ -13163,16 +13163,16 @@
         <v>19.2</v>
       </c>
       <c r="H296" t="n">
-        <v>0.4064868192619834</v>
+        <v>104.8</v>
       </c>
       <c r="I296" t="n">
-        <v>0.4712488684119301</v>
+        <v>29.122</v>
       </c>
       <c r="J296" t="n">
-        <v>0.5877093803017908</v>
+        <v>142.994</v>
       </c>
       <c r="K296" t="n">
-        <v>0.5438487572077033</v>
+        <v>12080.208</v>
       </c>
     </row>
     <row r="297">
@@ -13206,16 +13206,16 @@
         <v>29.6</v>
       </c>
       <c r="H297" t="n">
-        <v>0.3999509187514047</v>
+        <v>104</v>
       </c>
       <c r="I297" t="n">
-        <v>0.4970284439912962</v>
+        <v>29.954</v>
       </c>
       <c r="J297" t="n">
-        <v>0.7266224496390002</v>
+        <v>160.036</v>
       </c>
       <c r="K297" t="n">
-        <v>0.5287729919780316</v>
+        <v>11888.136</v>
       </c>
     </row>
     <row r="298">
@@ -13249,16 +13249,16 @@
         <v>21.2</v>
       </c>
       <c r="H298" t="n">
-        <v>0.4309141823104196</v>
+        <v>107.8</v>
       </c>
       <c r="I298" t="n">
-        <v>0.4593439055144681</v>
+        <v>28.742</v>
       </c>
       <c r="J298" t="n">
-        <v>0.5973096332034047</v>
+        <v>144.062</v>
       </c>
       <c r="K298" t="n">
-        <v>0.5184861657915606</v>
+        <v>11758.57</v>
       </c>
     </row>
     <row r="299">
@@ -13292,16 +13292,16 @@
         <v>20</v>
       </c>
       <c r="H299" t="n">
-        <v>0.2822879843876371</v>
+        <v>89.5</v>
       </c>
       <c r="I299" t="n">
-        <v>0.3162633628752402</v>
+        <v>24.2525</v>
       </c>
       <c r="J299" t="n">
-        <v>0.6171253485742429</v>
+        <v>146.305</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3940193771692997</v>
+        <v>10253.1</v>
       </c>
     </row>
     <row r="300">
@@ -13335,16 +13335,16 @@
         <v>23.5</v>
       </c>
       <c r="H300" t="n">
-        <v>0.2606960589577196</v>
+        <v>86.75</v>
       </c>
       <c r="I300" t="n">
-        <v>0.2991860851266775</v>
+        <v>23.71</v>
       </c>
       <c r="J300" t="n">
-        <v>0.7625700259848702</v>
+        <v>165.2875</v>
       </c>
       <c r="K300" t="n">
-        <v>0.3393810055436891</v>
+        <v>9605.3475</v>
       </c>
     </row>
     <row r="301">
@@ -13378,16 +13378,16 @@
         <v>19.6</v>
       </c>
       <c r="H301" t="n">
-        <v>0.490173449947602</v>
+        <v>115.2</v>
       </c>
       <c r="I301" t="n">
-        <v>0.5371847612767287</v>
+        <v>31.282</v>
       </c>
       <c r="J301" t="n">
-        <v>0.717404170390344</v>
+        <v>158.764</v>
       </c>
       <c r="K301" t="n">
-        <v>0.5972708250031823</v>
+        <v>12786.35</v>
       </c>
     </row>
     <row r="302">
@@ -13421,16 +13421,16 @@
         <v>22</v>
       </c>
       <c r="H302" t="n">
-        <v>0.4121994671166742</v>
+        <v>105.5</v>
       </c>
       <c r="I302" t="n">
-        <v>0.4340013982538126</v>
+        <v>27.94</v>
       </c>
       <c r="J302" t="n">
-        <v>0.5940671833894671</v>
+        <v>143.7</v>
       </c>
       <c r="K302" t="n">
-        <v>0.4768826888241547</v>
+        <v>11244.8725</v>
       </c>
     </row>
     <row r="303">
@@ -13464,16 +13464,16 @@
         <v>20.5</v>
       </c>
       <c r="H303" t="n">
-        <v>0.1988913909916505</v>
+        <v>78.5</v>
       </c>
       <c r="I303" t="n">
-        <v>0.1829542862664134</v>
+        <v>19.775</v>
       </c>
       <c r="J303" t="n">
-        <v>0.3672510467675243</v>
+        <v>120.175</v>
       </c>
       <c r="K303" t="n">
-        <v>0.1749470034696041</v>
+        <v>7513.959999999999</v>
       </c>
     </row>
     <row r="304">
@@ -13507,16 +13507,16 @@
         <v>19.2</v>
       </c>
       <c r="H304" t="n">
-        <v>0.1939034056538741</v>
+        <v>77.8</v>
       </c>
       <c r="I304" t="n">
-        <v>0.2005810020539023</v>
+        <v>20.414</v>
       </c>
       <c r="J304" t="n">
-        <v>0.5756133759545183</v>
+        <v>141.664</v>
       </c>
       <c r="K304" t="n">
-        <v>0.2336379643628315</v>
+        <v>8306.780000000001</v>
       </c>
     </row>
     <row r="305">
@@ -13550,16 +13550,16 @@
         <v>20</v>
       </c>
       <c r="H305" t="n">
-        <v>0.381542238412226</v>
+        <v>101.75</v>
       </c>
       <c r="I305" t="n">
-        <v>0.4104220083152341</v>
+        <v>27.2</v>
       </c>
       <c r="J305" t="n">
-        <v>0.6755144842494951</v>
+        <v>153.29</v>
       </c>
       <c r="K305" t="n">
-        <v>0.4526630853306225</v>
+        <v>10951.835</v>
       </c>
     </row>
     <row r="306">
@@ -13593,16 +13593,16 @@
         <v>19.6</v>
       </c>
       <c r="H306" t="n">
-        <v>0.3280590434804105</v>
+        <v>95.2</v>
       </c>
       <c r="I306" t="n">
-        <v>0.3933343280359721</v>
+        <v>26.666</v>
       </c>
       <c r="J306" t="n">
-        <v>0.7781366866347034</v>
+        <v>167.732</v>
       </c>
       <c r="K306" t="n">
-        <v>0.4538442706267788</v>
+        <v>10966.046</v>
       </c>
     </row>
     <row r="307">
@@ -13636,16 +13636,16 @@
         <v>19.2</v>
       </c>
       <c r="H307" t="n">
-        <v>0.2814961675820508</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3040180206159006</v>
+        <v>23.864</v>
       </c>
       <c r="J307" t="n">
-        <v>0.5332065379645295</v>
+        <v>137.118</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3349604510837902</v>
+        <v>9552.678</v>
       </c>
     </row>
     <row r="308">
@@ -13679,16 +13679,16 @@
         <v>22.4</v>
       </c>
       <c r="H308" t="n">
-        <v>0.8270339777499403</v>
+        <v>171.4</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7391999855298269</v>
+        <v>39.184</v>
       </c>
       <c r="J308" t="n">
-        <v>0.03030003891752952</v>
+        <v>70.536</v>
       </c>
       <c r="K308" t="n">
-        <v>0.5260658016341867</v>
+        <v>11853.926</v>
       </c>
     </row>
     <row r="309">
@@ -13722,16 +13722,16 @@
         <v>20</v>
       </c>
       <c r="H309" t="n">
-        <v>0.7594577841079906</v>
+        <v>156.2</v>
       </c>
       <c r="I309" t="n">
-        <v>0.7775120215994559</v>
+        <v>41.122</v>
       </c>
       <c r="J309" t="n">
-        <v>0.4232350314060639</v>
+        <v>125.842</v>
       </c>
       <c r="K309" t="n">
-        <v>0.7750008145027354</v>
+        <v>15668.154</v>
       </c>
     </row>
     <row r="310">
@@ -13765,16 +13765,16 @@
         <v>17.2</v>
       </c>
       <c r="H310" t="n">
-        <v>0.6484817036956509</v>
+        <v>137</v>
       </c>
       <c r="I310" t="n">
-        <v>0.6114584089697559</v>
+        <v>33.888</v>
       </c>
       <c r="J310" t="n">
-        <v>0.1570148345478176</v>
+        <v>96.38000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>0.530119802662309</v>
+        <v>11905.186</v>
       </c>
     </row>
     <row r="311">
@@ -13808,16 +13808,16 @@
         <v>20.4</v>
       </c>
       <c r="H311" t="n">
-        <v>0.6037993776017072</v>
+        <v>130.4</v>
       </c>
       <c r="I311" t="n">
-        <v>0.4960449572227373</v>
+        <v>29.922</v>
       </c>
       <c r="J311" t="n">
-        <v>0.3078920729769786</v>
+        <v>114.046</v>
       </c>
       <c r="K311" t="n">
-        <v>0.4209627547086903</v>
+        <v>10572.81</v>
       </c>
     </row>
     <row r="312">
@@ -13851,16 +13851,16 @@
         <v>18.8</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8246887672250333</v>
+        <v>170.8</v>
       </c>
       <c r="I312" t="n">
-        <v>0.7555229160338246</v>
+        <v>39.98200000000001</v>
       </c>
       <c r="J312" t="n">
-        <v>0.07472880330230788</v>
+        <v>82.762</v>
       </c>
       <c r="K312" t="n">
-        <v>0.6069733095834069</v>
+        <v>12919.718</v>
       </c>
     </row>
     <row r="313">
@@ -13894,16 +13894,16 @@
         <v>19.2</v>
       </c>
       <c r="H313" t="n">
-        <v>0.7482153597821052</v>
+        <v>154</v>
       </c>
       <c r="I313" t="n">
-        <v>0.7178301615251308</v>
+        <v>38.192</v>
       </c>
       <c r="J313" t="n">
-        <v>0.1589877527506058</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>0.5961830738859255</v>
+        <v>12771.508</v>
       </c>
     </row>
     <row r="314">
@@ -13937,16 +13937,16 @@
         <v>21.6</v>
       </c>
       <c r="H314" t="n">
-        <v>0.4980281549467608</v>
+        <v>116.2</v>
       </c>
       <c r="I314" t="n">
-        <v>0.4520408374400374</v>
+        <v>28.51</v>
       </c>
       <c r="J314" t="n">
-        <v>0.1782498986657978</v>
+        <v>99.20399999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>0.3836281119230583</v>
+        <v>10130.068</v>
       </c>
     </row>
     <row r="315">
@@ -13980,16 +13980,16 @@
         <v>22.8</v>
       </c>
       <c r="H315" t="n">
-        <v>0.8906388723156793</v>
+        <v>191</v>
       </c>
       <c r="I315" t="n">
-        <v>0.9118427613486284</v>
+        <v>51.26000000000001</v>
       </c>
       <c r="J315" t="n">
-        <v>0.3265555246528605</v>
+        <v>115.996</v>
       </c>
       <c r="K315" t="n">
-        <v>0.8736603353157528</v>
+        <v>18131.12</v>
       </c>
     </row>
     <row r="316">
@@ -14023,16 +14023,16 @@
         <v>16.8</v>
       </c>
       <c r="H316" t="n">
-        <v>0.5953427171708396</v>
+        <v>129.2</v>
       </c>
       <c r="I316" t="n">
-        <v>0.5210792595731429</v>
+        <v>30.74399999999999</v>
       </c>
       <c r="J316" t="n">
-        <v>0.1532501933683256</v>
+        <v>95.86000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>0.4502240648798614</v>
+        <v>10922.514</v>
       </c>
     </row>
     <row r="317">
@@ -14066,16 +14066,16 @@
         <v>18.8</v>
       </c>
       <c r="H317" t="n">
-        <v>0.5664623116009015</v>
+        <v>125.2</v>
       </c>
       <c r="I317" t="n">
-        <v>0.5431698630462185</v>
+        <v>31.484</v>
       </c>
       <c r="J317" t="n">
-        <v>0.1797407039700052</v>
+        <v>99.396</v>
       </c>
       <c r="K317" t="n">
-        <v>0.4983628519944678</v>
+        <v>11508.212</v>
       </c>
     </row>
     <row r="318">
@@ -14109,16 +14109,16 @@
         <v>19</v>
       </c>
       <c r="H318" t="n">
-        <v>0.664563291861052</v>
+        <v>139.5</v>
       </c>
       <c r="I318" t="n">
-        <v>0.6066709735810091</v>
+        <v>33.7125</v>
       </c>
       <c r="J318" t="n">
-        <v>0.1812139012859448</v>
+        <v>99.58499999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>0.4756194627824965</v>
+        <v>11229.495</v>
       </c>
     </row>
     <row r="319">
@@ -14152,16 +14152,16 @@
         <v>22</v>
       </c>
       <c r="H319" t="n">
-        <v>0.766742385151316</v>
+        <v>157.6666666666667</v>
       </c>
       <c r="I319" t="n">
-        <v>0.7471236070354788</v>
+        <v>39.56666666666667</v>
       </c>
       <c r="J319" t="n">
-        <v>0.1552956975811986</v>
+        <v>96.14333333333333</v>
       </c>
       <c r="K319" t="n">
-        <v>0.6726000377507523</v>
+        <v>13877.05</v>
       </c>
     </row>
     <row r="320">
@@ -14195,16 +14195,16 @@
         <v>21.5</v>
       </c>
       <c r="H320" t="n">
-        <v>0.7838393896379249</v>
+        <v>161.25</v>
       </c>
       <c r="I320" t="n">
-        <v>0.73922092353424</v>
+        <v>39.185</v>
       </c>
       <c r="J320" t="n">
-        <v>0.3728309024141184</v>
+        <v>120.7425</v>
       </c>
       <c r="K320" t="n">
-        <v>0.6829785139531873</v>
+        <v>14039.1275</v>
       </c>
     </row>
     <row r="321">
@@ -14238,16 +14238,16 @@
         <v>19.2</v>
       </c>
       <c r="H321" t="n">
-        <v>0.528979962647843</v>
+        <v>120.2</v>
       </c>
       <c r="I321" t="n">
-        <v>0.4932752617798796</v>
+        <v>29.832</v>
       </c>
       <c r="J321" t="n">
-        <v>0.1178760091321254</v>
+        <v>90.602</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3806341995163439</v>
+        <v>10094.628</v>
       </c>
     </row>
     <row r="322">
@@ -14281,16 +14281,16 @@
         <v>18</v>
       </c>
       <c r="H322" t="n">
-        <v>0.6419167475816734</v>
+        <v>136</v>
       </c>
       <c r="I322" t="n">
-        <v>0.6053695658550033</v>
+        <v>33.665</v>
       </c>
       <c r="J322" t="n">
-        <v>0.167961060668592</v>
+        <v>97.8575</v>
       </c>
       <c r="K322" t="n">
-        <v>0.5857787246054231</v>
+        <v>12630.6125</v>
       </c>
     </row>
     <row r="323">
@@ -14324,16 +14324,16 @@
         <v>21.33333333333333</v>
       </c>
       <c r="H323" t="n">
-        <v>0.4406353661270111</v>
+        <v>109</v>
       </c>
       <c r="I323" t="n">
-        <v>0.3441519062000146</v>
+        <v>25.13</v>
       </c>
       <c r="J323" t="n">
-        <v>0.1385028346957219</v>
+        <v>93.75666666666666</v>
       </c>
       <c r="K323" t="n">
-        <v>0.2777069608479808</v>
+        <v>8860.746666666666</v>
       </c>
     </row>
     <row r="324">
@@ -14367,16 +14367,16 @@
         <v>18.4</v>
       </c>
       <c r="H324" t="n">
-        <v>0.5766883285467346</v>
+        <v>126.6</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5182416664054778</v>
+        <v>30.65</v>
       </c>
       <c r="J324" t="n">
-        <v>0.2147924625159588</v>
+        <v>103.72</v>
       </c>
       <c r="K324" t="n">
-        <v>0.4215253687415904</v>
+        <v>10579.504</v>
       </c>
     </row>
     <row r="325">
@@ -14410,16 +14410,16 @@
         <v>19.5</v>
       </c>
       <c r="H325" t="n">
-        <v>0.7099026113349249</v>
+        <v>147</v>
       </c>
       <c r="I325" t="n">
-        <v>0.7281690425201028</v>
+        <v>38.665</v>
       </c>
       <c r="J325" t="n">
-        <v>0.3770156271266839</v>
+        <v>121.1675</v>
       </c>
       <c r="K325" t="n">
-        <v>0.7166986692245945</v>
+        <v>14591.56</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:N325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -524,14 +539,21 @@
         <v>61.8</v>
       </c>
       <c r="I2" t="n">
-        <v>16.444</v>
+        <v>62.17399999999999</v>
       </c>
       <c r="J2" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="L2" t="n">
         <v>163.184</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>6528.83</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,13 +589,22 @@
         <v>54.25</v>
       </c>
       <c r="I3" t="n">
-        <v>14.1775</v>
+        <v>54.58</v>
       </c>
       <c r="J3" t="n">
+        <v>48.295</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.6325</v>
+      </c>
+      <c r="L3" t="n">
         <v>153.2125</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>5510.422500000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +641,22 @@
         <v>54</v>
       </c>
       <c r="I4" t="n">
-        <v>12.9675</v>
+        <v>54.075</v>
       </c>
       <c r="J4" t="n">
+        <v>49.2975</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.675</v>
+      </c>
+      <c r="L4" t="n">
         <v>144.6175</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5038.925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="5">
@@ -653,13 +693,22 @@
         <v>63.4</v>
       </c>
       <c r="I5" t="n">
-        <v>16.75</v>
+        <v>63.78400000000001</v>
       </c>
       <c r="J5" t="n">
+        <v>57.61399999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="L5" t="n">
         <v>173.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>6687.386</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +745,22 @@
         <v>40.4</v>
       </c>
       <c r="I6" t="n">
-        <v>10.178</v>
+        <v>40.712</v>
       </c>
       <c r="J6" t="n">
+        <v>35.482</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.474</v>
+      </c>
+      <c r="L6" t="n">
         <v>154.976</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>4019.618000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +797,22 @@
         <v>56.2</v>
       </c>
       <c r="I7" t="n">
-        <v>14.626</v>
+        <v>56.60600000000001</v>
       </c>
       <c r="J7" t="n">
+        <v>50.03599999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.286</v>
+      </c>
+      <c r="L7" t="n">
         <v>143.384</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5734.658</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="8">
@@ -782,13 +849,22 @@
         <v>62.8</v>
       </c>
       <c r="I8" t="n">
-        <v>16.55</v>
+        <v>63.048</v>
       </c>
       <c r="J8" t="n">
+        <v>60.098</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.05399999999999</v>
+      </c>
+      <c r="L8" t="n">
         <v>165.812</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>6589.93</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="9">
@@ -825,13 +901,22 @@
         <v>62.8</v>
       </c>
       <c r="I9" t="n">
-        <v>16.224</v>
+        <v>63.04600000000001</v>
       </c>
       <c r="J9" t="n">
+        <v>56.80799999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.682</v>
+      </c>
+      <c r="L9" t="n">
         <v>155.28</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>6322.86</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="10">
@@ -868,13 +953,22 @@
         <v>45</v>
       </c>
       <c r="I10" t="n">
-        <v>11.642</v>
+        <v>45.54</v>
       </c>
       <c r="J10" t="n">
+        <v>38.966</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.586</v>
+      </c>
+      <c r="L10" t="n">
         <v>174.874</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>4710.397999999999</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="11">
@@ -911,13 +1005,22 @@
         <v>44.8</v>
       </c>
       <c r="I11" t="n">
-        <v>11.438</v>
+        <v>45.20200000000001</v>
       </c>
       <c r="J11" t="n">
+        <v>39.436</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17.336</v>
+      </c>
+      <c r="L11" t="n">
         <v>162.108</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>4565.388</v>
+      </c>
+      <c r="N11" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="12">
@@ -954,13 +1057,22 @@
         <v>39</v>
       </c>
       <c r="I12" t="n">
-        <v>9.610000000000001</v>
+        <v>39.2375</v>
       </c>
       <c r="J12" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.5975</v>
+      </c>
+      <c r="L12" t="n">
         <v>137.4475</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3764.9425</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="13">
@@ -997,13 +1109,22 @@
         <v>51.2</v>
       </c>
       <c r="I13" t="n">
-        <v>13.162</v>
+        <v>51.98</v>
       </c>
       <c r="J13" t="n">
+        <v>47.554</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20.016</v>
+      </c>
+      <c r="L13" t="n">
         <v>147.922</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>5163.52</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="14">
@@ -1040,13 +1161,22 @@
         <v>45.8</v>
       </c>
       <c r="I14" t="n">
-        <v>11.084</v>
+        <v>46.412</v>
       </c>
       <c r="J14" t="n">
+        <v>38.89999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="L14" t="n">
         <v>137.822</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4218.411999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="15">
@@ -1083,13 +1213,22 @@
         <v>45.6</v>
       </c>
       <c r="I15" t="n">
-        <v>11.998</v>
+        <v>46.078</v>
       </c>
       <c r="J15" t="n">
+        <v>44.672</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18.194</v>
+      </c>
+      <c r="L15" t="n">
         <v>154.764</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>4796.368</v>
+      </c>
+      <c r="N15" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1265,22 @@
         <v>45.75</v>
       </c>
       <c r="I16" t="n">
-        <v>11.7625</v>
+        <v>46.195</v>
       </c>
       <c r="J16" t="n">
+        <v>41.7525</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17.925</v>
+      </c>
+      <c r="L16" t="n">
         <v>167.04</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4574.085</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="17">
@@ -1169,13 +1317,22 @@
         <v>43</v>
       </c>
       <c r="I17" t="n">
-        <v>10.538</v>
+        <v>43.528</v>
       </c>
       <c r="J17" t="n">
+        <v>39.838</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16.134</v>
+      </c>
+      <c r="L17" t="n">
         <v>136.432</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3941.98</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="18">
@@ -1212,13 +1369,22 @@
         <v>45.6</v>
       </c>
       <c r="I18" t="n">
-        <v>11.546</v>
+        <v>46.278</v>
       </c>
       <c r="J18" t="n">
+        <v>41.316</v>
+      </c>
+      <c r="K18" t="n">
+        <v>17.592</v>
+      </c>
+      <c r="L18" t="n">
         <v>161.826</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>4497.066</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1421,22 @@
         <v>57.2</v>
       </c>
       <c r="I19" t="n">
-        <v>14.932</v>
+        <v>57.544</v>
       </c>
       <c r="J19" t="n">
+        <v>50.436</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.668</v>
+      </c>
+      <c r="L19" t="n">
         <v>155.034</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5882.634</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="20">
@@ -1298,14 +1473,21 @@
         <v>162.6</v>
       </c>
       <c r="I20" t="n">
-        <v>43.534</v>
+        <v>153.862</v>
       </c>
       <c r="J20" t="n">
+        <v>144.34</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66.78799999999998</v>
+      </c>
+      <c r="L20" t="n">
         <v>127.974</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>15918.314</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1341,13 +1523,22 @@
         <v>141.8</v>
       </c>
       <c r="I21" t="n">
-        <v>37.938</v>
+        <v>139.64</v>
       </c>
       <c r="J21" t="n">
+        <v>125.558</v>
+      </c>
+      <c r="K21" t="n">
+        <v>58.11800000000001</v>
+      </c>
+      <c r="L21" t="n">
         <v>137.96</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>13850.216</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1575,22 @@
         <v>120.6</v>
       </c>
       <c r="I22" t="n">
-        <v>30.728</v>
+        <v>120.73</v>
       </c>
       <c r="J22" t="n">
+        <v>106.108</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.256</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.414</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>11216.966</v>
+      </c>
+      <c r="N22" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="23">
@@ -1427,13 +1627,22 @@
         <v>156.2</v>
       </c>
       <c r="I23" t="n">
-        <v>41.878</v>
+        <v>147.49</v>
       </c>
       <c r="J23" t="n">
+        <v>129.648</v>
+      </c>
+      <c r="K23" t="n">
+        <v>63.80399999999999</v>
+      </c>
+      <c r="L23" t="n">
         <v>143.976</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>15539.71</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="24">
@@ -1470,13 +1679,22 @@
         <v>161.6</v>
       </c>
       <c r="I24" t="n">
-        <v>45.44600000000001</v>
+        <v>161.974</v>
       </c>
       <c r="J24" t="n">
+        <v>146.348</v>
+      </c>
+      <c r="K24" t="n">
+        <v>69.48599999999999</v>
+      </c>
+      <c r="L24" t="n">
         <v>150.536</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>16680.038</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="25">
@@ -1513,13 +1731,22 @@
         <v>150.2</v>
       </c>
       <c r="I25" t="n">
-        <v>42.116</v>
+        <v>150.238</v>
       </c>
       <c r="J25" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="K25" t="n">
+        <v>63.904</v>
+      </c>
+      <c r="L25" t="n">
         <v>172.688</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>16385.752</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1556,13 +1783,22 @@
         <v>154.3333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>39.41666666666666</v>
+        <v>154.5966666666667</v>
       </c>
       <c r="J26" t="n">
+        <v>141.9666666666667</v>
+      </c>
+      <c r="K26" t="n">
+        <v>60.69</v>
+      </c>
+      <c r="L26" t="n">
         <v>125.6033333333333</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>13964.33333333333</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="27">
@@ -1599,13 +1835,22 @@
         <v>136.2</v>
       </c>
       <c r="I27" t="n">
-        <v>37.162</v>
+        <v>135.884</v>
       </c>
       <c r="J27" t="n">
+        <v>117.312</v>
+      </c>
+      <c r="K27" t="n">
+        <v>57.184</v>
+      </c>
+      <c r="L27" t="n">
         <v>123.844</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>12276.214</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="28">
@@ -1642,13 +1887,22 @@
         <v>139.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.59</v>
+        <v>139.974</v>
       </c>
       <c r="J28" t="n">
+        <v>126.898</v>
+      </c>
+      <c r="K28" t="n">
+        <v>59.076</v>
+      </c>
+      <c r="L28" t="n">
         <v>146.394</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>14719.204</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="29">
@@ -1685,13 +1939,22 @@
         <v>140.2</v>
       </c>
       <c r="I29" t="n">
-        <v>37.6</v>
+        <v>140.516</v>
       </c>
       <c r="J29" t="n">
+        <v>117.848</v>
+      </c>
+      <c r="K29" t="n">
+        <v>57.774</v>
+      </c>
+      <c r="L29" t="n">
         <v>122.898</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>13897.276</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="30">
@@ -1728,13 +1991,22 @@
         <v>126</v>
       </c>
       <c r="I30" t="n">
-        <v>33.178</v>
+        <v>126.564</v>
       </c>
       <c r="J30" t="n">
+        <v>113.284</v>
+      </c>
+      <c r="K30" t="n">
+        <v>51.124</v>
+      </c>
+      <c r="L30" t="n">
         <v>126.392</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>12078.422</v>
+      </c>
+      <c r="N30" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="31">
@@ -1771,13 +2043,22 @@
         <v>150.8</v>
       </c>
       <c r="I31" t="n">
-        <v>39.54799999999999</v>
+        <v>150.976</v>
       </c>
       <c r="J31" t="n">
+        <v>133.068</v>
+      </c>
+      <c r="K31" t="n">
+        <v>60.852</v>
+      </c>
+      <c r="L31" t="n">
         <v>131.138</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>14337.676</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +2095,22 @@
         <v>137.2</v>
       </c>
       <c r="I32" t="n">
-        <v>37.754</v>
+        <v>137.362</v>
       </c>
       <c r="J32" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="K32" t="n">
+        <v>58.06</v>
+      </c>
+      <c r="L32" t="n">
         <v>145.134</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>14099.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="33">
@@ -1857,13 +2147,22 @@
         <v>154.8</v>
       </c>
       <c r="I33" t="n">
-        <v>43.04199999999999</v>
+        <v>143.802</v>
       </c>
       <c r="J33" t="n">
+        <v>130.858</v>
+      </c>
+      <c r="K33" t="n">
+        <v>66.04400000000001</v>
+      </c>
+      <c r="L33" t="n">
         <v>151.046</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>15675.44</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="34">
@@ -1900,13 +2199,22 @@
         <v>147.25</v>
       </c>
       <c r="I34" t="n">
-        <v>39.2375</v>
+        <v>147.7225</v>
       </c>
       <c r="J34" t="n">
+        <v>126.6775</v>
+      </c>
+      <c r="K34" t="n">
+        <v>60.1375</v>
+      </c>
+      <c r="L34" t="n">
         <v>132.1025</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>14645.2725</v>
+      </c>
+      <c r="N34" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="35">
@@ -1943,13 +2251,22 @@
         <v>126.6</v>
       </c>
       <c r="I35" t="n">
-        <v>33.33</v>
+        <v>126.964</v>
       </c>
       <c r="J35" t="n">
+        <v>112.412</v>
+      </c>
+      <c r="K35" t="n">
+        <v>51.39000000000001</v>
+      </c>
+      <c r="L35" t="n">
         <v>125.65</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>12250.756</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -1986,13 +2303,22 @@
         <v>151.6</v>
       </c>
       <c r="I36" t="n">
-        <v>40.472</v>
+        <v>152.116</v>
       </c>
       <c r="J36" t="n">
+        <v>129.312</v>
+      </c>
+      <c r="K36" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="L36" t="n">
         <v>144.796</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>15903.194</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="37">
@@ -2029,13 +2355,22 @@
         <v>131.5</v>
       </c>
       <c r="I37" t="n">
-        <v>33.685</v>
+        <v>131.6275</v>
       </c>
       <c r="J37" t="n">
+        <v>114.4425</v>
+      </c>
+      <c r="K37" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="L37" t="n">
         <v>123.79</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>11943.53</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="38">
@@ -2072,14 +2407,21 @@
         <v>128</v>
       </c>
       <c r="I38" t="n">
-        <v>31.5</v>
+        <v>128.24</v>
       </c>
       <c r="J38" t="n">
+        <v>119.32</v>
+      </c>
+      <c r="K38" t="n">
+        <v>48.756</v>
+      </c>
+      <c r="L38" t="n">
         <v>106.794</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>10787.114</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2115,13 +2457,22 @@
         <v>128.2</v>
       </c>
       <c r="I39" t="n">
-        <v>32.956</v>
+        <v>128.51</v>
       </c>
       <c r="J39" t="n">
+        <v>119.858</v>
+      </c>
+      <c r="K39" t="n">
+        <v>50.98800000000001</v>
+      </c>
+      <c r="L39" t="n">
         <v>113.738</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>11921.456</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="40">
@@ -2158,13 +2509,22 @@
         <v>72.59999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>17.42</v>
+        <v>72.502</v>
       </c>
       <c r="J40" t="n">
+        <v>64.65600000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>26.742</v>
+      </c>
+      <c r="L40" t="n">
         <v>123.294</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>6386.172</v>
+      </c>
+      <c r="N40" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2561,22 @@
         <v>128.5</v>
       </c>
       <c r="I41" t="n">
-        <v>32.3425</v>
+        <v>128.3575</v>
       </c>
       <c r="J41" t="n">
+        <v>117.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>50.23</v>
+      </c>
+      <c r="L41" t="n">
         <v>111.3225</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>10798.175</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="42">
@@ -2244,13 +2613,22 @@
         <v>127.8</v>
       </c>
       <c r="I42" t="n">
-        <v>31.324</v>
+        <v>128.104</v>
       </c>
       <c r="J42" t="n">
+        <v>123.544</v>
+      </c>
+      <c r="K42" t="n">
+        <v>48.628</v>
+      </c>
+      <c r="L42" t="n">
         <v>104.742</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>10317.342</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="43">
@@ -2287,13 +2665,22 @@
         <v>108.2</v>
       </c>
       <c r="I43" t="n">
-        <v>26.14</v>
+        <v>108.52</v>
       </c>
       <c r="J43" t="n">
+        <v>100.34</v>
+      </c>
+      <c r="K43" t="n">
+        <v>40.476</v>
+      </c>
+      <c r="L43" t="n">
         <v>106.964</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>8947.166000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="44">
@@ -2330,13 +2717,22 @@
         <v>93.25</v>
       </c>
       <c r="I44" t="n">
-        <v>24.1025</v>
+        <v>92.4725</v>
       </c>
       <c r="J44" t="n">
+        <v>80.8175</v>
+      </c>
+      <c r="K44" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="L44" t="n">
         <v>140.995</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>8624.377500000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="45">
@@ -2373,13 +2769,22 @@
         <v>124.4</v>
       </c>
       <c r="I45" t="n">
-        <v>30.67</v>
+        <v>124.618</v>
       </c>
       <c r="J45" t="n">
+        <v>114.424</v>
+      </c>
+      <c r="K45" t="n">
+        <v>47.458</v>
+      </c>
+      <c r="L45" t="n">
         <v>111.092</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>10638.702</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="46">
@@ -2416,13 +2821,22 @@
         <v>109.8</v>
       </c>
       <c r="I46" t="n">
-        <v>27.348</v>
+        <v>110.062</v>
       </c>
       <c r="J46" t="n">
+        <v>97.792</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42.246</v>
+      </c>
+      <c r="L46" t="n">
         <v>113.388</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>9650.784000000001</v>
+      </c>
+      <c r="N46" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="47">
@@ -2459,13 +2873,22 @@
         <v>114.4</v>
       </c>
       <c r="I47" t="n">
-        <v>28.046</v>
+        <v>114.49</v>
       </c>
       <c r="J47" t="n">
+        <v>107.446</v>
+      </c>
+      <c r="K47" t="n">
+        <v>43.39999999999999</v>
+      </c>
+      <c r="L47" t="n">
         <v>109.606</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>10003.226</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="48">
@@ -2502,13 +2925,22 @@
         <v>85.2</v>
       </c>
       <c r="I48" t="n">
-        <v>21.894</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="J48" t="n">
+        <v>72.63800000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33.44600000000001</v>
+      </c>
+      <c r="L48" t="n">
         <v>128.038</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>8285.182000000001</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="49">
@@ -2545,13 +2977,22 @@
         <v>94.2</v>
       </c>
       <c r="I49" t="n">
-        <v>23.322</v>
+        <v>94.63800000000001</v>
       </c>
       <c r="J49" t="n">
+        <v>84.77799999999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>36.17399999999999</v>
+      </c>
+      <c r="L49" t="n">
         <v>111.898</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>7959.406</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="50">
@@ -2588,13 +3029,22 @@
         <v>118</v>
       </c>
       <c r="I50" t="n">
-        <v>29.8775</v>
+        <v>118.13</v>
       </c>
       <c r="J50" t="n">
+        <v>110.4175</v>
+      </c>
+      <c r="K50" t="n">
+        <v>46.20999999999999</v>
+      </c>
+      <c r="L50" t="n">
         <v>102.85</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>9882.497499999999</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="51">
@@ -2631,13 +3081,22 @@
         <v>106.2</v>
       </c>
       <c r="I51" t="n">
-        <v>27.108</v>
+        <v>105.566</v>
       </c>
       <c r="J51" t="n">
+        <v>98.65800000000002</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41.60600000000001</v>
+      </c>
+      <c r="L51" t="n">
         <v>125.13</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>9492.828000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="52">
@@ -2674,13 +3133,22 @@
         <v>95</v>
       </c>
       <c r="I52" t="n">
-        <v>24.725</v>
+        <v>95.49250000000001</v>
       </c>
       <c r="J52" t="n">
+        <v>87.2775</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37.965</v>
+      </c>
+      <c r="L52" t="n">
         <v>128.6175</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>9284.075000000001</v>
+      </c>
+      <c r="N52" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="53">
@@ -2717,13 +3185,22 @@
         <v>114</v>
       </c>
       <c r="I53" t="n">
-        <v>29.184</v>
+        <v>111.538</v>
       </c>
       <c r="J53" t="n">
+        <v>104.632</v>
+      </c>
+      <c r="K53" t="n">
+        <v>44.964</v>
+      </c>
+      <c r="L53" t="n">
         <v>117.768</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>10345.32</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="54">
@@ -2760,13 +3237,22 @@
         <v>92.40000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>23.468</v>
+        <v>92.89</v>
       </c>
       <c r="J54" t="n">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>35.922</v>
+      </c>
+      <c r="L54" t="n">
         <v>130.234</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>8689.092000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.159999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -2803,13 +3289,22 @@
         <v>102.25</v>
       </c>
       <c r="I55" t="n">
-        <v>23.25</v>
+        <v>102.785</v>
       </c>
       <c r="J55" t="n">
+        <v>94.90750000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>36.15000000000001</v>
+      </c>
+      <c r="L55" t="n">
         <v>98.1225</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>7386.5225</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="56">
@@ -2846,14 +3341,21 @@
         <v>88.2</v>
       </c>
       <c r="I56" t="n">
-        <v>22.648</v>
+        <v>88.66799999999999</v>
       </c>
       <c r="J56" t="n">
+        <v>77.536</v>
+      </c>
+      <c r="K56" t="n">
+        <v>34.358</v>
+      </c>
+      <c r="L56" t="n">
         <v>144.168</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>8858.762000000001</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2889,13 +3391,22 @@
         <v>83.2</v>
       </c>
       <c r="I57" t="n">
-        <v>22.054</v>
+        <v>83.57000000000001</v>
       </c>
       <c r="J57" t="n">
+        <v>77.60400000000001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>33.34200000000001</v>
+      </c>
+      <c r="L57" t="n">
         <v>167.508</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>8709.990000000002</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="58">
@@ -2932,13 +3443,22 @@
         <v>55.25</v>
       </c>
       <c r="I58" t="n">
-        <v>13.6325</v>
+        <v>55.0825</v>
       </c>
       <c r="J58" t="n">
+        <v>50.135</v>
+      </c>
+      <c r="K58" t="n">
+        <v>20.7525</v>
+      </c>
+      <c r="L58" t="n">
         <v>147.9225</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>5360.827499999999</v>
+      </c>
+      <c r="N58" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="59">
@@ -2975,13 +3495,22 @@
         <v>74.25</v>
       </c>
       <c r="I59" t="n">
-        <v>18.5075</v>
+        <v>74.5325</v>
       </c>
       <c r="J59" t="n">
+        <v>65.8125</v>
+      </c>
+      <c r="K59" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="L59" t="n">
         <v>154.3925</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>7170.19</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="60">
@@ -3018,13 +3547,22 @@
         <v>77.5</v>
       </c>
       <c r="I60" t="n">
-        <v>19.05</v>
+        <v>77.545</v>
       </c>
       <c r="J60" t="n">
+        <v>69.9225</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="L60" t="n">
         <v>139.0925</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>7241.7225</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="61">
@@ -3061,13 +3599,22 @@
         <v>82.8</v>
       </c>
       <c r="I61" t="n">
-        <v>21.32</v>
+        <v>83.102</v>
       </c>
       <c r="J61" t="n">
+        <v>74.24799999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>32.452</v>
+      </c>
+      <c r="L61" t="n">
         <v>148.978</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>8236.022000000001</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="62">
@@ -3104,13 +3651,22 @@
         <v>81</v>
       </c>
       <c r="I62" t="n">
-        <v>22.168</v>
+        <v>81.22</v>
       </c>
       <c r="J62" t="n">
+        <v>72.63199999999999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>33.508</v>
+      </c>
+      <c r="L62" t="n">
         <v>167.572</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>8978.668</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="63">
@@ -3147,13 +3703,22 @@
         <v>74.8</v>
       </c>
       <c r="I63" t="n">
-        <v>18.446</v>
+        <v>75.11799999999999</v>
       </c>
       <c r="J63" t="n">
+        <v>68.95</v>
+      </c>
+      <c r="K63" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="L63" t="n">
         <v>140.892</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>6979.564</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -3190,13 +3755,22 @@
         <v>75.2</v>
       </c>
       <c r="I64" t="n">
-        <v>19.018</v>
+        <v>75.724</v>
       </c>
       <c r="J64" t="n">
+        <v>67.944</v>
+      </c>
+      <c r="K64" t="n">
+        <v>28.982</v>
+      </c>
+      <c r="L64" t="n">
         <v>142.508</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>7291.744000000001</v>
+      </c>
+      <c r="N64" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="65">
@@ -3233,13 +3807,22 @@
         <v>75</v>
       </c>
       <c r="I65" t="n">
-        <v>19.542</v>
+        <v>75.45399999999999</v>
       </c>
       <c r="J65" t="n">
+        <v>69.15200000000002</v>
+      </c>
+      <c r="K65" t="n">
+        <v>29.572</v>
+      </c>
+      <c r="L65" t="n">
         <v>158.292</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>7740.770000000001</v>
+      </c>
+      <c r="N65" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="66">
@@ -3276,13 +3859,22 @@
         <v>73.2</v>
       </c>
       <c r="I66" t="n">
-        <v>18.422</v>
+        <v>73.508</v>
       </c>
       <c r="J66" t="n">
+        <v>69.01599999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.044</v>
+      </c>
+      <c r="L66" t="n">
         <v>143.626</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>7110.55</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="67">
@@ -3319,13 +3911,22 @@
         <v>67</v>
       </c>
       <c r="I67" t="n">
-        <v>16.888</v>
+        <v>67.134</v>
       </c>
       <c r="J67" t="n">
+        <v>59.152</v>
+      </c>
+      <c r="K67" t="n">
+        <v>25.632</v>
+      </c>
+      <c r="L67" t="n">
         <v>147.534</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>6605.134</v>
+      </c>
+      <c r="N67" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="68">
@@ -3362,13 +3963,22 @@
         <v>68.8</v>
       </c>
       <c r="I68" t="n">
-        <v>17.238</v>
+        <v>68.946</v>
       </c>
       <c r="J68" t="n">
+        <v>61.904</v>
+      </c>
+      <c r="K68" t="n">
+        <v>26.176</v>
+      </c>
+      <c r="L68" t="n">
         <v>149.792</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>6722.842</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="69">
@@ -3405,13 +4015,22 @@
         <v>69.8</v>
       </c>
       <c r="I69" t="n">
-        <v>17.314</v>
+        <v>69.816</v>
       </c>
       <c r="J69" t="n">
+        <v>64.18599999999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="L69" t="n">
         <v>142.24</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>6690.3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="70">
@@ -3448,13 +4067,22 @@
         <v>64.59999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>16.6</v>
+        <v>64.788</v>
       </c>
       <c r="J70" t="n">
+        <v>57.078</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25.138</v>
+      </c>
+      <c r="L70" t="n">
         <v>158.36</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>6552.698</v>
+      </c>
+      <c r="N70" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="71">
@@ -3491,13 +4119,22 @@
         <v>59.8</v>
       </c>
       <c r="I71" t="n">
-        <v>14.956</v>
+        <v>60.22799999999999</v>
       </c>
       <c r="J71" t="n">
+        <v>55.198</v>
+      </c>
+      <c r="K71" t="n">
+        <v>22.746</v>
+      </c>
+      <c r="L71" t="n">
         <v>149.264</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>5747.717999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="72">
@@ -3534,13 +4171,22 @@
         <v>77.25</v>
       </c>
       <c r="I72" t="n">
-        <v>20.5625</v>
+        <v>77.63500000000001</v>
       </c>
       <c r="J72" t="n">
+        <v>70.005</v>
+      </c>
+      <c r="K72" t="n">
+        <v>31.0275</v>
+      </c>
+      <c r="L72" t="n">
         <v>169.845</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>8347.327499999999</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="73">
@@ -3577,13 +4223,22 @@
         <v>67.25</v>
       </c>
       <c r="I73" t="n">
-        <v>17.3725</v>
+        <v>67.6575</v>
       </c>
       <c r="J73" t="n">
+        <v>65.39250000000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>26.375</v>
+      </c>
+      <c r="L73" t="n">
         <v>155.135</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>6761.33</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="74">
@@ -3620,14 +4275,21 @@
         <v>76</v>
       </c>
       <c r="I74" t="n">
-        <v>21.618</v>
+        <v>76.32599999999999</v>
       </c>
       <c r="J74" t="n">
+        <v>64.994</v>
+      </c>
+      <c r="K74" t="n">
+        <v>32.276</v>
+      </c>
+      <c r="L74" t="n">
         <v>167.566</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>9199.476000000001</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3663,13 +4325,22 @@
         <v>72.40000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>19.116</v>
+        <v>72.70599999999999</v>
       </c>
       <c r="J75" t="n">
+        <v>62.38</v>
+      </c>
+      <c r="K75" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="L75" t="n">
         <v>137.792</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>7475.204000000001</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -3706,13 +4377,22 @@
         <v>47</v>
       </c>
       <c r="I76" t="n">
-        <v>12.594</v>
+        <v>47.48399999999999</v>
       </c>
       <c r="J76" t="n">
+        <v>40.376</v>
+      </c>
+      <c r="K76" t="n">
+        <v>18.878</v>
+      </c>
+      <c r="L76" t="n">
         <v>166.256</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>5255.456</v>
+      </c>
+      <c r="N76" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="77">
@@ -3749,13 +4429,22 @@
         <v>76</v>
       </c>
       <c r="I77" t="n">
-        <v>20.616</v>
+        <v>76.46000000000001</v>
       </c>
       <c r="J77" t="n">
+        <v>67.34</v>
+      </c>
+      <c r="K77" t="n">
+        <v>30.994</v>
+      </c>
+      <c r="L77" t="n">
         <v>159.65</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>8472.33</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="78">
@@ -3792,13 +4481,22 @@
         <v>70.59999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>18.942</v>
+        <v>70.82599999999999</v>
       </c>
       <c r="J78" t="n">
+        <v>61.236</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28.408</v>
+      </c>
+      <c r="L78" t="n">
         <v>169.988</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>7819.762</v>
+      </c>
+      <c r="N78" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="79">
@@ -3835,13 +4533,22 @@
         <v>69</v>
       </c>
       <c r="I79" t="n">
-        <v>19.408</v>
+        <v>69.416</v>
       </c>
       <c r="J79" t="n">
+        <v>60.76799999999999</v>
+      </c>
+      <c r="K79" t="n">
+        <v>29.336</v>
+      </c>
+      <c r="L79" t="n">
         <v>163.356</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>7852.983999999999</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="80">
@@ -3878,13 +4585,22 @@
         <v>77</v>
       </c>
       <c r="I80" t="n">
-        <v>21.545</v>
+        <v>77.4675</v>
       </c>
       <c r="J80" t="n">
+        <v>67.23999999999999</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="L80" t="n">
         <v>171.4475</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>9016.057499999999</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="81">
@@ -3921,13 +4637,22 @@
         <v>71.59999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>19.982</v>
+        <v>71.83399999999999</v>
       </c>
       <c r="J81" t="n">
+        <v>63.584</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.956</v>
+      </c>
+      <c r="L81" t="n">
         <v>168.344</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>8311.950000000001</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="82">
@@ -3964,13 +4689,22 @@
         <v>67</v>
       </c>
       <c r="I82" t="n">
-        <v>18.234</v>
+        <v>67.13199999999999</v>
       </c>
       <c r="J82" t="n">
+        <v>61.568</v>
+      </c>
+      <c r="K82" t="n">
+        <v>27.494</v>
+      </c>
+      <c r="L82" t="n">
         <v>154.582</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>7392.404</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="83">
@@ -4007,13 +4741,22 @@
         <v>63.66666666666666</v>
       </c>
       <c r="I83" t="n">
-        <v>16.92</v>
+        <v>64.16333333333334</v>
       </c>
       <c r="J83" t="n">
+        <v>54.21666666666667</v>
+      </c>
+      <c r="K83" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="L83" t="n">
         <v>148.1366666666667</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>6840.783333333333</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="84">
@@ -4050,13 +4793,22 @@
         <v>67</v>
       </c>
       <c r="I84" t="n">
-        <v>17.158</v>
+        <v>67.40599999999999</v>
       </c>
       <c r="J84" t="n">
+        <v>57.748</v>
+      </c>
+      <c r="K84" t="n">
+        <v>26.038</v>
+      </c>
+      <c r="L84" t="n">
         <v>142.59</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>6756.138000000001</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="85">
@@ -4093,13 +4845,22 @@
         <v>56</v>
       </c>
       <c r="I85" t="n">
-        <v>15.36</v>
+        <v>56.202</v>
       </c>
       <c r="J85" t="n">
+        <v>48.15599999999999</v>
+      </c>
+      <c r="K85" t="n">
+        <v>23.086</v>
+      </c>
+      <c r="L85" t="n">
         <v>166.274</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>6335.522</v>
+      </c>
+      <c r="N85" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="86">
@@ -4136,13 +4897,22 @@
         <v>61.2</v>
       </c>
       <c r="I86" t="n">
-        <v>15.592</v>
+        <v>61.502</v>
       </c>
       <c r="J86" t="n">
+        <v>54.864</v>
+      </c>
+      <c r="K86" t="n">
+        <v>23.608</v>
+      </c>
+      <c r="L86" t="n">
         <v>163.806</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>6191.412</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="87">
@@ -4179,13 +4949,22 @@
         <v>66.2</v>
       </c>
       <c r="I87" t="n">
-        <v>17.996</v>
+        <v>66.532</v>
       </c>
       <c r="J87" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="K87" t="n">
+        <v>27.122</v>
+      </c>
+      <c r="L87" t="n">
         <v>163.614</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>7298.584</v>
+      </c>
+      <c r="N87" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="88">
@@ -4222,13 +5001,22 @@
         <v>61.4</v>
       </c>
       <c r="I88" t="n">
-        <v>16.35</v>
+        <v>61.63599999999999</v>
       </c>
       <c r="J88" t="n">
+        <v>53.52200000000001</v>
+      </c>
+      <c r="K88" t="n">
+        <v>24.642</v>
+      </c>
+      <c r="L88" t="n">
         <v>160.226</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>6645.216</v>
+      </c>
+      <c r="N88" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="89">
@@ -4265,13 +5053,22 @@
         <v>73</v>
       </c>
       <c r="I89" t="n">
-        <v>20.492</v>
+        <v>73.30800000000001</v>
       </c>
       <c r="J89" t="n">
+        <v>65.46599999999999</v>
+      </c>
+      <c r="K89" t="n">
+        <v>30.656</v>
+      </c>
+      <c r="L89" t="n">
         <v>172.216</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>8639.155999999999</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="90">
@@ -4308,13 +5105,22 @@
         <v>63.2</v>
       </c>
       <c r="I90" t="n">
-        <v>16.55</v>
+        <v>63.65</v>
       </c>
       <c r="J90" t="n">
+        <v>58.354</v>
+      </c>
+      <c r="K90" t="n">
+        <v>24.854</v>
+      </c>
+      <c r="L90" t="n">
         <v>171.832</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>6725.892</v>
+      </c>
+      <c r="N90" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="91">
@@ -4351,13 +5157,22 @@
         <v>67.59999999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>17.734</v>
+        <v>68.078</v>
       </c>
       <c r="J91" t="n">
+        <v>59.088</v>
+      </c>
+      <c r="K91" t="n">
+        <v>26.818</v>
+      </c>
+      <c r="L91" t="n">
         <v>149.6</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>6973.762000000001</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="92">
@@ -4394,14 +5209,21 @@
         <v>114.25</v>
       </c>
       <c r="I92" t="n">
-        <v>31.13</v>
+        <v>114.52</v>
       </c>
       <c r="J92" t="n">
+        <v>104.4625</v>
+      </c>
+      <c r="K92" t="n">
+        <v>47.1275</v>
+      </c>
+      <c r="L92" t="n">
         <v>165.72</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>13059.7225</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4437,13 +5259,22 @@
         <v>172.2</v>
       </c>
       <c r="I93" t="n">
-        <v>47.748</v>
+        <v>172.574</v>
       </c>
       <c r="J93" t="n">
+        <v>162.382</v>
+      </c>
+      <c r="K93" t="n">
+        <v>72.176</v>
+      </c>
+      <c r="L93" t="n">
         <v>133.548</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>18619.364</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4480,13 +5311,22 @@
         <v>148.6666666666667</v>
       </c>
       <c r="I94" t="n">
-        <v>35.38</v>
+        <v>148.6733333333333</v>
       </c>
       <c r="J94" t="n">
+        <v>140.29</v>
+      </c>
+      <c r="K94" t="n">
+        <v>53.79666666666666</v>
+      </c>
+      <c r="L94" t="n">
         <v>117.07</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>13289.28666666667</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="95">
@@ -4523,13 +5363,22 @@
         <v>158.75</v>
       </c>
       <c r="I95" t="n">
-        <v>41.005</v>
+        <v>151.0775</v>
       </c>
       <c r="J95" t="n">
+        <v>149.0675</v>
+      </c>
+      <c r="K95" t="n">
+        <v>61.69</v>
+      </c>
+      <c r="L95" t="n">
         <v>94.9975</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>16021.9425</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="96">
@@ -4566,13 +5415,22 @@
         <v>136.6</v>
       </c>
       <c r="I96" t="n">
-        <v>38.246</v>
+        <v>136.492</v>
       </c>
       <c r="J96" t="n">
+        <v>123.948</v>
+      </c>
+      <c r="K96" t="n">
+        <v>57.372</v>
+      </c>
+      <c r="L96" t="n">
         <v>149.82</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>16414.192</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-3.569999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4609,13 +5467,22 @@
         <v>123.6</v>
       </c>
       <c r="I97" t="n">
-        <v>35.084</v>
+        <v>124.082</v>
       </c>
       <c r="J97" t="n">
+        <v>114.156</v>
+      </c>
+      <c r="K97" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="L97" t="n">
         <v>178.83</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>15148.98</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="98">
@@ -4652,13 +5519,22 @@
         <v>143.5</v>
       </c>
       <c r="I98" t="n">
-        <v>43.0275</v>
+        <v>143.7</v>
       </c>
       <c r="J98" t="n">
+        <v>129.7025</v>
+      </c>
+      <c r="K98" t="n">
+        <v>63.565</v>
+      </c>
+      <c r="L98" t="n">
         <v>205.5525</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>18797.85</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="99">
@@ -4695,13 +5571,22 @@
         <v>143</v>
       </c>
       <c r="I99" t="n">
-        <v>40.71</v>
+        <v>143.196</v>
       </c>
       <c r="J99" t="n">
+        <v>126.968</v>
+      </c>
+      <c r="K99" t="n">
+        <v>61.502</v>
+      </c>
+      <c r="L99" t="n">
         <v>159.412</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>16383.096</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="100">
@@ -4738,13 +5623,22 @@
         <v>82.8</v>
       </c>
       <c r="I100" t="n">
-        <v>20.014</v>
+        <v>83.166</v>
       </c>
       <c r="J100" t="n">
+        <v>75.922</v>
+      </c>
+      <c r="K100" t="n">
+        <v>30.356</v>
+      </c>
+      <c r="L100" t="n">
         <v>127.752</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>7754.707999999999</v>
+      </c>
+      <c r="N100" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="101">
@@ -4781,13 +5675,22 @@
         <v>119.4</v>
       </c>
       <c r="I101" t="n">
-        <v>33.394</v>
+        <v>119.854</v>
       </c>
       <c r="J101" t="n">
+        <v>107.714</v>
+      </c>
+      <c r="K101" t="n">
+        <v>49.134</v>
+      </c>
+      <c r="L101" t="n">
         <v>119.858</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>14253.696</v>
+      </c>
+      <c r="N101" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="102">
@@ -4824,13 +5727,22 @@
         <v>106</v>
       </c>
       <c r="I102" t="n">
-        <v>28.685</v>
+        <v>106.31</v>
       </c>
       <c r="J102" t="n">
+        <v>99.35499999999999</v>
+      </c>
+      <c r="K102" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="L102" t="n">
         <v>145.895</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>11180.915</v>
+      </c>
+      <c r="N102" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="103">
@@ -4867,13 +5779,22 @@
         <v>73</v>
       </c>
       <c r="I103" t="n">
-        <v>20.725</v>
+        <v>72.60499999999999</v>
       </c>
       <c r="J103" t="n">
+        <v>69.58500000000001</v>
+      </c>
+      <c r="K103" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L103" t="n">
         <v>179.095</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>8917.779999999999</v>
+      </c>
+      <c r="N103" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="104">
@@ -4910,13 +5831,22 @@
         <v>94</v>
       </c>
       <c r="I104" t="n">
-        <v>24.97</v>
+        <v>94.03399999999999</v>
       </c>
       <c r="J104" t="n">
+        <v>83.57199999999999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>37.504</v>
+      </c>
+      <c r="L104" t="n">
         <v>134.702</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>10438.068</v>
+      </c>
+      <c r="N104" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="105">
@@ -4953,13 +5883,22 @@
         <v>138.8</v>
       </c>
       <c r="I105" t="n">
-        <v>36.28</v>
+        <v>139.174</v>
       </c>
       <c r="J105" t="n">
+        <v>128.106</v>
+      </c>
+      <c r="K105" t="n">
+        <v>54.98200000000001</v>
+      </c>
+      <c r="L105" t="n">
         <v>156.648</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>14054.51</v>
+      </c>
+      <c r="N105" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="106">
@@ -4996,13 +5935,22 @@
         <v>127.25</v>
       </c>
       <c r="I106" t="n">
-        <v>35.715</v>
+        <v>127.685</v>
       </c>
       <c r="J106" t="n">
+        <v>116.5375</v>
+      </c>
+      <c r="K106" t="n">
+        <v>53.755</v>
+      </c>
+      <c r="L106" t="n">
         <v>166.3375</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>14497.0275</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="107">
@@ -5039,13 +5987,22 @@
         <v>126.3333333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>36.13333333333333</v>
+        <v>125.98</v>
       </c>
       <c r="J107" t="n">
+        <v>116.7033333333333</v>
+      </c>
+      <c r="K107" t="n">
+        <v>54.09</v>
+      </c>
+      <c r="L107" t="n">
         <v>165.18</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>15030.17</v>
+      </c>
+      <c r="N107" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -5082,13 +6039,22 @@
         <v>78.40000000000001</v>
       </c>
       <c r="I108" t="n">
-        <v>21.626</v>
+        <v>78.678</v>
       </c>
       <c r="J108" t="n">
+        <v>70.292</v>
+      </c>
+      <c r="K108" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="L108" t="n">
         <v>191.396</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>9009.082</v>
+      </c>
+      <c r="N108" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="109">
@@ -5125,13 +6091,22 @@
         <v>113.8</v>
       </c>
       <c r="I109" t="n">
-        <v>28.55399999999999</v>
+        <v>113.55</v>
       </c>
       <c r="J109" t="n">
+        <v>102.218</v>
+      </c>
+      <c r="K109" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="L109" t="n">
         <v>141.238</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>11283.304</v>
+      </c>
+      <c r="N109" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -5168,14 +6143,21 @@
         <v>98.75</v>
       </c>
       <c r="I110" t="n">
-        <v>27.015</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="J110" t="n">
+        <v>86.60499999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>40.285</v>
+      </c>
+      <c r="L110" t="n">
         <v>153.515</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>10756.425</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5211,13 +6193,22 @@
         <v>83.59999999999999</v>
       </c>
       <c r="I111" t="n">
-        <v>22.172</v>
+        <v>83.83799999999999</v>
       </c>
       <c r="J111" t="n">
+        <v>75.054</v>
+      </c>
+      <c r="K111" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="L111" t="n">
         <v>174.74</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>9063.574000000001</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="112">
@@ -5254,13 +6245,22 @@
         <v>54.4</v>
       </c>
       <c r="I112" t="n">
-        <v>15.116</v>
+        <v>54.72799999999999</v>
       </c>
       <c r="J112" t="n">
+        <v>48.15600000000001</v>
+      </c>
+      <c r="K112" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="L112" t="n">
         <v>185.114</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>6913</v>
+      </c>
+      <c r="N112" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="113">
@@ -5297,13 +6297,22 @@
         <v>107.5</v>
       </c>
       <c r="I113" t="n">
-        <v>28.6675</v>
+        <v>107.395</v>
       </c>
       <c r="J113" t="n">
+        <v>98.51249999999999</v>
+      </c>
+      <c r="K113" t="n">
+        <v>43.5925</v>
+      </c>
+      <c r="L113" t="n">
         <v>127.2125</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>11484.1975</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -5340,13 +6349,22 @@
         <v>91</v>
       </c>
       <c r="I114" t="n">
-        <v>24.626</v>
+        <v>91.416</v>
       </c>
       <c r="J114" t="n">
+        <v>84.17400000000001</v>
+      </c>
+      <c r="K114" t="n">
+        <v>36.564</v>
+      </c>
+      <c r="L114" t="n">
         <v>141.26</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>10350.584</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="115">
@@ -5383,13 +6401,22 @@
         <v>94.8</v>
       </c>
       <c r="I115" t="n">
-        <v>25.462</v>
+        <v>94.90600000000001</v>
       </c>
       <c r="J115" t="n">
+        <v>84.84400000000001</v>
+      </c>
+      <c r="K115" t="n">
+        <v>38.384</v>
+      </c>
+      <c r="L115" t="n">
         <v>143.71</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>10466.382</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="116">
@@ -5426,13 +6453,22 @@
         <v>98.8</v>
       </c>
       <c r="I116" t="n">
-        <v>26.17</v>
+        <v>99.26599999999999</v>
       </c>
       <c r="J116" t="n">
+        <v>87.05999999999999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>39.498</v>
+      </c>
+      <c r="L116" t="n">
         <v>131.154</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>10768.964</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="117">
@@ -5469,13 +6505,22 @@
         <v>93</v>
       </c>
       <c r="I117" t="n">
-        <v>24.898</v>
+        <v>93.36399999999999</v>
       </c>
       <c r="J117" t="n">
+        <v>85.45199999999998</v>
+      </c>
+      <c r="K117" t="n">
+        <v>37.524</v>
+      </c>
+      <c r="L117" t="n">
         <v>143.328</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>10286.96</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="118">
@@ -5512,13 +6557,22 @@
         <v>83.59999999999999</v>
       </c>
       <c r="I118" t="n">
-        <v>22.778</v>
+        <v>84.038</v>
       </c>
       <c r="J118" t="n">
+        <v>72.03599999999999</v>
+      </c>
+      <c r="K118" t="n">
+        <v>34.01600000000001</v>
+      </c>
+      <c r="L118" t="n">
         <v>147.01</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>9712.994000000001</v>
+      </c>
+      <c r="N118" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="119">
@@ -5555,13 +6609,22 @@
         <v>76.8</v>
       </c>
       <c r="I119" t="n">
-        <v>20.786</v>
+        <v>77.19800000000001</v>
       </c>
       <c r="J119" t="n">
+        <v>70.962</v>
+      </c>
+      <c r="K119" t="n">
+        <v>30.696</v>
+      </c>
+      <c r="L119" t="n">
         <v>134.184</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>9104.32</v>
+      </c>
+      <c r="N119" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="120">
@@ -5598,13 +6661,22 @@
         <v>71.2</v>
       </c>
       <c r="I120" t="n">
-        <v>19.636</v>
+        <v>71.298</v>
       </c>
       <c r="J120" t="n">
+        <v>63.452</v>
+      </c>
+      <c r="K120" t="n">
+        <v>28.438</v>
+      </c>
+      <c r="L120" t="n">
         <v>164.838</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>8921.466</v>
+      </c>
+      <c r="N120" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="121">
@@ -5641,13 +6713,22 @@
         <v>77</v>
       </c>
       <c r="I121" t="n">
-        <v>20.494</v>
+        <v>77.33</v>
       </c>
       <c r="J121" t="n">
+        <v>67.40599999999999</v>
+      </c>
+      <c r="K121" t="n">
+        <v>30.536</v>
+      </c>
+      <c r="L121" t="n">
         <v>152.366</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>8841.401999999998</v>
+      </c>
+      <c r="N121" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="122">
@@ -5684,13 +6765,22 @@
         <v>70</v>
       </c>
       <c r="I122" t="n">
-        <v>19.32</v>
+        <v>70.154</v>
       </c>
       <c r="J122" t="n">
+        <v>61.23599999999999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>27.862</v>
+      </c>
+      <c r="L122" t="n">
         <v>225.452</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>8877.134</v>
+      </c>
+      <c r="N122" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="123">
@@ -5727,13 +6817,22 @@
         <v>64.59999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>17.544</v>
+        <v>65.05800000000001</v>
       </c>
       <c r="J123" t="n">
+        <v>57.41399999999999</v>
+      </c>
+      <c r="K123" t="n">
+        <v>25.992</v>
+      </c>
+      <c r="L123" t="n">
         <v>199.71</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>7556.714</v>
+      </c>
+      <c r="N123" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="124">
@@ -5770,13 +6869,22 @@
         <v>66.8</v>
       </c>
       <c r="I124" t="n">
-        <v>17.584</v>
+        <v>67.34</v>
       </c>
       <c r="J124" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="K124" t="n">
+        <v>26.012</v>
+      </c>
+      <c r="L124" t="n">
         <v>200.224</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>7506.270000000001</v>
+      </c>
+      <c r="N124" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="125">
@@ -5813,13 +6921,22 @@
         <v>79.75</v>
       </c>
       <c r="I125" t="n">
-        <v>20.8175</v>
+        <v>79.8125</v>
       </c>
       <c r="J125" t="n">
+        <v>74.285</v>
+      </c>
+      <c r="K125" t="n">
+        <v>31.1875</v>
+      </c>
+      <c r="L125" t="n">
         <v>145.89</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>8741.365</v>
+      </c>
+      <c r="N125" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="126">
@@ -5856,13 +6973,22 @@
         <v>78.40000000000001</v>
       </c>
       <c r="I126" t="n">
-        <v>20.632</v>
+        <v>78.74000000000001</v>
       </c>
       <c r="J126" t="n">
+        <v>69.822</v>
+      </c>
+      <c r="K126" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="L126" t="n">
         <v>147.652</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>8574.871999999999</v>
+      </c>
+      <c r="N126" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="127">
@@ -5899,13 +7025,22 @@
         <v>78</v>
       </c>
       <c r="I127" t="n">
-        <v>21.876</v>
+        <v>78.268</v>
       </c>
       <c r="J127" t="n">
+        <v>71.16199999999999</v>
+      </c>
+      <c r="K127" t="n">
+        <v>31.772</v>
+      </c>
+      <c r="L127" t="n">
         <v>168.096</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>9833.856000000002</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="128">
@@ -5942,14 +7077,21 @@
         <v>256</v>
       </c>
       <c r="I128" t="n">
-        <v>64.006</v>
+        <v>254.466</v>
       </c>
       <c r="J128" t="n">
+        <v>230.258</v>
+      </c>
+      <c r="K128" t="n">
+        <v>100.026</v>
+      </c>
+      <c r="L128" t="n">
         <v>83.208</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>20564.348</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5985,13 +7127,22 @@
         <v>232.8</v>
       </c>
       <c r="I129" t="n">
-        <v>52.776</v>
+        <v>232.736</v>
       </c>
       <c r="J129" t="n">
+        <v>196.248</v>
+      </c>
+      <c r="K129" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L129" t="n">
         <v>74.32599999999999</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>16819.404</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="130">
@@ -6028,13 +7179,22 @@
         <v>167.75</v>
       </c>
       <c r="I130" t="n">
-        <v>35.555</v>
+        <v>168.2625</v>
       </c>
       <c r="J130" t="n">
+        <v>152.4175</v>
+      </c>
+      <c r="K130" t="n">
+        <v>54.5325</v>
+      </c>
+      <c r="L130" t="n">
         <v>62.44</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>12159.3425</v>
+      </c>
+      <c r="N130" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="131">
@@ -6071,13 +7231,22 @@
         <v>232.6</v>
       </c>
       <c r="I131" t="n">
-        <v>55.54600000000001</v>
+        <v>232.87</v>
       </c>
       <c r="J131" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="K131" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="L131" t="n">
         <v>77.976</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>17823.932</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="132">
@@ -6114,13 +7283,22 @@
         <v>234.4</v>
       </c>
       <c r="I132" t="n">
-        <v>49.54799999999999</v>
+        <v>234.48</v>
       </c>
       <c r="J132" t="n">
+        <v>214.764</v>
+      </c>
+      <c r="K132" t="n">
+        <v>76.964</v>
+      </c>
+      <c r="L132" t="n">
         <v>61.12</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>15116.03</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="133">
@@ -6157,13 +7335,22 @@
         <v>240.8</v>
       </c>
       <c r="I133" t="n">
-        <v>58.30800000000001</v>
+        <v>235.148</v>
       </c>
       <c r="J133" t="n">
+        <v>220.596</v>
+      </c>
+      <c r="K133" t="n">
+        <v>91.172</v>
+      </c>
+      <c r="L133" t="n">
         <v>82.90400000000001</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>18228.546</v>
+      </c>
+      <c r="N133" t="n">
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -6200,13 +7387,22 @@
         <v>214.6666666666667</v>
       </c>
       <c r="I134" t="n">
-        <v>50.36666666666667</v>
+        <v>214.9633333333334</v>
       </c>
       <c r="J134" t="n">
+        <v>189.4766666666667</v>
+      </c>
+      <c r="K134" t="n">
+        <v>78.21666666666667</v>
+      </c>
+      <c r="L134" t="n">
         <v>62.83000000000001</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>14705.88</v>
+      </c>
+      <c r="N134" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="135">
@@ -6243,13 +7439,22 @@
         <v>232</v>
       </c>
       <c r="I135" t="n">
-        <v>55.354</v>
+        <v>230.256</v>
       </c>
       <c r="J135" t="n">
+        <v>213.756</v>
+      </c>
+      <c r="K135" t="n">
+        <v>86.49800000000002</v>
+      </c>
+      <c r="L135" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>17051.03</v>
+      </c>
+      <c r="N135" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="136">
@@ -6286,13 +7491,22 @@
         <v>213</v>
       </c>
       <c r="I136" t="n">
-        <v>47.762</v>
+        <v>213.018</v>
       </c>
       <c r="J136" t="n">
+        <v>193.368</v>
+      </c>
+      <c r="K136" t="n">
+        <v>74.292</v>
+      </c>
+      <c r="L136" t="n">
         <v>67.8</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>15055.496</v>
+      </c>
+      <c r="N136" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="137">
@@ -6329,13 +7543,22 @@
         <v>214.4</v>
       </c>
       <c r="I137" t="n">
-        <v>49.538</v>
+        <v>211.606</v>
       </c>
       <c r="J137" t="n">
+        <v>186.054</v>
+      </c>
+      <c r="K137" t="n">
+        <v>76.87800000000001</v>
+      </c>
+      <c r="L137" t="n">
         <v>67.736</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>15647.004</v>
+      </c>
+      <c r="N137" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="138">
@@ -6372,13 +7595,22 @@
         <v>211</v>
       </c>
       <c r="I138" t="n">
-        <v>47.6175</v>
+        <v>211.1875</v>
       </c>
       <c r="J138" t="n">
+        <v>178.4075</v>
+      </c>
+      <c r="K138" t="n">
+        <v>74</v>
+      </c>
+      <c r="L138" t="n">
         <v>68.45</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>15252.0325</v>
+      </c>
+      <c r="N138" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="139">
@@ -6415,13 +7647,22 @@
         <v>204.6</v>
       </c>
       <c r="I139" t="n">
-        <v>46.86799999999999</v>
+        <v>204.97</v>
       </c>
       <c r="J139" t="n">
+        <v>181.162</v>
+      </c>
+      <c r="K139" t="n">
+        <v>72.92999999999999</v>
+      </c>
+      <c r="L139" t="n">
         <v>69.208</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>14781.716</v>
+      </c>
+      <c r="N139" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="140">
@@ -6458,13 +7699,22 @@
         <v>203.75</v>
       </c>
       <c r="I140" t="n">
-        <v>45.745</v>
+        <v>203.645</v>
       </c>
       <c r="J140" t="n">
+        <v>173.965</v>
+      </c>
+      <c r="K140" t="n">
+        <v>70.8275</v>
+      </c>
+      <c r="L140" t="n">
         <v>67.7325</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>14843.1775</v>
+      </c>
+      <c r="N140" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="141">
@@ -6501,13 +7751,22 @@
         <v>213.4</v>
       </c>
       <c r="I141" t="n">
-        <v>49.558</v>
+        <v>213.89</v>
       </c>
       <c r="J141" t="n">
+        <v>174.116</v>
+      </c>
+      <c r="K141" t="n">
+        <v>77.08800000000001</v>
+      </c>
+      <c r="L141" t="n">
         <v>71.854</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>16288.91</v>
+      </c>
+      <c r="N141" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="142">
@@ -6544,13 +7803,22 @@
         <v>211.2</v>
       </c>
       <c r="I142" t="n">
-        <v>48.598</v>
+        <v>211.34</v>
       </c>
       <c r="J142" t="n">
+        <v>176.466</v>
+      </c>
+      <c r="K142" t="n">
+        <v>75.514</v>
+      </c>
+      <c r="L142" t="n">
         <v>70.03</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>15558.38</v>
+      </c>
+      <c r="N142" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="143">
@@ -6587,13 +7855,22 @@
         <v>223.8</v>
       </c>
       <c r="I143" t="n">
-        <v>53.102</v>
+        <v>222.878</v>
       </c>
       <c r="J143" t="n">
+        <v>193.166</v>
+      </c>
+      <c r="K143" t="n">
+        <v>82.782</v>
+      </c>
+      <c r="L143" t="n">
         <v>70.226</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>16525.214</v>
+      </c>
+      <c r="N143" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="144">
@@ -6630,13 +7907,22 @@
         <v>211.5</v>
       </c>
       <c r="I144" t="n">
-        <v>47.5375</v>
+        <v>211.7775</v>
       </c>
       <c r="J144" t="n">
+        <v>180.2575</v>
+      </c>
+      <c r="K144" t="n">
+        <v>73.78749999999999</v>
+      </c>
+      <c r="L144" t="n">
         <v>64.85249999999999</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>15166.7275</v>
+      </c>
+      <c r="N144" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="145">
@@ -6673,13 +7959,22 @@
         <v>224.4</v>
       </c>
       <c r="I145" t="n">
-        <v>53.084</v>
+        <v>222.208</v>
       </c>
       <c r="J145" t="n">
+        <v>187.802</v>
+      </c>
+      <c r="K145" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="L145" t="n">
         <v>69.56399999999999</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>16672.094</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="146">
@@ -6716,14 +8011,21 @@
         <v>110</v>
       </c>
       <c r="I146" t="n">
-        <v>25.814</v>
+        <v>110.666</v>
       </c>
       <c r="J146" t="n">
+        <v>99.73600000000002</v>
+      </c>
+      <c r="K146" t="n">
+        <v>39.78400000000001</v>
+      </c>
+      <c r="L146" t="n">
         <v>118.92</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>8948.822</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6759,13 +8061,22 @@
         <v>125.6</v>
       </c>
       <c r="I147" t="n">
-        <v>30.568</v>
+        <v>125.894</v>
       </c>
       <c r="J147" t="n">
+        <v>110.534</v>
+      </c>
+      <c r="K147" t="n">
+        <v>46.636</v>
+      </c>
+      <c r="L147" t="n">
         <v>105.49</v>
       </c>
-      <c r="K147" t="n">
+      <c r="M147" t="n">
         <v>11450.976</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="148">
@@ -6802,13 +8113,22 @@
         <v>83.75</v>
       </c>
       <c r="I148" t="n">
-        <v>18.85</v>
+        <v>84.005</v>
       </c>
       <c r="J148" t="n">
+        <v>75.11750000000001</v>
+      </c>
+      <c r="K148" t="n">
+        <v>28.8225</v>
+      </c>
+      <c r="L148" t="n">
         <v>111.3725</v>
       </c>
-      <c r="K148" t="n">
+      <c r="M148" t="n">
         <v>6708.077499999999</v>
+      </c>
+      <c r="N148" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="149">
@@ -6845,13 +8165,22 @@
         <v>100.2</v>
       </c>
       <c r="I149" t="n">
-        <v>24.732</v>
+        <v>100.606</v>
       </c>
       <c r="J149" t="n">
+        <v>87.25999999999999</v>
+      </c>
+      <c r="K149" t="n">
+        <v>37.546</v>
+      </c>
+      <c r="L149" t="n">
         <v>115.896</v>
       </c>
-      <c r="K149" t="n">
+      <c r="M149" t="n">
         <v>10126.09</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="150">
@@ -6888,13 +8217,22 @@
         <v>105.2</v>
       </c>
       <c r="I150" t="n">
-        <v>25.88</v>
+        <v>105.368</v>
       </c>
       <c r="J150" t="n">
+        <v>99.53400000000002</v>
+      </c>
+      <c r="K150" t="n">
+        <v>39.73399999999999</v>
+      </c>
+      <c r="L150" t="n">
         <v>110.946</v>
       </c>
-      <c r="K150" t="n">
+      <c r="M150" t="n">
         <v>9693.004000000001</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="151">
@@ -6931,13 +8269,22 @@
         <v>97.5</v>
       </c>
       <c r="I151" t="n">
-        <v>21.8875</v>
+        <v>97.42</v>
       </c>
       <c r="J151" t="n">
+        <v>85.6825</v>
+      </c>
+      <c r="K151" t="n">
+        <v>33.935</v>
+      </c>
+      <c r="L151" t="n">
         <v>93.63</v>
       </c>
-      <c r="K151" t="n">
+      <c r="M151" t="n">
         <v>7629.4475</v>
+      </c>
+      <c r="N151" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="152">
@@ -6974,13 +8321,22 @@
         <v>93.8</v>
       </c>
       <c r="I152" t="n">
-        <v>22.444</v>
+        <v>93.96599999999999</v>
       </c>
       <c r="J152" t="n">
+        <v>80.75399999999999</v>
+      </c>
+      <c r="K152" t="n">
+        <v>34.256</v>
+      </c>
+      <c r="L152" t="n">
         <v>127.228</v>
       </c>
-      <c r="K152" t="n">
+      <c r="M152" t="n">
         <v>8935.897999999999</v>
+      </c>
+      <c r="N152" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="153">
@@ -7017,13 +8373,22 @@
         <v>95.5</v>
       </c>
       <c r="I153" t="n">
-        <v>23.5</v>
+        <v>95.41</v>
       </c>
       <c r="J153" t="n">
+        <v>84.765</v>
+      </c>
+      <c r="K153" t="n">
+        <v>35.735</v>
+      </c>
+      <c r="L153" t="n">
         <v>145.355</v>
       </c>
-      <c r="K153" t="n">
+      <c r="M153" t="n">
         <v>9182.765000000001</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="154">
@@ -7060,13 +8425,22 @@
         <v>105.6</v>
       </c>
       <c r="I154" t="n">
-        <v>24.518</v>
+        <v>105.838</v>
       </c>
       <c r="J154" t="n">
+        <v>98.19000000000001</v>
+      </c>
+      <c r="K154" t="n">
+        <v>37.64400000000001</v>
+      </c>
+      <c r="L154" t="n">
         <v>122.26</v>
       </c>
-      <c r="K154" t="n">
+      <c r="M154" t="n">
         <v>8863.691999999999</v>
+      </c>
+      <c r="N154" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="155">
@@ -7103,13 +8477,22 @@
         <v>104.4</v>
       </c>
       <c r="I155" t="n">
-        <v>24.496</v>
+        <v>104.7</v>
       </c>
       <c r="J155" t="n">
+        <v>99.066</v>
+      </c>
+      <c r="K155" t="n">
+        <v>37.336</v>
+      </c>
+      <c r="L155" t="n">
         <v>114.13</v>
       </c>
-      <c r="K155" t="n">
+      <c r="M155" t="n">
         <v>9834.103999999999</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="156">
@@ -7146,13 +8529,22 @@
         <v>118.8</v>
       </c>
       <c r="I156" t="n">
-        <v>28.528</v>
+        <v>118.984</v>
       </c>
       <c r="J156" t="n">
+        <v>111.138</v>
+      </c>
+      <c r="K156" t="n">
+        <v>43.628</v>
+      </c>
+      <c r="L156" t="n">
         <v>141.714</v>
       </c>
-      <c r="K156" t="n">
+      <c r="M156" t="n">
         <v>10299.578</v>
+      </c>
+      <c r="N156" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="157">
@@ -7189,13 +8581,22 @@
         <v>113.2</v>
       </c>
       <c r="I157" t="n">
-        <v>24.78</v>
+        <v>113.55</v>
       </c>
       <c r="J157" t="n">
+        <v>101.746</v>
+      </c>
+      <c r="K157" t="n">
+        <v>38.542</v>
+      </c>
+      <c r="L157" t="n">
         <v>96.774</v>
       </c>
-      <c r="K157" t="n">
+      <c r="M157" t="n">
         <v>7922.117999999999</v>
+      </c>
+      <c r="N157" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="158">
@@ -7232,13 +8633,22 @@
         <v>89.2</v>
       </c>
       <c r="I158" t="n">
-        <v>20.698</v>
+        <v>89.404</v>
       </c>
       <c r="J158" t="n">
+        <v>82.09200000000001</v>
+      </c>
+      <c r="K158" t="n">
+        <v>32.018</v>
+      </c>
+      <c r="L158" t="n">
         <v>101.232</v>
       </c>
-      <c r="K158" t="n">
+      <c r="M158" t="n">
         <v>7223.842</v>
+      </c>
+      <c r="N158" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="159">
@@ -7275,13 +8685,22 @@
         <v>90</v>
       </c>
       <c r="I159" t="n">
-        <v>21.286</v>
+        <v>90.208</v>
       </c>
       <c r="J159" t="n">
+        <v>78.538</v>
+      </c>
+      <c r="K159" t="n">
+        <v>32.578</v>
+      </c>
+      <c r="L159" t="n">
         <v>112.838</v>
       </c>
-      <c r="K159" t="n">
+      <c r="M159" t="n">
         <v>8237.402</v>
+      </c>
+      <c r="N159" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="160">
@@ -7318,13 +8737,22 @@
         <v>91.59999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>22.686</v>
+        <v>92.08799999999999</v>
       </c>
       <c r="J160" t="n">
+        <v>82.49799999999999</v>
+      </c>
+      <c r="K160" t="n">
+        <v>34.312</v>
+      </c>
+      <c r="L160" t="n">
         <v>123.658</v>
       </c>
-      <c r="K160" t="n">
+      <c r="M160" t="n">
         <v>9437.218000000001</v>
+      </c>
+      <c r="N160" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="161">
@@ -7361,13 +8789,22 @@
         <v>85.5</v>
       </c>
       <c r="I161" t="n">
-        <v>21.5075</v>
+        <v>85.76750000000001</v>
       </c>
       <c r="J161" t="n">
+        <v>75.1225</v>
+      </c>
+      <c r="K161" t="n">
+        <v>32.955</v>
+      </c>
+      <c r="L161" t="n">
         <v>126.3775</v>
       </c>
-      <c r="K161" t="n">
+      <c r="M161" t="n">
         <v>8012.5375</v>
+      </c>
+      <c r="N161" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="162">
@@ -7404,13 +8841,22 @@
         <v>111.2</v>
       </c>
       <c r="I162" t="n">
-        <v>26.136</v>
+        <v>111.542</v>
       </c>
       <c r="J162" t="n">
+        <v>103.896</v>
+      </c>
+      <c r="K162" t="n">
+        <v>40.122</v>
+      </c>
+      <c r="L162" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="K162" t="n">
+      <c r="M162" t="n">
         <v>9151.422</v>
+      </c>
+      <c r="N162" t="n">
+        <v>7.159999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -7447,13 +8893,22 @@
         <v>109.4</v>
       </c>
       <c r="I163" t="n">
-        <v>22.114</v>
+        <v>109.794</v>
       </c>
       <c r="J163" t="n">
+        <v>101.812</v>
+      </c>
+      <c r="K163" t="n">
+        <v>34.532</v>
+      </c>
+      <c r="L163" t="n">
         <v>79.66800000000001</v>
       </c>
-      <c r="K163" t="n">
+      <c r="M163" t="n">
         <v>6582.836</v>
+      </c>
+      <c r="N163" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="164">
@@ -7490,14 +8945,21 @@
         <v>141</v>
       </c>
       <c r="I164" t="n">
-        <v>42.832</v>
+        <v>139.376</v>
       </c>
       <c r="J164" t="n">
+        <v>129.048</v>
+      </c>
+      <c r="K164" t="n">
+        <v>64.05199999999999</v>
+      </c>
+      <c r="L164" t="n">
         <v>152.08</v>
       </c>
-      <c r="K164" t="n">
+      <c r="M164" t="n">
         <v>17092.026</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7533,13 +8995,22 @@
         <v>142.2</v>
       </c>
       <c r="I165" t="n">
-        <v>40.83199999999999</v>
+        <v>139.64</v>
       </c>
       <c r="J165" t="n">
+        <v>127.102</v>
+      </c>
+      <c r="K165" t="n">
+        <v>61.23199999999999</v>
+      </c>
+      <c r="L165" t="n">
         <v>139.262</v>
       </c>
-      <c r="K165" t="n">
+      <c r="M165" t="n">
         <v>16379.202</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="166">
@@ -7576,13 +9047,22 @@
         <v>79.40000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>20.842</v>
+        <v>79.276</v>
       </c>
       <c r="J166" t="n">
+        <v>69.21799999999999</v>
+      </c>
+      <c r="K166" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="L166" t="n">
         <v>147.988</v>
       </c>
-      <c r="K166" t="n">
+      <c r="M166" t="n">
         <v>8908.6</v>
+      </c>
+      <c r="N166" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="167">
@@ -7619,13 +9099,22 @@
         <v>131</v>
       </c>
       <c r="I167" t="n">
-        <v>38.308</v>
+        <v>131.258</v>
       </c>
       <c r="J167" t="n">
+        <v>113.552</v>
+      </c>
+      <c r="K167" t="n">
+        <v>57.65799999999999</v>
+      </c>
+      <c r="L167" t="n">
         <v>143.428</v>
       </c>
-      <c r="K167" t="n">
+      <c r="M167" t="n">
         <v>16103.33</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="168">
@@ -7662,13 +9151,22 @@
         <v>136.6</v>
       </c>
       <c r="I168" t="n">
-        <v>39.748</v>
+        <v>136.152</v>
       </c>
       <c r="J168" t="n">
+        <v>128.308</v>
+      </c>
+      <c r="K168" t="n">
+        <v>59.536</v>
+      </c>
+      <c r="L168" t="n">
         <v>152.232</v>
       </c>
-      <c r="K168" t="n">
+      <c r="M168" t="n">
         <v>16181.754</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="169">
@@ -7705,13 +9203,22 @@
         <v>124.2</v>
       </c>
       <c r="I169" t="n">
-        <v>35.4</v>
+        <v>121.598</v>
       </c>
       <c r="J169" t="n">
+        <v>109.258</v>
+      </c>
+      <c r="K169" t="n">
+        <v>53.092</v>
+      </c>
+      <c r="L169" t="n">
         <v>139.58</v>
       </c>
-      <c r="K169" t="n">
+      <c r="M169" t="n">
         <v>14365.532</v>
+      </c>
+      <c r="N169" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="170">
@@ -7748,13 +9255,22 @@
         <v>136.6</v>
       </c>
       <c r="I170" t="n">
-        <v>40.33</v>
+        <v>131.594</v>
       </c>
       <c r="J170" t="n">
+        <v>122.474</v>
+      </c>
+      <c r="K170" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="L170" t="n">
         <v>170.942</v>
       </c>
-      <c r="K170" t="n">
+      <c r="M170" t="n">
         <v>16805.4</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="171">
@@ -7791,13 +9307,22 @@
         <v>127.2</v>
       </c>
       <c r="I171" t="n">
-        <v>35.362</v>
+        <v>127.636</v>
       </c>
       <c r="J171" t="n">
+        <v>119.724</v>
+      </c>
+      <c r="K171" t="n">
+        <v>52.89200000000001</v>
+      </c>
+      <c r="L171" t="n">
         <v>142.026</v>
       </c>
-      <c r="K171" t="n">
+      <c r="M171" t="n">
         <v>14736.516</v>
+      </c>
+      <c r="N171" t="n">
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="172">
@@ -7834,13 +9359,22 @@
         <v>112.25</v>
       </c>
       <c r="I172" t="n">
-        <v>31.99</v>
+        <v>112.4275</v>
       </c>
       <c r="J172" t="n">
+        <v>104.21</v>
+      </c>
+      <c r="K172" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="L172" t="n">
         <v>151.11</v>
       </c>
-      <c r="K172" t="n">
+      <c r="M172" t="n">
         <v>13531.5</v>
+      </c>
+      <c r="N172" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="173">
@@ -7877,13 +9411,22 @@
         <v>100.8</v>
       </c>
       <c r="I173" t="n">
-        <v>27.928</v>
+        <v>101.008</v>
       </c>
       <c r="J173" t="n">
+        <v>89.07400000000001</v>
+      </c>
+      <c r="K173" t="n">
+        <v>41.708</v>
+      </c>
+      <c r="L173" t="n">
         <v>139.914</v>
       </c>
-      <c r="K173" t="n">
+      <c r="M173" t="n">
         <v>11899.808</v>
+      </c>
+      <c r="N173" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="174">
@@ -7920,13 +9463,22 @@
         <v>105.6</v>
       </c>
       <c r="I174" t="n">
-        <v>27.324</v>
+        <v>105.904</v>
       </c>
       <c r="J174" t="n">
+        <v>90.14399999999999</v>
+      </c>
+      <c r="K174" t="n">
+        <v>41.088</v>
+      </c>
+      <c r="L174" t="n">
         <v>125.988</v>
       </c>
-      <c r="K174" t="n">
+      <c r="M174" t="n">
         <v>11133.272</v>
+      </c>
+      <c r="N174" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="175">
@@ -7963,13 +9515,22 @@
         <v>129.2</v>
       </c>
       <c r="I175" t="n">
-        <v>34.626</v>
+        <v>129.178</v>
       </c>
       <c r="J175" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="K175" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="L175" t="n">
         <v>145.032</v>
       </c>
-      <c r="K175" t="n">
+      <c r="M175" t="n">
         <v>14060.726</v>
+      </c>
+      <c r="N175" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="176">
@@ -8006,13 +9567,22 @@
         <v>126.8</v>
       </c>
       <c r="I176" t="n">
-        <v>36.374</v>
+        <v>125.62</v>
       </c>
       <c r="J176" t="n">
+        <v>117.104</v>
+      </c>
+      <c r="K176" t="n">
+        <v>54.706</v>
+      </c>
+      <c r="L176" t="n">
         <v>149.986</v>
       </c>
-      <c r="K176" t="n">
+      <c r="M176" t="n">
         <v>14770.618</v>
+      </c>
+      <c r="N176" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="177">
@@ -8049,13 +9619,22 @@
         <v>124</v>
       </c>
       <c r="I177" t="n">
-        <v>34.20399999999999</v>
+        <v>124.216</v>
       </c>
       <c r="J177" t="n">
+        <v>113.418</v>
+      </c>
+      <c r="K177" t="n">
+        <v>51.52999999999999</v>
+      </c>
+      <c r="L177" t="n">
         <v>131.43</v>
       </c>
-      <c r="K177" t="n">
+      <c r="M177" t="n">
         <v>13960.6</v>
+      </c>
+      <c r="N177" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="178">
@@ -8092,13 +9671,22 @@
         <v>123.8</v>
       </c>
       <c r="I178" t="n">
-        <v>35.358</v>
+        <v>123.88</v>
       </c>
       <c r="J178" t="n">
+        <v>113.218</v>
+      </c>
+      <c r="K178" t="n">
+        <v>52.934</v>
+      </c>
+      <c r="L178" t="n">
         <v>146.846</v>
       </c>
-      <c r="K178" t="n">
+      <c r="M178" t="n">
         <v>14941.024</v>
+      </c>
+      <c r="N178" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="179">
@@ -8135,13 +9723,22 @@
         <v>131.2</v>
       </c>
       <c r="I179" t="n">
-        <v>37.618</v>
+        <v>131.122</v>
       </c>
       <c r="J179" t="n">
+        <v>116.84</v>
+      </c>
+      <c r="K179" t="n">
+        <v>56.51600000000001</v>
+      </c>
+      <c r="L179" t="n">
         <v>134.216</v>
       </c>
-      <c r="K179" t="n">
+      <c r="M179" t="n">
         <v>15084.296</v>
+      </c>
+      <c r="N179" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="180">
@@ -8178,13 +9775,22 @@
         <v>131.8</v>
       </c>
       <c r="I180" t="n">
-        <v>35.54</v>
+        <v>132.062</v>
       </c>
       <c r="J180" t="n">
+        <v>124.15</v>
+      </c>
+      <c r="K180" t="n">
+        <v>53.54200000000001</v>
+      </c>
+      <c r="L180" t="n">
         <v>125.808</v>
       </c>
-      <c r="K180" t="n">
+      <c r="M180" t="n">
         <v>14312.918</v>
+      </c>
+      <c r="N180" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="181">
@@ -8221,13 +9827,22 @@
         <v>122.4</v>
       </c>
       <c r="I181" t="n">
-        <v>34.83</v>
+        <v>122.2</v>
       </c>
       <c r="J181" t="n">
+        <v>110.534</v>
+      </c>
+      <c r="K181" t="n">
+        <v>52.13399999999999</v>
+      </c>
+      <c r="L181" t="n">
         <v>144.988</v>
       </c>
-      <c r="K181" t="n">
+      <c r="M181" t="n">
         <v>14638.726</v>
+      </c>
+      <c r="N181" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="182">
@@ -8264,14 +9879,21 @@
         <v>110</v>
       </c>
       <c r="I182" t="n">
-        <v>31.394</v>
+        <v>110.262</v>
       </c>
       <c r="J182" t="n">
+        <v>99.13</v>
+      </c>
+      <c r="K182" t="n">
+        <v>46.462</v>
+      </c>
+      <c r="L182" t="n">
         <v>163.616</v>
       </c>
-      <c r="K182" t="n">
+      <c r="M182" t="n">
         <v>13717.748</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8307,13 +9929,22 @@
         <v>112.8</v>
       </c>
       <c r="I183" t="n">
-        <v>30.394</v>
+        <v>112.812</v>
       </c>
       <c r="J183" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>45.27200000000001</v>
+      </c>
+      <c r="L183" t="n">
         <v>145.586</v>
       </c>
-      <c r="K183" t="n">
+      <c r="M183" t="n">
         <v>12897.156</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="184">
@@ -8350,13 +9981,22 @@
         <v>72.40000000000001</v>
       </c>
       <c r="I184" t="n">
-        <v>19.782</v>
+        <v>72.3</v>
       </c>
       <c r="J184" t="n">
+        <v>62.50999999999999</v>
+      </c>
+      <c r="K184" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="L184" t="n">
         <v>176.8</v>
       </c>
-      <c r="K184" t="n">
+      <c r="M184" t="n">
         <v>8733.392</v>
+      </c>
+      <c r="N184" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="185">
@@ -8393,13 +10033,22 @@
         <v>134.2</v>
       </c>
       <c r="I185" t="n">
-        <v>38.86999999999999</v>
+        <v>134.342</v>
       </c>
       <c r="J185" t="n">
+        <v>119.79</v>
+      </c>
+      <c r="K185" t="n">
+        <v>57.306</v>
+      </c>
+      <c r="L185" t="n">
         <v>175.734</v>
       </c>
-      <c r="K185" t="n">
+      <c r="M185" t="n">
         <v>17152.098</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="186">
@@ -8436,13 +10085,22 @@
         <v>102.8</v>
       </c>
       <c r="I186" t="n">
-        <v>29.66</v>
+        <v>103.152</v>
       </c>
       <c r="J186" t="n">
+        <v>94.30199999999999</v>
+      </c>
+      <c r="K186" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="L186" t="n">
         <v>180.26</v>
       </c>
-      <c r="K186" t="n">
+      <c r="M186" t="n">
         <v>13380.166</v>
+      </c>
+      <c r="N186" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="187">
@@ -8479,13 +10137,22 @@
         <v>130</v>
       </c>
       <c r="I187" t="n">
-        <v>38.078</v>
+        <v>130.25</v>
       </c>
       <c r="J187" t="n">
+        <v>125.622</v>
+      </c>
+      <c r="K187" t="n">
+        <v>55.85200000000001</v>
+      </c>
+      <c r="L187" t="n">
         <v>178.78</v>
       </c>
-      <c r="K187" t="n">
+      <c r="M187" t="n">
         <v>17063.144</v>
+      </c>
+      <c r="N187" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="188">
@@ -8522,13 +10189,22 @@
         <v>119.25</v>
       </c>
       <c r="I188" t="n">
-        <v>35.405</v>
+        <v>119.47</v>
       </c>
       <c r="J188" t="n">
+        <v>109.2425</v>
+      </c>
+      <c r="K188" t="n">
+        <v>51.8825</v>
+      </c>
+      <c r="L188" t="n">
         <v>189.77</v>
       </c>
-      <c r="K188" t="n">
+      <c r="M188" t="n">
         <v>15855.0925</v>
+      </c>
+      <c r="N188" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="189">
@@ -8565,13 +10241,22 @@
         <v>138.2</v>
       </c>
       <c r="I189" t="n">
-        <v>41.766</v>
+        <v>138.3</v>
       </c>
       <c r="J189" t="n">
+        <v>119.992</v>
+      </c>
+      <c r="K189" t="n">
+        <v>61.48999999999999</v>
+      </c>
+      <c r="L189" t="n">
         <v>175.302</v>
       </c>
-      <c r="K189" t="n">
+      <c r="M189" t="n">
         <v>18597.14</v>
+      </c>
+      <c r="N189" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="190">
@@ -8608,13 +10293,22 @@
         <v>110</v>
       </c>
       <c r="I190" t="n">
-        <v>30.385</v>
+        <v>110.1625</v>
       </c>
       <c r="J190" t="n">
+        <v>94.90499999999999</v>
+      </c>
+      <c r="K190" t="n">
+        <v>44.9725</v>
+      </c>
+      <c r="L190" t="n">
         <v>166.9025</v>
       </c>
-      <c r="K190" t="n">
+      <c r="M190" t="n">
         <v>13089.5225</v>
+      </c>
+      <c r="N190" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="191">
@@ -8651,13 +10345,22 @@
         <v>116.6</v>
       </c>
       <c r="I191" t="n">
-        <v>33.75</v>
+        <v>116.972</v>
       </c>
       <c r="J191" t="n">
+        <v>99.602</v>
+      </c>
+      <c r="K191" t="n">
+        <v>49.104</v>
+      </c>
+      <c r="L191" t="n">
         <v>187.632</v>
       </c>
-      <c r="K191" t="n">
+      <c r="M191" t="n">
         <v>15299.104</v>
+      </c>
+      <c r="N191" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="192">
@@ -8694,13 +10397,22 @@
         <v>109</v>
       </c>
       <c r="I192" t="n">
-        <v>32.11</v>
+        <v>109.0725</v>
       </c>
       <c r="J192" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="K192" t="n">
+        <v>46.925</v>
+      </c>
+      <c r="L192" t="n">
         <v>178.485</v>
       </c>
-      <c r="K192" t="n">
+      <c r="M192" t="n">
         <v>14491.73</v>
+      </c>
+      <c r="N192" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="193">
@@ -8737,13 +10449,22 @@
         <v>106.4</v>
       </c>
       <c r="I193" t="n">
-        <v>30.906</v>
+        <v>106.376</v>
       </c>
       <c r="J193" t="n">
+        <v>93.16399999999999</v>
+      </c>
+      <c r="K193" t="n">
+        <v>45.108</v>
+      </c>
+      <c r="L193" t="n">
         <v>185.344</v>
       </c>
-      <c r="K193" t="n">
+      <c r="M193" t="n">
         <v>13906.428</v>
+      </c>
+      <c r="N193" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="194">
@@ -8780,13 +10501,22 @@
         <v>120.2</v>
       </c>
       <c r="I194" t="n">
-        <v>36.062</v>
+        <v>120.526</v>
       </c>
       <c r="J194" t="n">
+        <v>106.508</v>
+      </c>
+      <c r="K194" t="n">
+        <v>52.51000000000001</v>
+      </c>
+      <c r="L194" t="n">
         <v>189.182</v>
       </c>
-      <c r="K194" t="n">
+      <c r="M194" t="n">
         <v>16333.582</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="195">
@@ -8823,13 +10553,22 @@
         <v>135.8</v>
       </c>
       <c r="I195" t="n">
-        <v>36.072</v>
+        <v>135.818</v>
       </c>
       <c r="J195" t="n">
+        <v>116.436</v>
+      </c>
+      <c r="K195" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="L195" t="n">
         <v>150.006</v>
       </c>
-      <c r="K195" t="n">
+      <c r="M195" t="n">
         <v>14418.08</v>
+      </c>
+      <c r="N195" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="196">
@@ -8866,13 +10605,22 @@
         <v>121.2</v>
       </c>
       <c r="I196" t="n">
-        <v>33.58</v>
+        <v>121.13</v>
       </c>
       <c r="J196" t="n">
+        <v>107.518</v>
+      </c>
+      <c r="K196" t="n">
+        <v>49.60600000000001</v>
+      </c>
+      <c r="L196" t="n">
         <v>164.336</v>
       </c>
-      <c r="K196" t="n">
+      <c r="M196" t="n">
         <v>14820.508</v>
+      </c>
+      <c r="N196" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="197">
@@ -8909,13 +10657,22 @@
         <v>126.6</v>
       </c>
       <c r="I197" t="n">
-        <v>35.506</v>
+        <v>126.762</v>
       </c>
       <c r="J197" t="n">
+        <v>111.874</v>
+      </c>
+      <c r="K197" t="n">
+        <v>52.67</v>
+      </c>
+      <c r="L197" t="n">
         <v>169.166</v>
       </c>
-      <c r="K197" t="n">
+      <c r="M197" t="n">
         <v>15348.924</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="198">
@@ -8952,13 +10709,22 @@
         <v>98.59999999999999</v>
       </c>
       <c r="I198" t="n">
-        <v>28.818</v>
+        <v>98.99399999999999</v>
       </c>
       <c r="J198" t="n">
+        <v>88.86600000000001</v>
+      </c>
+      <c r="K198" t="n">
+        <v>42.146</v>
+      </c>
+      <c r="L198" t="n">
         <v>194.466</v>
       </c>
-      <c r="K198" t="n">
+      <c r="M198" t="n">
         <v>12882.174</v>
+      </c>
+      <c r="N198" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="199">
@@ -8995,13 +10761,22 @@
         <v>125.5</v>
       </c>
       <c r="I199" t="n">
-        <v>35.25750000000001</v>
+        <v>125.9275</v>
       </c>
       <c r="J199" t="n">
+        <v>107.1475</v>
+      </c>
+      <c r="K199" t="n">
+        <v>52.005</v>
+      </c>
+      <c r="L199" t="n">
         <v>165.8775</v>
       </c>
-      <c r="K199" t="n">
+      <c r="M199" t="n">
         <v>15299.0675</v>
+      </c>
+      <c r="N199" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="200">
@@ -9038,14 +10813,21 @@
         <v>256.8</v>
       </c>
       <c r="I200" t="n">
-        <v>57.86800000000001</v>
+        <v>256.88</v>
       </c>
       <c r="J200" t="n">
+        <v>239.916</v>
+      </c>
+      <c r="K200" t="n">
+        <v>87.61199999999999</v>
+      </c>
+      <c r="L200" t="n">
         <v>129.958</v>
       </c>
-      <c r="K200" t="n">
+      <c r="M200" t="n">
         <v>20544.272</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9081,13 +10863,22 @@
         <v>283.4</v>
       </c>
       <c r="I201" t="n">
-        <v>83.69800000000001</v>
+        <v>280.56</v>
       </c>
       <c r="J201" t="n">
+        <v>263.794</v>
+      </c>
+      <c r="K201" t="n">
+        <v>124.384</v>
+      </c>
+      <c r="L201" t="n">
         <v>185.224</v>
       </c>
-      <c r="K201" t="n">
+      <c r="M201" t="n">
         <v>34880.332</v>
+      </c>
+      <c r="N201" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="202">
@@ -9124,13 +10915,22 @@
         <v>217.2</v>
       </c>
       <c r="I202" t="n">
-        <v>60.97799999999999</v>
+        <v>216.44</v>
       </c>
       <c r="J202" t="n">
+        <v>193.432</v>
+      </c>
+      <c r="K202" t="n">
+        <v>91.13200000000001</v>
+      </c>
+      <c r="L202" t="n">
         <v>178.868</v>
       </c>
-      <c r="K202" t="n">
+      <c r="M202" t="n">
         <v>25419.98</v>
+      </c>
+      <c r="N202" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="203">
@@ -9167,13 +10967,22 @@
         <v>265.4</v>
       </c>
       <c r="I203" t="n">
-        <v>75.03400000000001</v>
+        <v>265.066</v>
       </c>
       <c r="J203" t="n">
+        <v>247.294</v>
+      </c>
+      <c r="K203" t="n">
+        <v>111.586</v>
+      </c>
+      <c r="L203" t="n">
         <v>176.85</v>
       </c>
-      <c r="K203" t="n">
+      <c r="M203" t="n">
         <v>30825.388</v>
+      </c>
+      <c r="N203" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="204">
@@ -9210,13 +11019,22 @@
         <v>269.2</v>
       </c>
       <c r="I204" t="n">
-        <v>76.65000000000001</v>
+        <v>262.048</v>
       </c>
       <c r="J204" t="n">
+        <v>255.142</v>
+      </c>
+      <c r="K204" t="n">
+        <v>114.478</v>
+      </c>
+      <c r="L204" t="n">
         <v>166.468</v>
       </c>
-      <c r="K204" t="n">
+      <c r="M204" t="n">
         <v>29453.194</v>
+      </c>
+      <c r="N204" t="n">
+        <v>-3.569999999999999</v>
       </c>
     </row>
     <row r="205">
@@ -9253,13 +11071,22 @@
         <v>277</v>
       </c>
       <c r="I205" t="n">
-        <v>74.15599999999999</v>
+        <v>274.322</v>
       </c>
       <c r="J205" t="n">
+        <v>261.308</v>
+      </c>
+      <c r="K205" t="n">
+        <v>110.71</v>
+      </c>
+      <c r="L205" t="n">
         <v>153.018</v>
       </c>
-      <c r="K205" t="n">
+      <c r="M205" t="n">
         <v>28633.92</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="206">
@@ -9296,13 +11123,22 @@
         <v>269.6</v>
       </c>
       <c r="I206" t="n">
-        <v>66.414</v>
+        <v>269.626</v>
       </c>
       <c r="J206" t="n">
+        <v>247.226</v>
+      </c>
+      <c r="K206" t="n">
+        <v>100.13</v>
+      </c>
+      <c r="L206" t="n">
         <v>143.888</v>
       </c>
-      <c r="K206" t="n">
+      <c r="M206" t="n">
         <v>25811.592</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="207">
@@ -9339,13 +11175,22 @@
         <v>259.2</v>
       </c>
       <c r="I207" t="n">
-        <v>64.22999999999999</v>
+        <v>259.0939999999999</v>
       </c>
       <c r="J207" t="n">
+        <v>240.786</v>
+      </c>
+      <c r="K207" t="n">
+        <v>96.55999999999999</v>
+      </c>
+      <c r="L207" t="n">
         <v>143.558</v>
       </c>
-      <c r="K207" t="n">
+      <c r="M207" t="n">
         <v>25054.396</v>
+      </c>
+      <c r="N207" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="208">
@@ -9382,13 +11227,22 @@
         <v>276.2</v>
       </c>
       <c r="I208" t="n">
-        <v>67.316</v>
+        <v>275.4639999999999</v>
       </c>
       <c r="J208" t="n">
+        <v>262.1180000000001</v>
+      </c>
+      <c r="K208" t="n">
+        <v>101.53</v>
+      </c>
+      <c r="L208" t="n">
         <v>125.806</v>
       </c>
-      <c r="K208" t="n">
+      <c r="M208" t="n">
         <v>23930.76</v>
+      </c>
+      <c r="N208" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="209">
@@ -9425,13 +11279,22 @@
         <v>276.75</v>
       </c>
       <c r="I209" t="n">
-        <v>74.545</v>
+        <v>277.255</v>
       </c>
       <c r="J209" t="n">
+        <v>259.23</v>
+      </c>
+      <c r="K209" t="n">
+        <v>111.03</v>
+      </c>
+      <c r="L209" t="n">
         <v>141.445</v>
       </c>
-      <c r="K209" t="n">
+      <c r="M209" t="n">
         <v>31901.815</v>
+      </c>
+      <c r="N209" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="210">
@@ -9468,13 +11331,22 @@
         <v>269</v>
       </c>
       <c r="I210" t="n">
-        <v>82.41499999999999</v>
+        <v>261.6625</v>
       </c>
       <c r="J210" t="n">
+        <v>245.0625</v>
+      </c>
+      <c r="K210" t="n">
+        <v>121.8325</v>
+      </c>
+      <c r="L210" t="n">
         <v>203.6425</v>
       </c>
-      <c r="K210" t="n">
+      <c r="M210" t="n">
         <v>33727.0425</v>
+      </c>
+      <c r="N210" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="211">
@@ -9511,13 +11383,22 @@
         <v>203.4</v>
       </c>
       <c r="I211" t="n">
-        <v>50.912</v>
+        <v>203.292</v>
       </c>
       <c r="J211" t="n">
+        <v>180.02</v>
+      </c>
+      <c r="K211" t="n">
+        <v>76.55</v>
+      </c>
+      <c r="L211" t="n">
         <v>138.718</v>
       </c>
-      <c r="K211" t="n">
+      <c r="M211" t="n">
         <v>19639.294</v>
+      </c>
+      <c r="N211" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="212">
@@ -9554,13 +11435,22 @@
         <v>210.4</v>
       </c>
       <c r="I212" t="n">
-        <v>59.436</v>
+        <v>210.736</v>
       </c>
       <c r="J212" t="n">
+        <v>193.768</v>
+      </c>
+      <c r="K212" t="n">
+        <v>88.83400000000002</v>
+      </c>
+      <c r="L212" t="n">
         <v>167.662</v>
       </c>
-      <c r="K212" t="n">
+      <c r="M212" t="n">
         <v>25435.552</v>
+      </c>
+      <c r="N212" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="213">
@@ -9597,13 +11487,22 @@
         <v>225</v>
       </c>
       <c r="I213" t="n">
-        <v>62.84000000000001</v>
+        <v>224.956</v>
       </c>
       <c r="J213" t="n">
+        <v>198.398</v>
+      </c>
+      <c r="K213" t="n">
+        <v>93.502</v>
+      </c>
+      <c r="L213" t="n">
         <v>175.884</v>
       </c>
-      <c r="K213" t="n">
+      <c r="M213" t="n">
         <v>26767.248</v>
+      </c>
+      <c r="N213" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="214">
@@ -9640,13 +11539,22 @@
         <v>241.5</v>
       </c>
       <c r="I214" t="n">
-        <v>64.41</v>
+        <v>241.625</v>
       </c>
       <c r="J214" t="n">
+        <v>222.5125</v>
+      </c>
+      <c r="K214" t="n">
+        <v>96.095</v>
+      </c>
+      <c r="L214" t="n">
         <v>150.79</v>
       </c>
-      <c r="K214" t="n">
+      <c r="M214" t="n">
         <v>26434.4</v>
+      </c>
+      <c r="N214" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="215">
@@ -9683,13 +11591,22 @@
         <v>273.3333333333333</v>
       </c>
       <c r="I215" t="n">
-        <v>73.92999999999999</v>
+        <v>273.6466666666667</v>
       </c>
       <c r="J215" t="n">
+        <v>241.01</v>
+      </c>
+      <c r="K215" t="n">
+        <v>110.1766666666667</v>
+      </c>
+      <c r="L215" t="n">
         <v>160.8766666666667</v>
       </c>
-      <c r="K215" t="n">
+      <c r="M215" t="n">
         <v>30898.52333333333</v>
+      </c>
+      <c r="N215" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -9726,13 +11643,22 @@
         <v>253</v>
       </c>
       <c r="I216" t="n">
-        <v>67.53400000000001</v>
+        <v>253.328</v>
       </c>
       <c r="J216" t="n">
+        <v>227.644</v>
+      </c>
+      <c r="K216" t="n">
+        <v>101.058</v>
+      </c>
+      <c r="L216" t="n">
         <v>167.468</v>
       </c>
-      <c r="K216" t="n">
+      <c r="M216" t="n">
         <v>27629.686</v>
+      </c>
+      <c r="N216" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="217">
@@ -9769,13 +11695,22 @@
         <v>240.8</v>
       </c>
       <c r="I217" t="n">
-        <v>66.904</v>
+        <v>240.784</v>
       </c>
       <c r="J217" t="n">
+        <v>214.496</v>
+      </c>
+      <c r="K217" t="n">
+        <v>99.402</v>
+      </c>
+      <c r="L217" t="n">
         <v>177.872</v>
       </c>
-      <c r="K217" t="n">
+      <c r="M217" t="n">
         <v>28403.252</v>
+      </c>
+      <c r="N217" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -9812,14 +11747,21 @@
         <v>62.2</v>
       </c>
       <c r="I218" t="n">
-        <v>17</v>
+        <v>62.04</v>
       </c>
       <c r="J218" t="n">
+        <v>59.69199999999999</v>
+      </c>
+      <c r="K218" t="n">
+        <v>24.686</v>
+      </c>
+      <c r="L218" t="n">
         <v>207.93</v>
       </c>
-      <c r="K218" t="n">
+      <c r="M218" t="n">
         <v>7508.476</v>
       </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9855,13 +11797,22 @@
         <v>78.2</v>
       </c>
       <c r="I219" t="n">
-        <v>21.764</v>
+        <v>78.53999999999999</v>
       </c>
       <c r="J219" t="n">
+        <v>73.10599999999999</v>
+      </c>
+      <c r="K219" t="n">
+        <v>31.616</v>
+      </c>
+      <c r="L219" t="n">
         <v>173.442</v>
       </c>
-      <c r="K219" t="n">
+      <c r="M219" t="n">
         <v>9760.865999999998</v>
+      </c>
+      <c r="N219" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="220">
@@ -9898,13 +11849,22 @@
         <v>61.6</v>
       </c>
       <c r="I220" t="n">
-        <v>17.628</v>
+        <v>62.04200000000001</v>
       </c>
       <c r="J220" t="n">
+        <v>54.194</v>
+      </c>
+      <c r="K220" t="n">
+        <v>25.642</v>
+      </c>
+      <c r="L220" t="n">
         <v>207.828</v>
       </c>
-      <c r="K220" t="n">
+      <c r="M220" t="n">
         <v>8011.516000000001</v>
+      </c>
+      <c r="N220" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="221">
@@ -9941,13 +11901,22 @@
         <v>70.59999999999999</v>
       </c>
       <c r="I221" t="n">
-        <v>20.744</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="J221" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="K221" t="n">
+        <v>30.168</v>
+      </c>
+      <c r="L221" t="n">
         <v>187.768</v>
       </c>
-      <c r="K221" t="n">
+      <c r="M221" t="n">
         <v>9466.734</v>
+      </c>
+      <c r="N221" t="n">
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="222">
@@ -9984,13 +11953,22 @@
         <v>95</v>
       </c>
       <c r="I222" t="n">
-        <v>28.91</v>
+        <v>95.49250000000001</v>
       </c>
       <c r="J222" t="n">
+        <v>86.44</v>
+      </c>
+      <c r="K222" t="n">
+        <v>41.6975</v>
+      </c>
+      <c r="L222" t="n">
         <v>211.455</v>
       </c>
-      <c r="K222" t="n">
+      <c r="M222" t="n">
         <v>13521.965</v>
+      </c>
+      <c r="N222" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="223">
@@ -10027,13 +12005,22 @@
         <v>88.25</v>
       </c>
       <c r="I223" t="n">
-        <v>26.5975</v>
+        <v>88.03</v>
       </c>
       <c r="J223" t="n">
+        <v>79.0625</v>
+      </c>
+      <c r="K223" t="n">
+        <v>38.7125</v>
+      </c>
+      <c r="L223" t="n">
         <v>198.1225</v>
       </c>
-      <c r="K223" t="n">
+      <c r="M223" t="n">
         <v>11582.3675</v>
+      </c>
+      <c r="N223" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="224">
@@ -10070,13 +12057,22 @@
         <v>82.2</v>
       </c>
       <c r="I224" t="n">
-        <v>24.574</v>
+        <v>82.76599999999999</v>
       </c>
       <c r="J224" t="n">
+        <v>73.376</v>
+      </c>
+      <c r="K224" t="n">
+        <v>35.366</v>
+      </c>
+      <c r="L224" t="n">
         <v>235.574</v>
       </c>
-      <c r="K224" t="n">
+      <c r="M224" t="n">
         <v>11430.696</v>
+      </c>
+      <c r="N224" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="225">
@@ -10113,13 +12109,22 @@
         <v>83.8</v>
       </c>
       <c r="I225" t="n">
-        <v>24.428</v>
+        <v>84.03599999999999</v>
       </c>
       <c r="J225" t="n">
+        <v>76.19199999999998</v>
+      </c>
+      <c r="K225" t="n">
+        <v>35.53400000000001</v>
+      </c>
+      <c r="L225" t="n">
         <v>193.956</v>
       </c>
-      <c r="K225" t="n">
+      <c r="M225" t="n">
         <v>11115.674</v>
+      </c>
+      <c r="N225" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="226">
@@ -10156,13 +12161,22 @@
         <v>79.75</v>
       </c>
       <c r="I226" t="n">
-        <v>23.8925</v>
+        <v>80.23</v>
       </c>
       <c r="J226" t="n">
+        <v>67.32249999999999</v>
+      </c>
+      <c r="K226" t="n">
+        <v>34.4775</v>
+      </c>
+      <c r="L226" t="n">
         <v>193.9775</v>
       </c>
-      <c r="K226" t="n">
+      <c r="M226" t="n">
         <v>11116.17</v>
+      </c>
+      <c r="N226" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="227">
@@ -10199,13 +12213,22 @@
         <v>47</v>
       </c>
       <c r="I227" t="n">
-        <v>13.665</v>
+        <v>47.11749999999999</v>
       </c>
       <c r="J227" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="K227" t="n">
+        <v>19.7775</v>
+      </c>
+      <c r="L227" t="n">
         <v>257.935</v>
       </c>
-      <c r="K227" t="n">
+      <c r="M227" t="n">
         <v>6319.485</v>
+      </c>
+      <c r="N227" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="228">
@@ -10242,13 +12265,22 @@
         <v>61.6</v>
       </c>
       <c r="I228" t="n">
-        <v>17.714</v>
+        <v>61.638</v>
       </c>
       <c r="J228" t="n">
+        <v>53.45800000000001</v>
+      </c>
+      <c r="K228" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="L228" t="n">
         <v>187.51</v>
       </c>
-      <c r="K228" t="n">
+      <c r="M228" t="n">
         <v>8208.683999999999</v>
+      </c>
+      <c r="N228" t="n">
+        <v>19.21</v>
       </c>
     </row>
     <row r="229">
@@ -10285,13 +12317,22 @@
         <v>65.59999999999999</v>
       </c>
       <c r="I229" t="n">
-        <v>18.134</v>
+        <v>65.79599999999999</v>
       </c>
       <c r="J229" t="n">
+        <v>59.424</v>
+      </c>
+      <c r="K229" t="n">
+        <v>26.474</v>
+      </c>
+      <c r="L229" t="n">
         <v>208.228</v>
       </c>
-      <c r="K229" t="n">
+      <c r="M229" t="n">
         <v>8116.81</v>
+      </c>
+      <c r="N229" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="230">
@@ -10319,22 +12360,31 @@
         <v>9.6</v>
       </c>
       <c r="F230" t="n">
-        <v>53.6</v>
+        <v>36.8</v>
       </c>
       <c r="G230" t="n">
-        <v>44</v>
+        <v>27.2</v>
       </c>
       <c r="H230" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="I230" t="n">
-        <v>12.908</v>
+        <v>42.522</v>
       </c>
       <c r="J230" t="n">
-        <v>198.182</v>
+        <v>39.372</v>
       </c>
       <c r="K230" t="n">
-        <v>5897.505999999999</v>
+        <v>18.296</v>
+      </c>
+      <c r="L230" t="n">
+        <v>295.072</v>
+      </c>
+      <c r="M230" t="n">
+        <v>6129.708000000001</v>
+      </c>
+      <c r="N230" t="n">
+        <v>26.99</v>
       </c>
     </row>
     <row r="231">
@@ -10371,13 +12421,22 @@
         <v>58.6</v>
       </c>
       <c r="I231" t="n">
-        <v>16.322</v>
+        <v>58.95399999999999</v>
       </c>
       <c r="J231" t="n">
+        <v>51.44199999999999</v>
+      </c>
+      <c r="K231" t="n">
+        <v>23.752</v>
+      </c>
+      <c r="L231" t="n">
         <v>173.546</v>
       </c>
-      <c r="K231" t="n">
+      <c r="M231" t="n">
         <v>7382.844</v>
+      </c>
+      <c r="N231" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="232">
@@ -10414,13 +12473,22 @@
         <v>64.2</v>
       </c>
       <c r="I232" t="n">
-        <v>18.048</v>
+        <v>64.25399999999999</v>
       </c>
       <c r="J232" t="n">
+        <v>57.88199999999999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="L232" t="n">
         <v>181.104</v>
       </c>
-      <c r="K232" t="n">
+      <c r="M232" t="n">
         <v>8258.621999999999</v>
+      </c>
+      <c r="N232" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="233">
@@ -10457,13 +12525,22 @@
         <v>49.4</v>
       </c>
       <c r="I233" t="n">
-        <v>13.856</v>
+        <v>49.496</v>
       </c>
       <c r="J233" t="n">
+        <v>43.794</v>
+      </c>
+      <c r="K233" t="n">
+        <v>20.136</v>
+      </c>
+      <c r="L233" t="n">
         <v>189.51</v>
       </c>
-      <c r="K233" t="n">
+      <c r="M233" t="n">
         <v>6283.976000000001</v>
+      </c>
+      <c r="N233" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="234">
@@ -10500,13 +12577,22 @@
         <v>52.6</v>
       </c>
       <c r="I234" t="n">
-        <v>15.29</v>
+        <v>53.12</v>
       </c>
       <c r="J234" t="n">
+        <v>46.748</v>
+      </c>
+      <c r="K234" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="L234" t="n">
         <v>195.742</v>
       </c>
-      <c r="K234" t="n">
+      <c r="M234" t="n">
         <v>6949.67</v>
+      </c>
+      <c r="N234" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="235">
@@ -10543,13 +12629,22 @@
         <v>87</v>
       </c>
       <c r="I235" t="n">
-        <v>24.845</v>
+        <v>87.3575</v>
       </c>
       <c r="J235" t="n">
+        <v>79.89999999999999</v>
+      </c>
+      <c r="K235" t="n">
+        <v>36.3175</v>
+      </c>
+      <c r="L235" t="n">
         <v>183.5275</v>
       </c>
-      <c r="K235" t="n">
+      <c r="M235" t="n">
         <v>11086.2375</v>
+      </c>
+      <c r="N235" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="236">
@@ -10586,14 +12681,21 @@
         <v>196</v>
       </c>
       <c r="I236" t="n">
-        <v>55.774</v>
+        <v>194.37</v>
       </c>
       <c r="J236" t="n">
+        <v>173.584</v>
+      </c>
+      <c r="K236" t="n">
+        <v>83.57599999999999</v>
+      </c>
+      <c r="L236" t="n">
         <v>173.406</v>
       </c>
-      <c r="K236" t="n">
+      <c r="M236" t="n">
         <v>22309.752</v>
       </c>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10629,13 +12731,22 @@
         <v>206.5</v>
       </c>
       <c r="I237" t="n">
-        <v>55.2075</v>
+        <v>206.83</v>
       </c>
       <c r="J237" t="n">
+        <v>187.9725</v>
+      </c>
+      <c r="K237" t="n">
+        <v>84.11499999999999</v>
+      </c>
+      <c r="L237" t="n">
         <v>137.35</v>
       </c>
-      <c r="K237" t="n">
+      <c r="M237" t="n">
         <v>21171.965</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="238">
@@ -10672,13 +12783,22 @@
         <v>145.2</v>
       </c>
       <c r="I238" t="n">
-        <v>39.826</v>
+        <v>145.408</v>
       </c>
       <c r="J238" t="n">
+        <v>129.042</v>
+      </c>
+      <c r="K238" t="n">
+        <v>59.91400000000001</v>
+      </c>
+      <c r="L238" t="n">
         <v>189.594</v>
       </c>
-      <c r="K238" t="n">
+      <c r="M238" t="n">
         <v>16284.066</v>
+      </c>
+      <c r="N238" t="n">
+        <v>30.27</v>
       </c>
     </row>
     <row r="239">
@@ -10715,13 +12835,22 @@
         <v>201</v>
       </c>
       <c r="I239" t="n">
-        <v>54.34200000000001</v>
+        <v>201.612</v>
       </c>
       <c r="J239" t="n">
+        <v>178.142</v>
+      </c>
+      <c r="K239" t="n">
+        <v>82.33399999999999</v>
+      </c>
+      <c r="L239" t="n">
         <v>138.458</v>
       </c>
-      <c r="K239" t="n">
+      <c r="M239" t="n">
         <v>22127.42</v>
+      </c>
+      <c r="N239" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="240">
@@ -10758,13 +12887,22 @@
         <v>193.8</v>
       </c>
       <c r="I240" t="n">
-        <v>53.35</v>
+        <v>194.04</v>
       </c>
       <c r="J240" t="n">
+        <v>177.404</v>
+      </c>
+      <c r="K240" t="n">
+        <v>80.21000000000001</v>
+      </c>
+      <c r="L240" t="n">
         <v>183.122</v>
       </c>
-      <c r="K240" t="n">
+      <c r="M240" t="n">
         <v>21778.136</v>
+      </c>
+      <c r="N240" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="241">
@@ -10801,13 +12939,22 @@
         <v>175.8</v>
       </c>
       <c r="I241" t="n">
-        <v>48.28</v>
+        <v>172.172</v>
       </c>
       <c r="J241" t="n">
+        <v>163.654</v>
+      </c>
+      <c r="K241" t="n">
+        <v>73.02200000000002</v>
+      </c>
+      <c r="L241" t="n">
         <v>157.294</v>
       </c>
-      <c r="K241" t="n">
+      <c r="M241" t="n">
         <v>18619.062</v>
+      </c>
+      <c r="N241" t="n">
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="242">
@@ -10844,13 +12991,22 @@
         <v>175.6</v>
       </c>
       <c r="I242" t="n">
-        <v>47.302</v>
+        <v>176.064</v>
       </c>
       <c r="J242" t="n">
+        <v>163.324</v>
+      </c>
+      <c r="K242" t="n">
+        <v>71.90600000000001</v>
+      </c>
+      <c r="L242" t="n">
         <v>144.648</v>
       </c>
-      <c r="K242" t="n">
+      <c r="M242" t="n">
         <v>18591.33</v>
+      </c>
+      <c r="N242" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="243">
@@ -10887,13 +13043,22 @@
         <v>194.75</v>
       </c>
       <c r="I243" t="n">
-        <v>58.47499999999999</v>
+        <v>195.0075</v>
       </c>
       <c r="J243" t="n">
+        <v>185.45</v>
+      </c>
+      <c r="K243" t="n">
+        <v>87.5025</v>
+      </c>
+      <c r="L243" t="n">
         <v>195.225</v>
       </c>
-      <c r="K243" t="n">
+      <c r="M243" t="n">
         <v>24534.6525</v>
+      </c>
+      <c r="N243" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="244">
@@ -10930,13 +13095,22 @@
         <v>176.8</v>
       </c>
       <c r="I244" t="n">
-        <v>46.63</v>
+        <v>177.202</v>
       </c>
       <c r="J244" t="n">
+        <v>159.162</v>
+      </c>
+      <c r="K244" t="n">
+        <v>71.026</v>
+      </c>
+      <c r="L244" t="n">
         <v>142.07</v>
       </c>
-      <c r="K244" t="n">
+      <c r="M244" t="n">
         <v>18065.748</v>
+      </c>
+      <c r="N244" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="245">
@@ -10973,13 +13147,22 @@
         <v>190.8</v>
       </c>
       <c r="I245" t="n">
-        <v>52.566</v>
+        <v>190.882</v>
       </c>
       <c r="J245" t="n">
+        <v>167.882</v>
+      </c>
+      <c r="K245" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="L245" t="n">
         <v>164.66</v>
       </c>
-      <c r="K245" t="n">
+      <c r="M245" t="n">
         <v>21380.694</v>
+      </c>
+      <c r="N245" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="246">
@@ -11016,13 +13199,22 @@
         <v>186.4</v>
       </c>
       <c r="I246" t="n">
-        <v>47.854</v>
+        <v>186.524</v>
       </c>
       <c r="J246" t="n">
+        <v>160.702</v>
+      </c>
+      <c r="K246" t="n">
+        <v>72.98800000000001</v>
+      </c>
+      <c r="L246" t="n">
         <v>129.506</v>
       </c>
-      <c r="K246" t="n">
+      <c r="M246" t="n">
         <v>18499.734</v>
+      </c>
+      <c r="N246" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="247">
@@ -11059,13 +13251,22 @@
         <v>179.6</v>
       </c>
       <c r="I247" t="n">
-        <v>48.172</v>
+        <v>179.884</v>
       </c>
       <c r="J247" t="n">
+        <v>156.48</v>
+      </c>
+      <c r="K247" t="n">
+        <v>72.702</v>
+      </c>
+      <c r="L247" t="n">
         <v>165.788</v>
       </c>
-      <c r="K247" t="n">
+      <c r="M247" t="n">
         <v>19268.512</v>
+      </c>
+      <c r="N247" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="248">
@@ -11102,13 +13303,22 @@
         <v>197</v>
       </c>
       <c r="I248" t="n">
-        <v>54.038</v>
+        <v>196.988</v>
       </c>
       <c r="J248" t="n">
+        <v>171.104</v>
+      </c>
+      <c r="K248" t="n">
+        <v>81.374</v>
+      </c>
+      <c r="L248" t="n">
         <v>165.238</v>
       </c>
-      <c r="K248" t="n">
+      <c r="M248" t="n">
         <v>22078.24</v>
+      </c>
+      <c r="N248" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="249">
@@ -11145,13 +13355,22 @@
         <v>189.6</v>
       </c>
       <c r="I249" t="n">
-        <v>50.548</v>
+        <v>190.078</v>
       </c>
       <c r="J249" t="n">
+        <v>170.83</v>
+      </c>
+      <c r="K249" t="n">
+        <v>76.746</v>
+      </c>
+      <c r="L249" t="n">
         <v>158.67</v>
       </c>
-      <c r="K249" t="n">
+      <c r="M249" t="n">
         <v>19636.594</v>
+      </c>
+      <c r="N249" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="250">
@@ -11188,13 +13407,22 @@
         <v>188.8</v>
       </c>
       <c r="I250" t="n">
-        <v>50.35600000000001</v>
+        <v>189.208</v>
       </c>
       <c r="J250" t="n">
+        <v>162.582</v>
+      </c>
+      <c r="K250" t="n">
+        <v>76.03999999999999</v>
+      </c>
+      <c r="L250" t="n">
         <v>150.406</v>
       </c>
-      <c r="K250" t="n">
+      <c r="M250" t="n">
         <v>20073.39</v>
+      </c>
+      <c r="N250" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="251">
@@ -11231,13 +13459,22 @@
         <v>181.2</v>
       </c>
       <c r="I251" t="n">
-        <v>50.366</v>
+        <v>181.628</v>
       </c>
       <c r="J251" t="n">
+        <v>164.528</v>
+      </c>
+      <c r="K251" t="n">
+        <v>75.39599999999999</v>
+      </c>
+      <c r="L251" t="n">
         <v>172.938</v>
       </c>
-      <c r="K251" t="n">
+      <c r="M251" t="n">
         <v>20881.026</v>
+      </c>
+      <c r="N251" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="252">
@@ -11274,13 +13511,22 @@
         <v>176.4</v>
       </c>
       <c r="I252" t="n">
-        <v>49.002</v>
+        <v>176.864</v>
       </c>
       <c r="J252" t="n">
+        <v>150.71</v>
+      </c>
+      <c r="K252" t="n">
+        <v>73.892</v>
+      </c>
+      <c r="L252" t="n">
         <v>167.642</v>
       </c>
-      <c r="K252" t="n">
+      <c r="M252" t="n">
         <v>19912.986</v>
+      </c>
+      <c r="N252" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="253">
@@ -11317,13 +13563,22 @@
         <v>187.2</v>
       </c>
       <c r="I253" t="n">
-        <v>51.126</v>
+        <v>187.734</v>
       </c>
       <c r="J253" t="n">
+        <v>162.38</v>
+      </c>
+      <c r="K253" t="n">
+        <v>77.04600000000001</v>
+      </c>
+      <c r="L253" t="n">
         <v>152.44</v>
       </c>
-      <c r="K253" t="n">
+      <c r="M253" t="n">
         <v>20698.95</v>
+      </c>
+      <c r="N253" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="254">
@@ -11360,14 +13615,21 @@
         <v>163.5</v>
       </c>
       <c r="I254" t="n">
-        <v>31.235</v>
+        <v>163.9875</v>
       </c>
       <c r="J254" t="n">
+        <v>143.7825</v>
+      </c>
+      <c r="K254" t="n">
+        <v>48.3475</v>
+      </c>
+      <c r="L254" t="n">
         <v>43.2825</v>
       </c>
-      <c r="K254" t="n">
+      <c r="M254" t="n">
         <v>8622.7425</v>
       </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11403,13 +13665,22 @@
         <v>146</v>
       </c>
       <c r="I255" t="n">
-        <v>32.194</v>
+        <v>146.144</v>
       </c>
       <c r="J255" t="n">
+        <v>139.508</v>
+      </c>
+      <c r="K255" t="n">
+        <v>49.104</v>
+      </c>
+      <c r="L255" t="n">
         <v>73.95400000000001</v>
       </c>
-      <c r="K255" t="n">
+      <c r="M255" t="n">
         <v>11441.066</v>
+      </c>
+      <c r="N255" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="256">
@@ -11446,13 +13717,22 @@
         <v>117.5</v>
       </c>
       <c r="I256" t="n">
-        <v>25.44</v>
+        <v>117.71</v>
       </c>
       <c r="J256" t="n">
+        <v>105.22</v>
+      </c>
+      <c r="K256" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="L256" t="n">
         <v>98.35499999999999</v>
       </c>
-      <c r="K256" t="n">
+      <c r="M256" t="n">
         <v>9275.190000000001</v>
+      </c>
+      <c r="N256" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="257">
@@ -11489,13 +13769,22 @@
         <v>178</v>
       </c>
       <c r="I257" t="n">
-        <v>35.618</v>
+        <v>178.074</v>
       </c>
       <c r="J257" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="K257" t="n">
+        <v>55.038</v>
+      </c>
+      <c r="L257" t="n">
         <v>62.59400000000001</v>
       </c>
-      <c r="K257" t="n">
+      <c r="M257" t="n">
         <v>10495.882</v>
+      </c>
+      <c r="N257" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="258">
@@ -11532,13 +13821,22 @@
         <v>174.8</v>
       </c>
       <c r="I258" t="n">
-        <v>33.684</v>
+        <v>175.19</v>
       </c>
       <c r="J258" t="n">
+        <v>162.114</v>
+      </c>
+      <c r="K258" t="n">
+        <v>52.064</v>
+      </c>
+      <c r="L258" t="n">
         <v>36.75</v>
       </c>
-      <c r="K258" t="n">
+      <c r="M258" t="n">
         <v>9834.66</v>
+      </c>
+      <c r="N258" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="259">
@@ -11575,13 +13873,22 @@
         <v>142.6</v>
       </c>
       <c r="I259" t="n">
-        <v>28.25</v>
+        <v>142.86</v>
       </c>
       <c r="J259" t="n">
+        <v>132.598</v>
+      </c>
+      <c r="K259" t="n">
+        <v>43.646</v>
+      </c>
+      <c r="L259" t="n">
         <v>80.83799999999999</v>
       </c>
-      <c r="K259" t="n">
+      <c r="M259" t="n">
         <v>8632.639999999999</v>
+      </c>
+      <c r="N259" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="260">
@@ -11618,13 +13925,22 @@
         <v>162.4</v>
       </c>
       <c r="I260" t="n">
-        <v>30.846</v>
+        <v>162.648</v>
       </c>
       <c r="J260" t="n">
+        <v>152.386</v>
+      </c>
+      <c r="K260" t="n">
+        <v>47.832</v>
+      </c>
+      <c r="L260" t="n">
         <v>43.9</v>
       </c>
-      <c r="K260" t="n">
+      <c r="M260" t="n">
         <v>8088.418</v>
+      </c>
+      <c r="N260" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="261">
@@ -11661,13 +13977,22 @@
         <v>161.2</v>
       </c>
       <c r="I261" t="n">
-        <v>31.09</v>
+        <v>161.708</v>
       </c>
       <c r="J261" t="n">
+        <v>147.892</v>
+      </c>
+      <c r="K261" t="n">
+        <v>48.098</v>
+      </c>
+      <c r="L261" t="n">
         <v>42.48399999999999</v>
       </c>
-      <c r="K261" t="n">
+      <c r="M261" t="n">
         <v>9256.202000000001</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="262">
@@ -11704,13 +14029,22 @@
         <v>131.4</v>
       </c>
       <c r="I262" t="n">
-        <v>26.544</v>
+        <v>131.32</v>
       </c>
       <c r="J262" t="n">
+        <v>118.848</v>
+      </c>
+      <c r="K262" t="n">
+        <v>40.484</v>
+      </c>
+      <c r="L262" t="n">
         <v>94.372</v>
       </c>
-      <c r="K262" t="n">
+      <c r="M262" t="n">
         <v>8541.85</v>
+      </c>
+      <c r="N262" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="263">
@@ -11747,13 +14081,22 @@
         <v>162</v>
       </c>
       <c r="I263" t="n">
-        <v>32.362</v>
+        <v>162.246</v>
       </c>
       <c r="J263" t="n">
+        <v>145.076</v>
+      </c>
+      <c r="K263" t="n">
+        <v>49.886</v>
+      </c>
+      <c r="L263" t="n">
         <v>47.912</v>
       </c>
-      <c r="K263" t="n">
+      <c r="M263" t="n">
         <v>9900.859999999999</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="264">
@@ -11790,13 +14133,22 @@
         <v>139.4</v>
       </c>
       <c r="I264" t="n">
-        <v>28.25</v>
+        <v>139.172</v>
       </c>
       <c r="J264" t="n">
+        <v>133.47</v>
+      </c>
+      <c r="K264" t="n">
+        <v>43.222</v>
+      </c>
+      <c r="L264" t="n">
         <v>59.98</v>
       </c>
-      <c r="K264" t="n">
+      <c r="M264" t="n">
         <v>9584.866</v>
+      </c>
+      <c r="N264" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="265">
@@ -11833,13 +14185,22 @@
         <v>153.8</v>
       </c>
       <c r="I265" t="n">
-        <v>29.788</v>
+        <v>154.332</v>
       </c>
       <c r="J265" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="K265" t="n">
+        <v>45.95400000000001</v>
+      </c>
+      <c r="L265" t="n">
         <v>47.444</v>
       </c>
-      <c r="K265" t="n">
+      <c r="M265" t="n">
         <v>8919.77</v>
+      </c>
+      <c r="N265" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="266">
@@ -11876,13 +14237,22 @@
         <v>139</v>
       </c>
       <c r="I266" t="n">
-        <v>27.414</v>
+        <v>139.104</v>
       </c>
       <c r="J266" t="n">
+        <v>133.34</v>
+      </c>
+      <c r="K266" t="n">
+        <v>42.118</v>
+      </c>
+      <c r="L266" t="n">
         <v>63.50599999999999</v>
       </c>
-      <c r="K266" t="n">
+      <c r="M266" t="n">
         <v>8432.23</v>
+      </c>
+      <c r="N266" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="267">
@@ -11919,13 +14289,22 @@
         <v>160.75</v>
       </c>
       <c r="I267" t="n">
-        <v>32.295</v>
+        <v>161.2225</v>
       </c>
       <c r="J267" t="n">
+        <v>150.0725</v>
+      </c>
+      <c r="K267" t="n">
+        <v>50.0275</v>
+      </c>
+      <c r="L267" t="n">
         <v>46.4875</v>
       </c>
-      <c r="K267" t="n">
+      <c r="M267" t="n">
         <v>9287.262500000001</v>
+      </c>
+      <c r="N267" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="268">
@@ -11962,13 +14341,22 @@
         <v>120.4</v>
       </c>
       <c r="I268" t="n">
-        <v>24.688</v>
+        <v>120.256</v>
       </c>
       <c r="J268" t="n">
+        <v>112.408</v>
+      </c>
+      <c r="K268" t="n">
+        <v>37.688</v>
+      </c>
+      <c r="L268" t="n">
         <v>68.292</v>
       </c>
-      <c r="K268" t="n">
+      <c r="M268" t="n">
         <v>8533.712</v>
+      </c>
+      <c r="N268" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="269">
@@ -12005,13 +14393,22 @@
         <v>157.8</v>
       </c>
       <c r="I269" t="n">
-        <v>30.97</v>
+        <v>158.084</v>
       </c>
       <c r="J269" t="n">
+        <v>154.666</v>
+      </c>
+      <c r="K269" t="n">
+        <v>47.642</v>
+      </c>
+      <c r="L269" t="n">
         <v>46.326</v>
       </c>
-      <c r="K269" t="n">
+      <c r="M269" t="n">
         <v>9141.74</v>
+      </c>
+      <c r="N269" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="270">
@@ -12048,13 +14445,22 @@
         <v>173.5</v>
       </c>
       <c r="I270" t="n">
-        <v>35.2125</v>
+        <v>173.6325</v>
       </c>
       <c r="J270" t="n">
+        <v>161.8125</v>
+      </c>
+      <c r="K270" t="n">
+        <v>53.94750000000001</v>
+      </c>
+      <c r="L270" t="n">
         <v>58.39</v>
       </c>
-      <c r="K270" t="n">
+      <c r="M270" t="n">
         <v>11952.4675</v>
+      </c>
+      <c r="N270" t="n">
+        <v>7.16</v>
       </c>
     </row>
     <row r="271">
@@ -12091,13 +14497,22 @@
         <v>143.2</v>
       </c>
       <c r="I271" t="n">
-        <v>27.478</v>
+        <v>143.328</v>
       </c>
       <c r="J271" t="n">
+        <v>128.774</v>
+      </c>
+      <c r="K271" t="n">
+        <v>42.476</v>
+      </c>
+      <c r="L271" t="n">
         <v>64.78399999999999</v>
       </c>
-      <c r="K271" t="n">
+      <c r="M271" t="n">
         <v>7692.992000000001</v>
+      </c>
+      <c r="N271" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="272">
@@ -12134,14 +14549,21 @@
         <v>131</v>
       </c>
       <c r="I272" t="n">
-        <v>34.856</v>
+        <v>131.258</v>
       </c>
       <c r="J272" t="n">
+        <v>120.862</v>
+      </c>
+      <c r="K272" t="n">
+        <v>53.74799999999999</v>
+      </c>
+      <c r="L272" t="n">
         <v>137.518</v>
       </c>
-      <c r="K272" t="n">
+      <c r="M272" t="n">
         <v>12783.242</v>
       </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12177,13 +14599,22 @@
         <v>121.4</v>
       </c>
       <c r="I273" t="n">
-        <v>30.168</v>
+        <v>121.866</v>
       </c>
       <c r="J273" t="n">
+        <v>109.39</v>
+      </c>
+      <c r="K273" t="n">
+        <v>46.66</v>
+      </c>
+      <c r="L273" t="n">
         <v>125.908</v>
       </c>
-      <c r="K273" t="n">
+      <c r="M273" t="n">
         <v>10681.948</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="274">
@@ -12220,13 +14651,22 @@
         <v>91</v>
       </c>
       <c r="I274" t="n">
-        <v>21.668</v>
+        <v>90.946</v>
       </c>
       <c r="J274" t="n">
+        <v>84.77799999999999</v>
+      </c>
+      <c r="K274" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="L274" t="n">
         <v>123.762</v>
       </c>
-      <c r="K274" t="n">
+      <c r="M274" t="n">
         <v>7731.460000000001</v>
+      </c>
+      <c r="N274" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="275">
@@ -12263,13 +14703,22 @@
         <v>126.8</v>
       </c>
       <c r="I275" t="n">
-        <v>31.696</v>
+        <v>127.232</v>
       </c>
       <c r="J275" t="n">
+        <v>114.422</v>
+      </c>
+      <c r="K275" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="L275" t="n">
         <v>115.724</v>
       </c>
-      <c r="K275" t="n">
+      <c r="M275" t="n">
         <v>11017.802</v>
+      </c>
+      <c r="N275" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="276">
@@ -12306,13 +14755,22 @@
         <v>122.2</v>
       </c>
       <c r="I276" t="n">
-        <v>31.194</v>
+        <v>122.608</v>
       </c>
       <c r="J276" t="n">
+        <v>109.864</v>
+      </c>
+      <c r="K276" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="L276" t="n">
         <v>119.068</v>
       </c>
-      <c r="K276" t="n">
+      <c r="M276" t="n">
         <v>10969.114</v>
+      </c>
+      <c r="N276" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="277">
@@ -12349,13 +14807,22 @@
         <v>116.8</v>
       </c>
       <c r="I277" t="n">
-        <v>29.714</v>
+        <v>117.174</v>
       </c>
       <c r="J277" t="n">
+        <v>108.722</v>
+      </c>
+      <c r="K277" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="L277" t="n">
         <v>129.184</v>
       </c>
-      <c r="K277" t="n">
+      <c r="M277" t="n">
         <v>10396.042</v>
+      </c>
+      <c r="N277" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="278">
@@ -12392,13 +14859,22 @@
         <v>137.8</v>
       </c>
       <c r="I278" t="n">
-        <v>34.108</v>
+        <v>138.098</v>
       </c>
       <c r="J278" t="n">
+        <v>126.364</v>
+      </c>
+      <c r="K278" t="n">
+        <v>52.798</v>
+      </c>
+      <c r="L278" t="n">
         <v>118.808</v>
       </c>
-      <c r="K278" t="n">
+      <c r="M278" t="n">
         <v>11911.328</v>
+      </c>
+      <c r="N278" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="279">
@@ -12435,13 +14911,22 @@
         <v>130.4</v>
       </c>
       <c r="I279" t="n">
-        <v>32.016</v>
+        <v>130.588</v>
       </c>
       <c r="J279" t="n">
+        <v>123.342</v>
+      </c>
+      <c r="K279" t="n">
+        <v>49.612</v>
+      </c>
+      <c r="L279" t="n">
         <v>117.944</v>
       </c>
-      <c r="K279" t="n">
+      <c r="M279" t="n">
         <v>11142.362</v>
+      </c>
+      <c r="N279" t="n">
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="280">
@@ -12478,13 +14963,22 @@
         <v>120.8</v>
       </c>
       <c r="I280" t="n">
-        <v>28.87</v>
+        <v>120.928</v>
       </c>
       <c r="J280" t="n">
+        <v>112.21</v>
+      </c>
+      <c r="K280" t="n">
+        <v>44.76000000000001</v>
+      </c>
+      <c r="L280" t="n">
         <v>112.776</v>
       </c>
-      <c r="K280" t="n">
+      <c r="M280" t="n">
         <v>10000.918</v>
+      </c>
+      <c r="N280" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="281">
@@ -12521,13 +15015,22 @@
         <v>113.5</v>
       </c>
       <c r="I281" t="n">
-        <v>27.425</v>
+        <v>113.8525</v>
       </c>
       <c r="J281" t="n">
+        <v>97.08499999999999</v>
+      </c>
+      <c r="K281" t="n">
+        <v>42.5075</v>
+      </c>
+      <c r="L281" t="n">
         <v>113.22</v>
       </c>
-      <c r="K281" t="n">
+      <c r="M281" t="n">
         <v>9565.952500000001</v>
+      </c>
+      <c r="N281" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="282">
@@ -12564,13 +15067,22 @@
         <v>126.2</v>
       </c>
       <c r="I282" t="n">
-        <v>31.824</v>
+        <v>126.43</v>
       </c>
       <c r="J282" t="n">
+        <v>116.572</v>
+      </c>
+      <c r="K282" t="n">
+        <v>49.356</v>
+      </c>
+      <c r="L282" t="n">
         <v>118.88</v>
       </c>
-      <c r="K282" t="n">
+      <c r="M282" t="n">
         <v>11101.48</v>
+      </c>
+      <c r="N282" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="283">
@@ -12607,13 +15119,22 @@
         <v>113.4</v>
       </c>
       <c r="I283" t="n">
-        <v>29.186</v>
+        <v>113.956</v>
       </c>
       <c r="J283" t="n">
+        <v>105.638</v>
+      </c>
+      <c r="K283" t="n">
+        <v>45.078</v>
+      </c>
+      <c r="L283" t="n">
         <v>125.136</v>
       </c>
-      <c r="K283" t="n">
+      <c r="M283" t="n">
         <v>10468.328</v>
+      </c>
+      <c r="N283" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="284">
@@ -12650,13 +15171,22 @@
         <v>112.6</v>
       </c>
       <c r="I284" t="n">
-        <v>27.398</v>
+        <v>112.95</v>
       </c>
       <c r="J284" t="n">
+        <v>105.038</v>
+      </c>
+      <c r="K284" t="n">
+        <v>42.446</v>
+      </c>
+      <c r="L284" t="n">
         <v>118.418</v>
       </c>
-      <c r="K284" t="n">
+      <c r="M284" t="n">
         <v>9584.194</v>
+      </c>
+      <c r="N284" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="285">
@@ -12693,13 +15223,22 @@
         <v>111.8</v>
       </c>
       <c r="I285" t="n">
-        <v>27.788</v>
+        <v>112.142</v>
       </c>
       <c r="J285" t="n">
+        <v>99.334</v>
+      </c>
+      <c r="K285" t="n">
+        <v>42.938</v>
+      </c>
+      <c r="L285" t="n">
         <v>124.67</v>
       </c>
-      <c r="K285" t="n">
+      <c r="M285" t="n">
         <v>10014.096</v>
+      </c>
+      <c r="N285" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="286">
@@ -12736,13 +15275,22 @@
         <v>130.6</v>
       </c>
       <c r="I286" t="n">
-        <v>32.04199999999999</v>
+        <v>122.136</v>
       </c>
       <c r="J286" t="n">
+        <v>122.402</v>
+      </c>
+      <c r="K286" t="n">
+        <v>49.584</v>
+      </c>
+      <c r="L286" t="n">
         <v>115.008</v>
       </c>
-      <c r="K286" t="n">
+      <c r="M286" t="n">
         <v>10891.494</v>
+      </c>
+      <c r="N286" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="287">
@@ -12779,13 +15327,22 @@
         <v>108.6666666666667</v>
       </c>
       <c r="I287" t="n">
-        <v>26.06333333333333</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="J287" t="n">
+        <v>99.38</v>
+      </c>
+      <c r="K287" t="n">
+        <v>40.41999999999999</v>
+      </c>
+      <c r="L287" t="n">
         <v>114.5033333333333</v>
       </c>
-      <c r="K287" t="n">
+      <c r="M287" t="n">
         <v>9116.513333333334</v>
+      </c>
+      <c r="N287" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="288">
@@ -12822,13 +15379,22 @@
         <v>124.75</v>
       </c>
       <c r="I288" t="n">
-        <v>30.9225</v>
+        <v>125.0875</v>
       </c>
       <c r="J288" t="n">
+        <v>109.325</v>
+      </c>
+      <c r="K288" t="n">
+        <v>47.9125</v>
+      </c>
+      <c r="L288" t="n">
         <v>116.7375</v>
       </c>
-      <c r="K288" t="n">
+      <c r="M288" t="n">
         <v>10921.925</v>
+      </c>
+      <c r="N288" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="289">
@@ -12865,13 +15431,22 @@
         <v>122.25</v>
       </c>
       <c r="I289" t="n">
-        <v>29.77</v>
+        <v>122.5725</v>
       </c>
       <c r="J289" t="n">
+        <v>112.7625</v>
+      </c>
+      <c r="K289" t="n">
+        <v>46.0625</v>
+      </c>
+      <c r="L289" t="n">
         <v>121.93</v>
       </c>
-      <c r="K289" t="n">
+      <c r="M289" t="n">
         <v>10471.3225</v>
+      </c>
+      <c r="N289" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="290">
@@ -12908,14 +15483,21 @@
         <v>116</v>
       </c>
       <c r="I290" t="n">
-        <v>32.052</v>
+        <v>116.57</v>
       </c>
       <c r="J290" t="n">
+        <v>107.716</v>
+      </c>
+      <c r="K290" t="n">
+        <v>48.098</v>
+      </c>
+      <c r="L290" t="n">
         <v>144.616</v>
       </c>
-      <c r="K290" t="n">
+      <c r="M290" t="n">
         <v>13187.788</v>
       </c>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12951,13 +15533,22 @@
         <v>115.6</v>
       </c>
       <c r="I291" t="n">
-        <v>31.736</v>
+        <v>116.102</v>
       </c>
       <c r="J291" t="n">
+        <v>107.316</v>
+      </c>
+      <c r="K291" t="n">
+        <v>48.132</v>
+      </c>
+      <c r="L291" t="n">
         <v>140.296</v>
       </c>
-      <c r="K291" t="n">
+      <c r="M291" t="n">
         <v>12527.556</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="292">
@@ -12994,13 +15585,22 @@
         <v>94.2</v>
       </c>
       <c r="I292" t="n">
-        <v>25.904</v>
+        <v>94.29999999999998</v>
       </c>
       <c r="J292" t="n">
+        <v>84.64399999999999</v>
+      </c>
+      <c r="K292" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="L292" t="n">
         <v>149.606</v>
       </c>
-      <c r="K292" t="n">
+      <c r="M292" t="n">
         <v>10616.026</v>
+      </c>
+      <c r="N292" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="293">
@@ -13037,13 +15637,22 @@
         <v>139.6</v>
       </c>
       <c r="I293" t="n">
-        <v>39.18</v>
+        <v>139.976</v>
       </c>
       <c r="J293" t="n">
+        <v>122.808</v>
+      </c>
+      <c r="K293" t="n">
+        <v>58.90799999999999</v>
+      </c>
+      <c r="L293" t="n">
         <v>135.098</v>
       </c>
-      <c r="K293" t="n">
+      <c r="M293" t="n">
         <v>15726.446</v>
+      </c>
+      <c r="N293" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="294">
@@ -13080,13 +15689,22 @@
         <v>75</v>
       </c>
       <c r="I294" t="n">
-        <v>19.83</v>
+        <v>75.52199999999999</v>
       </c>
       <c r="J294" t="n">
+        <v>66.068</v>
+      </c>
+      <c r="K294" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="L294" t="n">
         <v>138.644</v>
       </c>
-      <c r="K294" t="n">
+      <c r="M294" t="n">
         <v>7855.488</v>
+      </c>
+      <c r="N294" t="n">
+        <v>17.75</v>
       </c>
     </row>
     <row r="295">
@@ -13123,13 +15741,22 @@
         <v>109.25</v>
       </c>
       <c r="I295" t="n">
-        <v>30.0075</v>
+        <v>109.745</v>
       </c>
       <c r="J295" t="n">
+        <v>103.1225</v>
+      </c>
+      <c r="K295" t="n">
+        <v>45.5625</v>
+      </c>
+      <c r="L295" t="n">
         <v>145.7025</v>
       </c>
-      <c r="K295" t="n">
+      <c r="M295" t="n">
         <v>11858.815</v>
+      </c>
+      <c r="N295" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="296">
@@ -13166,13 +15793,22 @@
         <v>104.8</v>
       </c>
       <c r="I296" t="n">
-        <v>29.122</v>
+        <v>105.168</v>
       </c>
       <c r="J296" t="n">
+        <v>88.73399999999999</v>
+      </c>
+      <c r="K296" t="n">
+        <v>43.748</v>
+      </c>
+      <c r="L296" t="n">
         <v>142.994</v>
       </c>
-      <c r="K296" t="n">
+      <c r="M296" t="n">
         <v>12080.208</v>
+      </c>
+      <c r="N296" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="297">
@@ -13209,13 +15845,22 @@
         <v>104</v>
       </c>
       <c r="I297" t="n">
-        <v>29.954</v>
+        <v>101.546</v>
       </c>
       <c r="J297" t="n">
+        <v>93.96599999999999</v>
+      </c>
+      <c r="K297" t="n">
+        <v>44.916</v>
+      </c>
+      <c r="L297" t="n">
         <v>160.036</v>
       </c>
-      <c r="K297" t="n">
+      <c r="M297" t="n">
         <v>11888.136</v>
+      </c>
+      <c r="N297" t="n">
+        <v>-3.91</v>
       </c>
     </row>
     <row r="298">
@@ -13252,13 +15897,22 @@
         <v>107.8</v>
       </c>
       <c r="I298" t="n">
-        <v>28.742</v>
+        <v>108.118</v>
       </c>
       <c r="J298" t="n">
+        <v>101.278</v>
+      </c>
+      <c r="K298" t="n">
+        <v>43.238</v>
+      </c>
+      <c r="L298" t="n">
         <v>144.062</v>
       </c>
-      <c r="K298" t="n">
+      <c r="M298" t="n">
         <v>11758.57</v>
+      </c>
+      <c r="N298" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="299">
@@ -13295,13 +15949,22 @@
         <v>89.5</v>
       </c>
       <c r="I299" t="n">
-        <v>24.2525</v>
+        <v>89.7925</v>
       </c>
       <c r="J299" t="n">
+        <v>80.82250000000001</v>
+      </c>
+      <c r="K299" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="L299" t="n">
         <v>146.305</v>
       </c>
-      <c r="K299" t="n">
+      <c r="M299" t="n">
         <v>10253.1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="300">
@@ -13338,13 +16001,22 @@
         <v>86.75</v>
       </c>
       <c r="I300" t="n">
-        <v>23.71</v>
+        <v>87.10749999999999</v>
       </c>
       <c r="J300" t="n">
+        <v>75.36999999999999</v>
+      </c>
+      <c r="K300" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="L300" t="n">
         <v>165.2875</v>
       </c>
-      <c r="K300" t="n">
+      <c r="M300" t="n">
         <v>9605.3475</v>
+      </c>
+      <c r="N300" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="301">
@@ -13381,13 +16053,22 @@
         <v>115.2</v>
       </c>
       <c r="I301" t="n">
-        <v>31.282</v>
+        <v>115.698</v>
       </c>
       <c r="J301" t="n">
+        <v>95.71199999999999</v>
+      </c>
+      <c r="K301" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="L301" t="n">
         <v>158.764</v>
       </c>
-      <c r="K301" t="n">
+      <c r="M301" t="n">
         <v>12786.35</v>
+      </c>
+      <c r="N301" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="302">
@@ -13424,13 +16105,22 @@
         <v>105.5</v>
       </c>
       <c r="I302" t="n">
-        <v>27.94</v>
+        <v>105.8025</v>
       </c>
       <c r="J302" t="n">
+        <v>91.55250000000001</v>
+      </c>
+      <c r="K302" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="L302" t="n">
         <v>143.7</v>
       </c>
-      <c r="K302" t="n">
+      <c r="M302" t="n">
         <v>11244.8725</v>
+      </c>
+      <c r="N302" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="303">
@@ -13467,13 +16157,22 @@
         <v>78.5</v>
       </c>
       <c r="I303" t="n">
-        <v>19.775</v>
+        <v>78.7225</v>
       </c>
       <c r="J303" t="n">
+        <v>74.19999999999999</v>
+      </c>
+      <c r="K303" t="n">
+        <v>30.075</v>
+      </c>
+      <c r="L303" t="n">
         <v>120.175</v>
       </c>
-      <c r="K303" t="n">
+      <c r="M303" t="n">
         <v>7513.959999999999</v>
+      </c>
+      <c r="N303" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="304">
@@ -13510,13 +16209,22 @@
         <v>77.8</v>
       </c>
       <c r="I304" t="n">
-        <v>20.414</v>
+        <v>78.47399999999999</v>
       </c>
       <c r="J304" t="n">
+        <v>69.756</v>
+      </c>
+      <c r="K304" t="n">
+        <v>30.754</v>
+      </c>
+      <c r="L304" t="n">
         <v>141.664</v>
       </c>
-      <c r="K304" t="n">
+      <c r="M304" t="n">
         <v>8306.780000000001</v>
+      </c>
+      <c r="N304" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="305">
@@ -13553,13 +16261,22 @@
         <v>101.75</v>
       </c>
       <c r="I305" t="n">
-        <v>27.2</v>
+        <v>101.9475</v>
       </c>
       <c r="J305" t="n">
+        <v>92.6425</v>
+      </c>
+      <c r="K305" t="n">
+        <v>41.2075</v>
+      </c>
+      <c r="L305" t="n">
         <v>153.29</v>
       </c>
-      <c r="K305" t="n">
+      <c r="M305" t="n">
         <v>10951.835</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="306">
@@ -13596,13 +16313,22 @@
         <v>95.2</v>
       </c>
       <c r="I306" t="n">
-        <v>26.666</v>
+        <v>95.578</v>
       </c>
       <c r="J306" t="n">
+        <v>90.81200000000001</v>
+      </c>
+      <c r="K306" t="n">
+        <v>40.23999999999999</v>
+      </c>
+      <c r="L306" t="n">
         <v>167.732</v>
       </c>
-      <c r="K306" t="n">
+      <c r="M306" t="n">
         <v>10966.046</v>
+      </c>
+      <c r="N306" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="307">
@@ -13639,13 +16365,22 @@
         <v>89.40000000000001</v>
       </c>
       <c r="I307" t="n">
-        <v>23.864</v>
+        <v>89.74000000000001</v>
       </c>
       <c r="J307" t="n">
+        <v>78.94000000000001</v>
+      </c>
+      <c r="K307" t="n">
+        <v>36.174</v>
+      </c>
+      <c r="L307" t="n">
         <v>137.118</v>
       </c>
-      <c r="K307" t="n">
+      <c r="M307" t="n">
         <v>9552.678</v>
+      </c>
+      <c r="N307" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="308">
@@ -13682,14 +16417,21 @@
         <v>171.4</v>
       </c>
       <c r="I308" t="n">
-        <v>39.184</v>
+        <v>168.08</v>
       </c>
       <c r="J308" t="n">
+        <v>156.61</v>
+      </c>
+      <c r="K308" t="n">
+        <v>60.99400000000001</v>
+      </c>
+      <c r="L308" t="n">
         <v>70.536</v>
       </c>
-      <c r="K308" t="n">
+      <c r="M308" t="n">
         <v>11853.926</v>
       </c>
+      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13725,13 +16467,22 @@
         <v>156.2</v>
       </c>
       <c r="I309" t="n">
-        <v>41.122</v>
+        <v>155.404</v>
       </c>
       <c r="J309" t="n">
+        <v>146.15</v>
+      </c>
+      <c r="K309" t="n">
+        <v>62.702</v>
+      </c>
+      <c r="L309" t="n">
         <v>125.842</v>
       </c>
-      <c r="K309" t="n">
+      <c r="M309" t="n">
         <v>15668.154</v>
+      </c>
+      <c r="N309" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="310">
@@ -13768,13 +16519,22 @@
         <v>137</v>
       </c>
       <c r="I310" t="n">
-        <v>33.888</v>
+        <v>136.76</v>
       </c>
       <c r="J310" t="n">
+        <v>122.542</v>
+      </c>
+      <c r="K310" t="n">
+        <v>52.34400000000001</v>
+      </c>
+      <c r="L310" t="n">
         <v>96.38000000000001</v>
       </c>
-      <c r="K310" t="n">
+      <c r="M310" t="n">
         <v>11905.186</v>
+      </c>
+      <c r="N310" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="311">
@@ -13811,13 +16571,22 @@
         <v>130.4</v>
       </c>
       <c r="I311" t="n">
-        <v>29.922</v>
+        <v>130.252</v>
       </c>
       <c r="J311" t="n">
+        <v>120.596</v>
+      </c>
+      <c r="K311" t="n">
+        <v>46.034</v>
+      </c>
+      <c r="L311" t="n">
         <v>114.046</v>
       </c>
-      <c r="K311" t="n">
+      <c r="M311" t="n">
         <v>10572.81</v>
+      </c>
+      <c r="N311" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="312">
@@ -13854,13 +16623,22 @@
         <v>170.8</v>
       </c>
       <c r="I312" t="n">
-        <v>39.98200000000001</v>
+        <v>170.764</v>
       </c>
       <c r="J312" t="n">
+        <v>153.128</v>
+      </c>
+      <c r="K312" t="n">
+        <v>62.26800000000001</v>
+      </c>
+      <c r="L312" t="n">
         <v>82.762</v>
       </c>
-      <c r="K312" t="n">
+      <c r="M312" t="n">
         <v>12919.718</v>
+      </c>
+      <c r="N312" t="n">
+        <v>-3.569999999999999</v>
       </c>
     </row>
     <row r="313">
@@ -13897,13 +16675,22 @@
         <v>154</v>
       </c>
       <c r="I313" t="n">
-        <v>38.192</v>
+        <v>154.398</v>
       </c>
       <c r="J313" t="n">
+        <v>140.448</v>
+      </c>
+      <c r="K313" t="n">
+        <v>59.29200000000001</v>
+      </c>
+      <c r="L313" t="n">
         <v>96.65000000000001</v>
       </c>
-      <c r="K313" t="n">
+      <c r="M313" t="n">
         <v>12771.508</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="314">
@@ -13940,13 +16727,22 @@
         <v>116.2</v>
       </c>
       <c r="I314" t="n">
-        <v>28.51</v>
+        <v>116.166</v>
       </c>
       <c r="J314" t="n">
+        <v>107.648</v>
+      </c>
+      <c r="K314" t="n">
+        <v>43.974</v>
+      </c>
+      <c r="L314" t="n">
         <v>99.20399999999999</v>
       </c>
-      <c r="K314" t="n">
+      <c r="M314" t="n">
         <v>10130.068</v>
+      </c>
+      <c r="N314" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="315">
@@ -13983,13 +16779,22 @@
         <v>191</v>
       </c>
       <c r="I315" t="n">
-        <v>51.26000000000001</v>
+        <v>191.148</v>
       </c>
       <c r="J315" t="n">
+        <v>177.402</v>
+      </c>
+      <c r="K315" t="n">
+        <v>78.828</v>
+      </c>
+      <c r="L315" t="n">
         <v>115.996</v>
       </c>
-      <c r="K315" t="n">
+      <c r="M315" t="n">
         <v>18131.12</v>
+      </c>
+      <c r="N315" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="316">
@@ -14026,13 +16831,22 @@
         <v>129.2</v>
       </c>
       <c r="I316" t="n">
-        <v>30.74399999999999</v>
+        <v>129.512</v>
       </c>
       <c r="J316" t="n">
+        <v>114.958</v>
+      </c>
+      <c r="K316" t="n">
+        <v>47.686</v>
+      </c>
+      <c r="L316" t="n">
         <v>95.86000000000001</v>
       </c>
-      <c r="K316" t="n">
+      <c r="M316" t="n">
         <v>10922.514</v>
+      </c>
+      <c r="N316" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="317">
@@ -14069,13 +16883,22 @@
         <v>125.2</v>
       </c>
       <c r="I317" t="n">
-        <v>31.484</v>
+        <v>125.42</v>
       </c>
       <c r="J317" t="n">
+        <v>111.07</v>
+      </c>
+      <c r="K317" t="n">
+        <v>48.312</v>
+      </c>
+      <c r="L317" t="n">
         <v>99.396</v>
       </c>
-      <c r="K317" t="n">
+      <c r="M317" t="n">
         <v>11508.212</v>
+      </c>
+      <c r="N317" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="318">
@@ -14112,13 +16935,22 @@
         <v>139.5</v>
       </c>
       <c r="I318" t="n">
-        <v>33.7125</v>
+        <v>139.7575</v>
       </c>
       <c r="J318" t="n">
+        <v>127.515</v>
+      </c>
+      <c r="K318" t="n">
+        <v>52.2625</v>
+      </c>
+      <c r="L318" t="n">
         <v>99.58499999999999</v>
       </c>
-      <c r="K318" t="n">
+      <c r="M318" t="n">
         <v>11229.495</v>
+      </c>
+      <c r="N318" t="n">
+        <v>7.58</v>
       </c>
     </row>
     <row r="319">
@@ -14155,13 +16987,22 @@
         <v>157.6666666666667</v>
       </c>
       <c r="I319" t="n">
-        <v>39.56666666666667</v>
+        <v>157.73</v>
       </c>
       <c r="J319" t="n">
+        <v>147.5566666666666</v>
+      </c>
+      <c r="K319" t="n">
+        <v>61.40000000000001</v>
+      </c>
+      <c r="L319" t="n">
         <v>96.14333333333333</v>
       </c>
-      <c r="K319" t="n">
+      <c r="M319" t="n">
         <v>13877.05</v>
+      </c>
+      <c r="N319" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="320">
@@ -14198,13 +17039,22 @@
         <v>161.25</v>
       </c>
       <c r="I320" t="n">
-        <v>39.185</v>
+        <v>160.8875</v>
       </c>
       <c r="J320" t="n">
+        <v>151.5825</v>
+      </c>
+      <c r="K320" t="n">
+        <v>60.45500000000001</v>
+      </c>
+      <c r="L320" t="n">
         <v>120.7425</v>
       </c>
-      <c r="K320" t="n">
+      <c r="M320" t="n">
         <v>14039.1275</v>
+      </c>
+      <c r="N320" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="321">
@@ -14241,13 +17091,22 @@
         <v>120.2</v>
       </c>
       <c r="I321" t="n">
-        <v>29.832</v>
+        <v>120.728</v>
       </c>
       <c r="J321" t="n">
+        <v>108.788</v>
+      </c>
+      <c r="K321" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="L321" t="n">
         <v>90.602</v>
       </c>
-      <c r="K321" t="n">
+      <c r="M321" t="n">
         <v>10094.628</v>
+      </c>
+      <c r="N321" t="n">
+        <v>13.06</v>
       </c>
     </row>
     <row r="322">
@@ -14284,13 +17143,22 @@
         <v>136</v>
       </c>
       <c r="I322" t="n">
-        <v>33.665</v>
+        <v>136.1525</v>
       </c>
       <c r="J322" t="n">
+        <v>114.5225</v>
+      </c>
+      <c r="K322" t="n">
+        <v>51.4675</v>
+      </c>
+      <c r="L322" t="n">
         <v>97.8575</v>
       </c>
-      <c r="K322" t="n">
+      <c r="M322" t="n">
         <v>12630.6125</v>
+      </c>
+      <c r="N322" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="323">
@@ -14327,13 +17195,22 @@
         <v>109</v>
       </c>
       <c r="I323" t="n">
-        <v>25.13</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="J323" t="n">
+        <v>93.12</v>
+      </c>
+      <c r="K323" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="L323" t="n">
         <v>93.75666666666666</v>
       </c>
-      <c r="K323" t="n">
+      <c r="M323" t="n">
         <v>8860.746666666666</v>
+      </c>
+      <c r="N323" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="324">
@@ -14370,13 +17247,22 @@
         <v>126.6</v>
       </c>
       <c r="I324" t="n">
-        <v>30.65</v>
+        <v>126.632</v>
       </c>
       <c r="J324" t="n">
+        <v>115.028</v>
+      </c>
+      <c r="K324" t="n">
+        <v>47.512</v>
+      </c>
+      <c r="L324" t="n">
         <v>103.72</v>
       </c>
-      <c r="K324" t="n">
+      <c r="M324" t="n">
         <v>10579.504</v>
+      </c>
+      <c r="N324" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="325">
@@ -14413,13 +17299,22 @@
         <v>147</v>
       </c>
       <c r="I325" t="n">
-        <v>38.665</v>
+        <v>147.0475</v>
       </c>
       <c r="J325" t="n">
+        <v>126.93</v>
+      </c>
+      <c r="K325" t="n">
+        <v>59.045</v>
+      </c>
+      <c r="L325" t="n">
         <v>121.1675</v>
       </c>
-      <c r="K325" t="n">
+      <c r="M325" t="n">
         <v>14591.56</v>
+      </c>
+      <c r="N325" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N325"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,7 +548,6 @@
       <c r="M2" t="n">
         <v>6528.83</v>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,9 +597,6 @@
       <c r="M3" t="n">
         <v>5510.422500000001</v>
       </c>
-      <c r="N3" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,9 +646,6 @@
       <c r="M4" t="n">
         <v>5038.925</v>
       </c>
-      <c r="N4" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -707,9 +695,6 @@
       <c r="M5" t="n">
         <v>6687.386</v>
       </c>
-      <c r="N5" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,9 +744,6 @@
       <c r="M6" t="n">
         <v>4019.618000000001</v>
       </c>
-      <c r="N6" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -811,9 +793,6 @@
       <c r="M7" t="n">
         <v>5734.658</v>
       </c>
-      <c r="N7" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,9 +842,6 @@
       <c r="M8" t="n">
         <v>6589.93</v>
       </c>
-      <c r="N8" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,9 +891,6 @@
       <c r="M9" t="n">
         <v>6322.86</v>
       </c>
-      <c r="N9" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -967,9 +940,6 @@
       <c r="M10" t="n">
         <v>4710.397999999999</v>
       </c>
-      <c r="N10" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,9 +989,6 @@
       <c r="M11" t="n">
         <v>4565.388</v>
       </c>
-      <c r="N11" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1071,9 +1038,6 @@
       <c r="M12" t="n">
         <v>3764.9425</v>
       </c>
-      <c r="N12" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1123,9 +1087,6 @@
       <c r="M13" t="n">
         <v>5163.52</v>
       </c>
-      <c r="N13" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1175,9 +1136,6 @@
       <c r="M14" t="n">
         <v>4218.411999999999</v>
       </c>
-      <c r="N14" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1227,9 +1185,6 @@
       <c r="M15" t="n">
         <v>4796.368</v>
       </c>
-      <c r="N15" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1279,9 +1234,6 @@
       <c r="M16" t="n">
         <v>4574.085</v>
       </c>
-      <c r="N16" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1331,9 +1283,6 @@
       <c r="M17" t="n">
         <v>3941.98</v>
       </c>
-      <c r="N17" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1383,9 +1332,6 @@
       <c r="M18" t="n">
         <v>4497.066</v>
       </c>
-      <c r="N18" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1435,9 +1381,6 @@
       <c r="M19" t="n">
         <v>5882.634</v>
       </c>
-      <c r="N19" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1487,7 +1430,6 @@
       <c r="M20" t="n">
         <v>15918.314</v>
       </c>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1537,9 +1479,6 @@
       <c r="M21" t="n">
         <v>13850.216</v>
       </c>
-      <c r="N21" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1589,9 +1528,6 @@
       <c r="M22" t="n">
         <v>11216.966</v>
       </c>
-      <c r="N22" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1641,9 +1577,6 @@
       <c r="M23" t="n">
         <v>15539.71</v>
       </c>
-      <c r="N23" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1693,9 +1626,6 @@
       <c r="M24" t="n">
         <v>16680.038</v>
       </c>
-      <c r="N24" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1745,9 +1675,6 @@
       <c r="M25" t="n">
         <v>16385.752</v>
       </c>
-      <c r="N25" t="n">
-        <v>7.779999999999999</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1797,9 +1724,6 @@
       <c r="M26" t="n">
         <v>13964.33333333333</v>
       </c>
-      <c r="N26" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1849,9 +1773,6 @@
       <c r="M27" t="n">
         <v>12276.214</v>
       </c>
-      <c r="N27" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1901,9 +1822,6 @@
       <c r="M28" t="n">
         <v>14719.204</v>
       </c>
-      <c r="N28" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1953,9 +1871,6 @@
       <c r="M29" t="n">
         <v>13897.276</v>
       </c>
-      <c r="N29" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2005,9 +1920,6 @@
       <c r="M30" t="n">
         <v>12078.422</v>
       </c>
-      <c r="N30" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2057,9 +1969,6 @@
       <c r="M31" t="n">
         <v>14337.676</v>
       </c>
-      <c r="N31" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2109,9 +2018,6 @@
       <c r="M32" t="n">
         <v>14099.05</v>
       </c>
-      <c r="N32" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2161,9 +2067,6 @@
       <c r="M33" t="n">
         <v>15675.44</v>
       </c>
-      <c r="N33" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2213,9 +2116,6 @@
       <c r="M34" t="n">
         <v>14645.2725</v>
       </c>
-      <c r="N34" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2265,9 +2165,6 @@
       <c r="M35" t="n">
         <v>12250.756</v>
       </c>
-      <c r="N35" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2317,9 +2214,6 @@
       <c r="M36" t="n">
         <v>15903.194</v>
       </c>
-      <c r="N36" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2369,9 +2263,6 @@
       <c r="M37" t="n">
         <v>11943.53</v>
       </c>
-      <c r="N37" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2421,7 +2312,6 @@
       <c r="M38" t="n">
         <v>10787.114</v>
       </c>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2471,9 +2361,6 @@
       <c r="M39" t="n">
         <v>11921.456</v>
       </c>
-      <c r="N39" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2523,9 +2410,6 @@
       <c r="M40" t="n">
         <v>6386.172</v>
       </c>
-      <c r="N40" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2575,9 +2459,6 @@
       <c r="M41" t="n">
         <v>10798.175</v>
       </c>
-      <c r="N41" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2627,9 +2508,6 @@
       <c r="M42" t="n">
         <v>10317.342</v>
       </c>
-      <c r="N42" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2679,9 +2557,6 @@
       <c r="M43" t="n">
         <v>8947.166000000001</v>
       </c>
-      <c r="N43" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2731,9 +2606,6 @@
       <c r="M44" t="n">
         <v>8624.377500000001</v>
       </c>
-      <c r="N44" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2783,9 +2655,6 @@
       <c r="M45" t="n">
         <v>10638.702</v>
       </c>
-      <c r="N45" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2835,9 +2704,6 @@
       <c r="M46" t="n">
         <v>9650.784000000001</v>
       </c>
-      <c r="N46" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2887,9 +2753,6 @@
       <c r="M47" t="n">
         <v>10003.226</v>
       </c>
-      <c r="N47" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2939,9 +2802,6 @@
       <c r="M48" t="n">
         <v>8285.182000000001</v>
       </c>
-      <c r="N48" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2991,9 +2851,6 @@
       <c r="M49" t="n">
         <v>7959.406</v>
       </c>
-      <c r="N49" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3043,9 +2900,6 @@
       <c r="M50" t="n">
         <v>9882.497499999999</v>
       </c>
-      <c r="N50" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3095,9 +2949,6 @@
       <c r="M51" t="n">
         <v>9492.828000000001</v>
       </c>
-      <c r="N51" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3147,9 +2998,6 @@
       <c r="M52" t="n">
         <v>9284.075000000001</v>
       </c>
-      <c r="N52" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3199,9 +3047,6 @@
       <c r="M53" t="n">
         <v>10345.32</v>
       </c>
-      <c r="N53" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3251,9 +3096,6 @@
       <c r="M54" t="n">
         <v>8689.092000000001</v>
       </c>
-      <c r="N54" t="n">
-        <v>7.159999999999999</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3303,9 +3145,6 @@
       <c r="M55" t="n">
         <v>7386.5225</v>
       </c>
-      <c r="N55" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3355,7 +3194,6 @@
       <c r="M56" t="n">
         <v>8858.762000000001</v>
       </c>
-      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3405,9 +3243,6 @@
       <c r="M57" t="n">
         <v>8709.990000000002</v>
       </c>
-      <c r="N57" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3457,9 +3292,6 @@
       <c r="M58" t="n">
         <v>5360.827499999999</v>
       </c>
-      <c r="N58" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3509,9 +3341,6 @@
       <c r="M59" t="n">
         <v>7170.19</v>
       </c>
-      <c r="N59" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3561,9 +3390,6 @@
       <c r="M60" t="n">
         <v>7241.7225</v>
       </c>
-      <c r="N60" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3613,9 +3439,6 @@
       <c r="M61" t="n">
         <v>8236.022000000001</v>
       </c>
-      <c r="N61" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3665,9 +3488,6 @@
       <c r="M62" t="n">
         <v>8978.668</v>
       </c>
-      <c r="N62" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3717,9 +3537,6 @@
       <c r="M63" t="n">
         <v>6979.564</v>
       </c>
-      <c r="N63" t="n">
-        <v>7.720000000000001</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3769,9 +3586,6 @@
       <c r="M64" t="n">
         <v>7291.744000000001</v>
       </c>
-      <c r="N64" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3821,9 +3635,6 @@
       <c r="M65" t="n">
         <v>7740.770000000001</v>
       </c>
-      <c r="N65" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3873,9 +3684,6 @@
       <c r="M66" t="n">
         <v>7110.55</v>
       </c>
-      <c r="N66" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3925,9 +3733,6 @@
       <c r="M67" t="n">
         <v>6605.134</v>
       </c>
-      <c r="N67" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3977,9 +3782,6 @@
       <c r="M68" t="n">
         <v>6722.842</v>
       </c>
-      <c r="N68" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4029,9 +3831,6 @@
       <c r="M69" t="n">
         <v>6690.3</v>
       </c>
-      <c r="N69" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4081,9 +3880,6 @@
       <c r="M70" t="n">
         <v>6552.698</v>
       </c>
-      <c r="N70" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4133,9 +3929,6 @@
       <c r="M71" t="n">
         <v>5747.717999999999</v>
       </c>
-      <c r="N71" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4185,9 +3978,6 @@
       <c r="M72" t="n">
         <v>8347.327499999999</v>
       </c>
-      <c r="N72" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4237,9 +4027,6 @@
       <c r="M73" t="n">
         <v>6761.33</v>
       </c>
-      <c r="N73" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4289,7 +4076,6 @@
       <c r="M74" t="n">
         <v>9199.476000000001</v>
       </c>
-      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4339,9 +4125,6 @@
       <c r="M75" t="n">
         <v>7475.204000000001</v>
       </c>
-      <c r="N75" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4391,9 +4174,6 @@
       <c r="M76" t="n">
         <v>5255.456</v>
       </c>
-      <c r="N76" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4443,9 +4223,6 @@
       <c r="M77" t="n">
         <v>8472.33</v>
       </c>
-      <c r="N77" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4495,9 +4272,6 @@
       <c r="M78" t="n">
         <v>7819.762</v>
       </c>
-      <c r="N78" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4547,9 +4321,6 @@
       <c r="M79" t="n">
         <v>7852.983999999999</v>
       </c>
-      <c r="N79" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4599,9 +4370,6 @@
       <c r="M80" t="n">
         <v>9016.057499999999</v>
       </c>
-      <c r="N80" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4651,9 +4419,6 @@
       <c r="M81" t="n">
         <v>8311.950000000001</v>
       </c>
-      <c r="N81" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4703,9 +4468,6 @@
       <c r="M82" t="n">
         <v>7392.404</v>
       </c>
-      <c r="N82" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4755,9 +4517,6 @@
       <c r="M83" t="n">
         <v>6840.783333333333</v>
       </c>
-      <c r="N83" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4807,9 +4566,6 @@
       <c r="M84" t="n">
         <v>6756.138000000001</v>
       </c>
-      <c r="N84" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4859,9 +4615,6 @@
       <c r="M85" t="n">
         <v>6335.522</v>
       </c>
-      <c r="N85" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4911,9 +4664,6 @@
       <c r="M86" t="n">
         <v>6191.412</v>
       </c>
-      <c r="N86" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4963,9 +4713,6 @@
       <c r="M87" t="n">
         <v>7298.584</v>
       </c>
-      <c r="N87" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5015,9 +4762,6 @@
       <c r="M88" t="n">
         <v>6645.216</v>
       </c>
-      <c r="N88" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5067,9 +4811,6 @@
       <c r="M89" t="n">
         <v>8639.155999999999</v>
       </c>
-      <c r="N89" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5119,9 +4860,6 @@
       <c r="M90" t="n">
         <v>6725.892</v>
       </c>
-      <c r="N90" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5171,9 +4909,6 @@
       <c r="M91" t="n">
         <v>6973.762000000001</v>
       </c>
-      <c r="N91" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5223,7 +4958,6 @@
       <c r="M92" t="n">
         <v>13059.7225</v>
       </c>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5273,9 +5007,6 @@
       <c r="M93" t="n">
         <v>18619.364</v>
       </c>
-      <c r="N93" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5325,9 +5056,6 @@
       <c r="M94" t="n">
         <v>13289.28666666667</v>
       </c>
-      <c r="N94" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5377,9 +5105,6 @@
       <c r="M95" t="n">
         <v>16021.9425</v>
       </c>
-      <c r="N95" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5429,9 +5154,6 @@
       <c r="M96" t="n">
         <v>16414.192</v>
       </c>
-      <c r="N96" t="n">
-        <v>-3.569999999999999</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5481,9 +5203,6 @@
       <c r="M97" t="n">
         <v>15148.98</v>
       </c>
-      <c r="N97" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5533,9 +5252,6 @@
       <c r="M98" t="n">
         <v>18797.85</v>
       </c>
-      <c r="N98" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5585,9 +5301,6 @@
       <c r="M99" t="n">
         <v>16383.096</v>
       </c>
-      <c r="N99" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5637,9 +5350,6 @@
       <c r="M100" t="n">
         <v>7754.707999999999</v>
       </c>
-      <c r="N100" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5689,9 +5399,6 @@
       <c r="M101" t="n">
         <v>14253.696</v>
       </c>
-      <c r="N101" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5741,9 +5448,6 @@
       <c r="M102" t="n">
         <v>11180.915</v>
       </c>
-      <c r="N102" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5793,9 +5497,6 @@
       <c r="M103" t="n">
         <v>8917.779999999999</v>
       </c>
-      <c r="N103" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5845,9 +5546,6 @@
       <c r="M104" t="n">
         <v>10438.068</v>
       </c>
-      <c r="N104" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5897,9 +5595,6 @@
       <c r="M105" t="n">
         <v>14054.51</v>
       </c>
-      <c r="N105" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5949,9 +5644,6 @@
       <c r="M106" t="n">
         <v>14497.0275</v>
       </c>
-      <c r="N106" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6001,9 +5693,6 @@
       <c r="M107" t="n">
         <v>15030.17</v>
       </c>
-      <c r="N107" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6053,9 +5742,6 @@
       <c r="M108" t="n">
         <v>9009.082</v>
       </c>
-      <c r="N108" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6105,9 +5791,6 @@
       <c r="M109" t="n">
         <v>11283.304</v>
       </c>
-      <c r="N109" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6157,7 +5840,6 @@
       <c r="M110" t="n">
         <v>10756.425</v>
       </c>
-      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6207,9 +5889,6 @@
       <c r="M111" t="n">
         <v>9063.574000000001</v>
       </c>
-      <c r="N111" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6259,9 +5938,6 @@
       <c r="M112" t="n">
         <v>6913</v>
       </c>
-      <c r="N112" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6311,9 +5987,6 @@
       <c r="M113" t="n">
         <v>11484.1975</v>
       </c>
-      <c r="N113" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6363,9 +6036,6 @@
       <c r="M114" t="n">
         <v>10350.584</v>
       </c>
-      <c r="N114" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6415,9 +6085,6 @@
       <c r="M115" t="n">
         <v>10466.382</v>
       </c>
-      <c r="N115" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6467,9 +6134,6 @@
       <c r="M116" t="n">
         <v>10768.964</v>
       </c>
-      <c r="N116" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6519,9 +6183,6 @@
       <c r="M117" t="n">
         <v>10286.96</v>
       </c>
-      <c r="N117" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6571,9 +6232,6 @@
       <c r="M118" t="n">
         <v>9712.994000000001</v>
       </c>
-      <c r="N118" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6623,9 +6281,6 @@
       <c r="M119" t="n">
         <v>9104.32</v>
       </c>
-      <c r="N119" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6675,9 +6330,6 @@
       <c r="M120" t="n">
         <v>8921.466</v>
       </c>
-      <c r="N120" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6727,9 +6379,6 @@
       <c r="M121" t="n">
         <v>8841.401999999998</v>
       </c>
-      <c r="N121" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6779,9 +6428,6 @@
       <c r="M122" t="n">
         <v>8877.134</v>
       </c>
-      <c r="N122" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6831,9 +6477,6 @@
       <c r="M123" t="n">
         <v>7556.714</v>
       </c>
-      <c r="N123" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6883,9 +6526,6 @@
       <c r="M124" t="n">
         <v>7506.270000000001</v>
       </c>
-      <c r="N124" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6935,9 +6575,6 @@
       <c r="M125" t="n">
         <v>8741.365</v>
       </c>
-      <c r="N125" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6987,9 +6624,6 @@
       <c r="M126" t="n">
         <v>8574.871999999999</v>
       </c>
-      <c r="N126" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7039,9 +6673,6 @@
       <c r="M127" t="n">
         <v>9833.856000000002</v>
       </c>
-      <c r="N127" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7091,7 +6722,6 @@
       <c r="M128" t="n">
         <v>20564.348</v>
       </c>
-      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7141,9 +6771,6 @@
       <c r="M129" t="n">
         <v>16819.404</v>
       </c>
-      <c r="N129" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7193,9 +6820,6 @@
       <c r="M130" t="n">
         <v>12159.3425</v>
       </c>
-      <c r="N130" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7245,9 +6869,6 @@
       <c r="M131" t="n">
         <v>17823.932</v>
       </c>
-      <c r="N131" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7297,9 +6918,6 @@
       <c r="M132" t="n">
         <v>15116.03</v>
       </c>
-      <c r="N132" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7349,9 +6967,6 @@
       <c r="M133" t="n">
         <v>18228.546</v>
       </c>
-      <c r="N133" t="n">
-        <v>7.779999999999999</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7401,9 +7016,6 @@
       <c r="M134" t="n">
         <v>14705.88</v>
       </c>
-      <c r="N134" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7453,9 +7065,6 @@
       <c r="M135" t="n">
         <v>17051.03</v>
       </c>
-      <c r="N135" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7505,9 +7114,6 @@
       <c r="M136" t="n">
         <v>15055.496</v>
       </c>
-      <c r="N136" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7557,9 +7163,6 @@
       <c r="M137" t="n">
         <v>15647.004</v>
       </c>
-      <c r="N137" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7609,9 +7212,6 @@
       <c r="M138" t="n">
         <v>15252.0325</v>
       </c>
-      <c r="N138" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7661,9 +7261,6 @@
       <c r="M139" t="n">
         <v>14781.716</v>
       </c>
-      <c r="N139" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7713,9 +7310,6 @@
       <c r="M140" t="n">
         <v>14843.1775</v>
       </c>
-      <c r="N140" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7765,9 +7359,6 @@
       <c r="M141" t="n">
         <v>16288.91</v>
       </c>
-      <c r="N141" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7817,9 +7408,6 @@
       <c r="M142" t="n">
         <v>15558.38</v>
       </c>
-      <c r="N142" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7869,9 +7457,6 @@
       <c r="M143" t="n">
         <v>16525.214</v>
       </c>
-      <c r="N143" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7921,9 +7506,6 @@
       <c r="M144" t="n">
         <v>15166.7275</v>
       </c>
-      <c r="N144" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7973,9 +7555,6 @@
       <c r="M145" t="n">
         <v>16672.094</v>
       </c>
-      <c r="N145" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8025,7 +7604,6 @@
       <c r="M146" t="n">
         <v>8948.822</v>
       </c>
-      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8075,9 +7653,6 @@
       <c r="M147" t="n">
         <v>11450.976</v>
       </c>
-      <c r="N147" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8127,9 +7702,6 @@
       <c r="M148" t="n">
         <v>6708.077499999999</v>
       </c>
-      <c r="N148" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8179,9 +7751,6 @@
       <c r="M149" t="n">
         <v>10126.09</v>
       </c>
-      <c r="N149" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8231,9 +7800,6 @@
       <c r="M150" t="n">
         <v>9693.004000000001</v>
       </c>
-      <c r="N150" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8283,9 +7849,6 @@
       <c r="M151" t="n">
         <v>7629.4475</v>
       </c>
-      <c r="N151" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8335,9 +7898,6 @@
       <c r="M152" t="n">
         <v>8935.897999999999</v>
       </c>
-      <c r="N152" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8387,9 +7947,6 @@
       <c r="M153" t="n">
         <v>9182.765000000001</v>
       </c>
-      <c r="N153" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8439,9 +7996,6 @@
       <c r="M154" t="n">
         <v>8863.691999999999</v>
       </c>
-      <c r="N154" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8491,9 +8045,6 @@
       <c r="M155" t="n">
         <v>9834.103999999999</v>
       </c>
-      <c r="N155" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8543,9 +8094,6 @@
       <c r="M156" t="n">
         <v>10299.578</v>
       </c>
-      <c r="N156" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8595,9 +8143,6 @@
       <c r="M157" t="n">
         <v>7922.117999999999</v>
       </c>
-      <c r="N157" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8647,9 +8192,6 @@
       <c r="M158" t="n">
         <v>7223.842</v>
       </c>
-      <c r="N158" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8699,9 +8241,6 @@
       <c r="M159" t="n">
         <v>8237.402</v>
       </c>
-      <c r="N159" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8751,9 +8290,6 @@
       <c r="M160" t="n">
         <v>9437.218000000001</v>
       </c>
-      <c r="N160" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8803,9 +8339,6 @@
       <c r="M161" t="n">
         <v>8012.5375</v>
       </c>
-      <c r="N161" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8855,9 +8388,6 @@
       <c r="M162" t="n">
         <v>9151.422</v>
       </c>
-      <c r="N162" t="n">
-        <v>7.159999999999999</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8907,9 +8437,6 @@
       <c r="M163" t="n">
         <v>6582.836</v>
       </c>
-      <c r="N163" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8959,7 +8486,6 @@
       <c r="M164" t="n">
         <v>17092.026</v>
       </c>
-      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9009,9 +8535,6 @@
       <c r="M165" t="n">
         <v>16379.202</v>
       </c>
-      <c r="N165" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9061,9 +8584,6 @@
       <c r="M166" t="n">
         <v>8908.6</v>
       </c>
-      <c r="N166" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9113,9 +8633,6 @@
       <c r="M167" t="n">
         <v>16103.33</v>
       </c>
-      <c r="N167" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9165,9 +8682,6 @@
       <c r="M168" t="n">
         <v>16181.754</v>
       </c>
-      <c r="N168" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9217,9 +8731,6 @@
       <c r="M169" t="n">
         <v>14365.532</v>
       </c>
-      <c r="N169" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9269,9 +8780,6 @@
       <c r="M170" t="n">
         <v>16805.4</v>
       </c>
-      <c r="N170" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9321,9 +8829,6 @@
       <c r="M171" t="n">
         <v>14736.516</v>
       </c>
-      <c r="N171" t="n">
-        <v>7.720000000000001</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9373,9 +8878,6 @@
       <c r="M172" t="n">
         <v>13531.5</v>
       </c>
-      <c r="N172" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9425,9 +8927,6 @@
       <c r="M173" t="n">
         <v>11899.808</v>
       </c>
-      <c r="N173" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9477,9 +8976,6 @@
       <c r="M174" t="n">
         <v>11133.272</v>
       </c>
-      <c r="N174" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9529,9 +9025,6 @@
       <c r="M175" t="n">
         <v>14060.726</v>
       </c>
-      <c r="N175" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9581,9 +9074,6 @@
       <c r="M176" t="n">
         <v>14770.618</v>
       </c>
-      <c r="N176" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9633,9 +9123,6 @@
       <c r="M177" t="n">
         <v>13960.6</v>
       </c>
-      <c r="N177" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9685,9 +9172,6 @@
       <c r="M178" t="n">
         <v>14941.024</v>
       </c>
-      <c r="N178" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9737,9 +9221,6 @@
       <c r="M179" t="n">
         <v>15084.296</v>
       </c>
-      <c r="N179" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9789,9 +9270,6 @@
       <c r="M180" t="n">
         <v>14312.918</v>
       </c>
-      <c r="N180" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9841,9 +9319,6 @@
       <c r="M181" t="n">
         <v>14638.726</v>
       </c>
-      <c r="N181" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9893,7 +9368,6 @@
       <c r="M182" t="n">
         <v>13717.748</v>
       </c>
-      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9943,9 +9417,6 @@
       <c r="M183" t="n">
         <v>12897.156</v>
       </c>
-      <c r="N183" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9995,9 +9466,6 @@
       <c r="M184" t="n">
         <v>8733.392</v>
       </c>
-      <c r="N184" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10047,9 +9515,6 @@
       <c r="M185" t="n">
         <v>17152.098</v>
       </c>
-      <c r="N185" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10099,9 +9564,6 @@
       <c r="M186" t="n">
         <v>13380.166</v>
       </c>
-      <c r="N186" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10151,9 +9613,6 @@
       <c r="M187" t="n">
         <v>17063.144</v>
       </c>
-      <c r="N187" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10203,9 +9662,6 @@
       <c r="M188" t="n">
         <v>15855.0925</v>
       </c>
-      <c r="N188" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10255,9 +9711,6 @@
       <c r="M189" t="n">
         <v>18597.14</v>
       </c>
-      <c r="N189" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10307,9 +9760,6 @@
       <c r="M190" t="n">
         <v>13089.5225</v>
       </c>
-      <c r="N190" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10359,9 +9809,6 @@
       <c r="M191" t="n">
         <v>15299.104</v>
       </c>
-      <c r="N191" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10411,9 +9858,6 @@
       <c r="M192" t="n">
         <v>14491.73</v>
       </c>
-      <c r="N192" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10463,9 +9907,6 @@
       <c r="M193" t="n">
         <v>13906.428</v>
       </c>
-      <c r="N193" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10515,9 +9956,6 @@
       <c r="M194" t="n">
         <v>16333.582</v>
       </c>
-      <c r="N194" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10567,9 +10005,6 @@
       <c r="M195" t="n">
         <v>14418.08</v>
       </c>
-      <c r="N195" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10619,9 +10054,6 @@
       <c r="M196" t="n">
         <v>14820.508</v>
       </c>
-      <c r="N196" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10671,9 +10103,6 @@
       <c r="M197" t="n">
         <v>15348.924</v>
       </c>
-      <c r="N197" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10723,9 +10152,6 @@
       <c r="M198" t="n">
         <v>12882.174</v>
       </c>
-      <c r="N198" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10775,9 +10201,6 @@
       <c r="M199" t="n">
         <v>15299.0675</v>
       </c>
-      <c r="N199" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10827,7 +10250,6 @@
       <c r="M200" t="n">
         <v>20544.272</v>
       </c>
-      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10877,9 +10299,6 @@
       <c r="M201" t="n">
         <v>34880.332</v>
       </c>
-      <c r="N201" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10929,9 +10348,6 @@
       <c r="M202" t="n">
         <v>25419.98</v>
       </c>
-      <c r="N202" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10981,9 +10397,6 @@
       <c r="M203" t="n">
         <v>30825.388</v>
       </c>
-      <c r="N203" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11033,9 +10446,6 @@
       <c r="M204" t="n">
         <v>29453.194</v>
       </c>
-      <c r="N204" t="n">
-        <v>-3.569999999999999</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11085,9 +10495,6 @@
       <c r="M205" t="n">
         <v>28633.92</v>
       </c>
-      <c r="N205" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11137,9 +10544,6 @@
       <c r="M206" t="n">
         <v>25811.592</v>
       </c>
-      <c r="N206" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11189,9 +10593,6 @@
       <c r="M207" t="n">
         <v>25054.396</v>
       </c>
-      <c r="N207" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11241,9 +10642,6 @@
       <c r="M208" t="n">
         <v>23930.76</v>
       </c>
-      <c r="N208" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11293,9 +10691,6 @@
       <c r="M209" t="n">
         <v>31901.815</v>
       </c>
-      <c r="N209" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11345,9 +10740,6 @@
       <c r="M210" t="n">
         <v>33727.0425</v>
       </c>
-      <c r="N210" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11397,9 +10789,6 @@
       <c r="M211" t="n">
         <v>19639.294</v>
       </c>
-      <c r="N211" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11449,9 +10838,6 @@
       <c r="M212" t="n">
         <v>25435.552</v>
       </c>
-      <c r="N212" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11501,9 +10887,6 @@
       <c r="M213" t="n">
         <v>26767.248</v>
       </c>
-      <c r="N213" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11553,9 +10936,6 @@
       <c r="M214" t="n">
         <v>26434.4</v>
       </c>
-      <c r="N214" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11605,9 +10985,6 @@
       <c r="M215" t="n">
         <v>30898.52333333333</v>
       </c>
-      <c r="N215" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11657,9 +11034,6 @@
       <c r="M216" t="n">
         <v>27629.686</v>
       </c>
-      <c r="N216" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11709,9 +11083,6 @@
       <c r="M217" t="n">
         <v>28403.252</v>
       </c>
-      <c r="N217" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11761,7 +11132,6 @@
       <c r="M218" t="n">
         <v>7508.476</v>
       </c>
-      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11811,9 +11181,6 @@
       <c r="M219" t="n">
         <v>9760.865999999998</v>
       </c>
-      <c r="N219" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11863,9 +11230,6 @@
       <c r="M220" t="n">
         <v>8011.516000000001</v>
       </c>
-      <c r="N220" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11915,9 +11279,6 @@
       <c r="M221" t="n">
         <v>9466.734</v>
       </c>
-      <c r="N221" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11967,9 +11328,6 @@
       <c r="M222" t="n">
         <v>13521.965</v>
       </c>
-      <c r="N222" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12019,9 +11377,6 @@
       <c r="M223" t="n">
         <v>11582.3675</v>
       </c>
-      <c r="N223" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12071,9 +11426,6 @@
       <c r="M224" t="n">
         <v>11430.696</v>
       </c>
-      <c r="N224" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12123,9 +11475,6 @@
       <c r="M225" t="n">
         <v>11115.674</v>
       </c>
-      <c r="N225" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12175,9 +11524,6 @@
       <c r="M226" t="n">
         <v>11116.17</v>
       </c>
-      <c r="N226" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12227,9 +11573,6 @@
       <c r="M227" t="n">
         <v>6319.485</v>
       </c>
-      <c r="N227" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12279,9 +11622,6 @@
       <c r="M228" t="n">
         <v>8208.683999999999</v>
       </c>
-      <c r="N228" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12331,9 +11671,6 @@
       <c r="M229" t="n">
         <v>8116.81</v>
       </c>
-      <c r="N229" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12383,9 +11720,6 @@
       <c r="M230" t="n">
         <v>6129.708000000001</v>
       </c>
-      <c r="N230" t="n">
-        <v>26.99</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12435,9 +11769,6 @@
       <c r="M231" t="n">
         <v>7382.844</v>
       </c>
-      <c r="N231" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12487,9 +11818,6 @@
       <c r="M232" t="n">
         <v>8258.621999999999</v>
       </c>
-      <c r="N232" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12539,9 +11867,6 @@
       <c r="M233" t="n">
         <v>6283.976000000001</v>
       </c>
-      <c r="N233" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12591,9 +11916,6 @@
       <c r="M234" t="n">
         <v>6949.67</v>
       </c>
-      <c r="N234" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12643,9 +11965,6 @@
       <c r="M235" t="n">
         <v>11086.2375</v>
       </c>
-      <c r="N235" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12695,7 +12014,6 @@
       <c r="M236" t="n">
         <v>22309.752</v>
       </c>
-      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12745,9 +12063,6 @@
       <c r="M237" t="n">
         <v>21171.965</v>
       </c>
-      <c r="N237" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12797,9 +12112,6 @@
       <c r="M238" t="n">
         <v>16284.066</v>
       </c>
-      <c r="N238" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12849,9 +12161,6 @@
       <c r="M239" t="n">
         <v>22127.42</v>
       </c>
-      <c r="N239" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12901,9 +12210,6 @@
       <c r="M240" t="n">
         <v>21778.136</v>
       </c>
-      <c r="N240" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12953,9 +12259,6 @@
       <c r="M241" t="n">
         <v>18619.062</v>
       </c>
-      <c r="N241" t="n">
-        <v>7.779999999999999</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13005,9 +12308,6 @@
       <c r="M242" t="n">
         <v>18591.33</v>
       </c>
-      <c r="N242" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13057,9 +12357,6 @@
       <c r="M243" t="n">
         <v>24534.6525</v>
       </c>
-      <c r="N243" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13109,9 +12406,6 @@
       <c r="M244" t="n">
         <v>18065.748</v>
       </c>
-      <c r="N244" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13161,9 +12455,6 @@
       <c r="M245" t="n">
         <v>21380.694</v>
       </c>
-      <c r="N245" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13213,9 +12504,6 @@
       <c r="M246" t="n">
         <v>18499.734</v>
       </c>
-      <c r="N246" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13265,9 +12553,6 @@
       <c r="M247" t="n">
         <v>19268.512</v>
       </c>
-      <c r="N247" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13317,9 +12602,6 @@
       <c r="M248" t="n">
         <v>22078.24</v>
       </c>
-      <c r="N248" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13369,9 +12651,6 @@
       <c r="M249" t="n">
         <v>19636.594</v>
       </c>
-      <c r="N249" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13421,9 +12700,6 @@
       <c r="M250" t="n">
         <v>20073.39</v>
       </c>
-      <c r="N250" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13473,9 +12749,6 @@
       <c r="M251" t="n">
         <v>20881.026</v>
       </c>
-      <c r="N251" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13525,9 +12798,6 @@
       <c r="M252" t="n">
         <v>19912.986</v>
       </c>
-      <c r="N252" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13577,9 +12847,6 @@
       <c r="M253" t="n">
         <v>20698.95</v>
       </c>
-      <c r="N253" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13629,7 +12896,6 @@
       <c r="M254" t="n">
         <v>8622.7425</v>
       </c>
-      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13679,9 +12945,6 @@
       <c r="M255" t="n">
         <v>11441.066</v>
       </c>
-      <c r="N255" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13731,9 +12994,6 @@
       <c r="M256" t="n">
         <v>9275.190000000001</v>
       </c>
-      <c r="N256" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13783,9 +13043,6 @@
       <c r="M257" t="n">
         <v>10495.882</v>
       </c>
-      <c r="N257" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13835,9 +13092,6 @@
       <c r="M258" t="n">
         <v>9834.66</v>
       </c>
-      <c r="N258" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13887,9 +13141,6 @@
       <c r="M259" t="n">
         <v>8632.639999999999</v>
       </c>
-      <c r="N259" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13939,9 +13190,6 @@
       <c r="M260" t="n">
         <v>8088.418</v>
       </c>
-      <c r="N260" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13991,9 +13239,6 @@
       <c r="M261" t="n">
         <v>9256.202000000001</v>
       </c>
-      <c r="N261" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14043,9 +13288,6 @@
       <c r="M262" t="n">
         <v>8541.85</v>
       </c>
-      <c r="N262" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14095,9 +13337,6 @@
       <c r="M263" t="n">
         <v>9900.859999999999</v>
       </c>
-      <c r="N263" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14147,9 +13386,6 @@
       <c r="M264" t="n">
         <v>9584.866</v>
       </c>
-      <c r="N264" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14199,9 +13435,6 @@
       <c r="M265" t="n">
         <v>8919.77</v>
       </c>
-      <c r="N265" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14251,9 +13484,6 @@
       <c r="M266" t="n">
         <v>8432.23</v>
       </c>
-      <c r="N266" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14303,9 +13533,6 @@
       <c r="M267" t="n">
         <v>9287.262500000001</v>
       </c>
-      <c r="N267" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14355,9 +13582,6 @@
       <c r="M268" t="n">
         <v>8533.712</v>
       </c>
-      <c r="N268" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14407,9 +13631,6 @@
       <c r="M269" t="n">
         <v>9141.74</v>
       </c>
-      <c r="N269" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14459,9 +13680,6 @@
       <c r="M270" t="n">
         <v>11952.4675</v>
       </c>
-      <c r="N270" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14511,9 +13729,6 @@
       <c r="M271" t="n">
         <v>7692.992000000001</v>
       </c>
-      <c r="N271" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14563,7 +13778,6 @@
       <c r="M272" t="n">
         <v>12783.242</v>
       </c>
-      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14613,9 +13827,6 @@
       <c r="M273" t="n">
         <v>10681.948</v>
       </c>
-      <c r="N273" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14665,9 +13876,6 @@
       <c r="M274" t="n">
         <v>7731.460000000001</v>
       </c>
-      <c r="N274" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14717,9 +13925,6 @@
       <c r="M275" t="n">
         <v>11017.802</v>
       </c>
-      <c r="N275" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14769,9 +13974,6 @@
       <c r="M276" t="n">
         <v>10969.114</v>
       </c>
-      <c r="N276" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14821,9 +14023,6 @@
       <c r="M277" t="n">
         <v>10396.042</v>
       </c>
-      <c r="N277" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14873,9 +14072,6 @@
       <c r="M278" t="n">
         <v>11911.328</v>
       </c>
-      <c r="N278" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14925,9 +14121,6 @@
       <c r="M279" t="n">
         <v>11142.362</v>
       </c>
-      <c r="N279" t="n">
-        <v>7.720000000000001</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14977,9 +14170,6 @@
       <c r="M280" t="n">
         <v>10000.918</v>
       </c>
-      <c r="N280" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15029,9 +14219,6 @@
       <c r="M281" t="n">
         <v>9565.952500000001</v>
       </c>
-      <c r="N281" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15081,9 +14268,6 @@
       <c r="M282" t="n">
         <v>11101.48</v>
       </c>
-      <c r="N282" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15133,9 +14317,6 @@
       <c r="M283" t="n">
         <v>10468.328</v>
       </c>
-      <c r="N283" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15185,9 +14366,6 @@
       <c r="M284" t="n">
         <v>9584.194</v>
       </c>
-      <c r="N284" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15237,9 +14415,6 @@
       <c r="M285" t="n">
         <v>10014.096</v>
       </c>
-      <c r="N285" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15289,9 +14464,6 @@
       <c r="M286" t="n">
         <v>10891.494</v>
       </c>
-      <c r="N286" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15341,9 +14513,6 @@
       <c r="M287" t="n">
         <v>9116.513333333334</v>
       </c>
-      <c r="N287" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15393,9 +14562,6 @@
       <c r="M288" t="n">
         <v>10921.925</v>
       </c>
-      <c r="N288" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15445,9 +14611,6 @@
       <c r="M289" t="n">
         <v>10471.3225</v>
       </c>
-      <c r="N289" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15497,7 +14660,6 @@
       <c r="M290" t="n">
         <v>13187.788</v>
       </c>
-      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15547,9 +14709,6 @@
       <c r="M291" t="n">
         <v>12527.556</v>
       </c>
-      <c r="N291" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15599,9 +14758,6 @@
       <c r="M292" t="n">
         <v>10616.026</v>
       </c>
-      <c r="N292" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15651,9 +14807,6 @@
       <c r="M293" t="n">
         <v>15726.446</v>
       </c>
-      <c r="N293" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15703,9 +14856,6 @@
       <c r="M294" t="n">
         <v>7855.488</v>
       </c>
-      <c r="N294" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15755,9 +14905,6 @@
       <c r="M295" t="n">
         <v>11858.815</v>
       </c>
-      <c r="N295" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15807,9 +14954,6 @@
       <c r="M296" t="n">
         <v>12080.208</v>
       </c>
-      <c r="N296" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15859,9 +15003,6 @@
       <c r="M297" t="n">
         <v>11888.136</v>
       </c>
-      <c r="N297" t="n">
-        <v>-3.91</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15911,9 +15052,6 @@
       <c r="M298" t="n">
         <v>11758.57</v>
       </c>
-      <c r="N298" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15963,9 +15101,6 @@
       <c r="M299" t="n">
         <v>10253.1</v>
       </c>
-      <c r="N299" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16015,9 +15150,6 @@
       <c r="M300" t="n">
         <v>9605.3475</v>
       </c>
-      <c r="N300" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16067,9 +15199,6 @@
       <c r="M301" t="n">
         <v>12786.35</v>
       </c>
-      <c r="N301" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16119,9 +15248,6 @@
       <c r="M302" t="n">
         <v>11244.8725</v>
       </c>
-      <c r="N302" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16171,9 +15297,6 @@
       <c r="M303" t="n">
         <v>7513.959999999999</v>
       </c>
-      <c r="N303" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16223,9 +15346,6 @@
       <c r="M304" t="n">
         <v>8306.780000000001</v>
       </c>
-      <c r="N304" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16275,9 +15395,6 @@
       <c r="M305" t="n">
         <v>10951.835</v>
       </c>
-      <c r="N305" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16327,9 +15444,6 @@
       <c r="M306" t="n">
         <v>10966.046</v>
       </c>
-      <c r="N306" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16379,9 +15493,6 @@
       <c r="M307" t="n">
         <v>9552.678</v>
       </c>
-      <c r="N307" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16431,7 +15542,6 @@
       <c r="M308" t="n">
         <v>11853.926</v>
       </c>
-      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16481,9 +15591,6 @@
       <c r="M309" t="n">
         <v>15668.154</v>
       </c>
-      <c r="N309" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16533,9 +15640,6 @@
       <c r="M310" t="n">
         <v>11905.186</v>
       </c>
-      <c r="N310" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16585,9 +15689,6 @@
       <c r="M311" t="n">
         <v>10572.81</v>
       </c>
-      <c r="N311" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16637,9 +15738,6 @@
       <c r="M312" t="n">
         <v>12919.718</v>
       </c>
-      <c r="N312" t="n">
-        <v>-3.569999999999999</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16689,9 +15787,6 @@
       <c r="M313" t="n">
         <v>12771.508</v>
       </c>
-      <c r="N313" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16741,9 +15836,6 @@
       <c r="M314" t="n">
         <v>10130.068</v>
       </c>
-      <c r="N314" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16793,9 +15885,6 @@
       <c r="M315" t="n">
         <v>18131.12</v>
       </c>
-      <c r="N315" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16845,9 +15934,6 @@
       <c r="M316" t="n">
         <v>10922.514</v>
       </c>
-      <c r="N316" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16897,9 +15983,6 @@
       <c r="M317" t="n">
         <v>11508.212</v>
       </c>
-      <c r="N317" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16949,9 +16032,6 @@
       <c r="M318" t="n">
         <v>11229.495</v>
       </c>
-      <c r="N318" t="n">
-        <v>7.58</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17001,9 +16081,6 @@
       <c r="M319" t="n">
         <v>13877.05</v>
       </c>
-      <c r="N319" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17053,9 +16130,6 @@
       <c r="M320" t="n">
         <v>14039.1275</v>
       </c>
-      <c r="N320" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17105,9 +16179,6 @@
       <c r="M321" t="n">
         <v>10094.628</v>
       </c>
-      <c r="N321" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17157,9 +16228,6 @@
       <c r="M322" t="n">
         <v>12630.6125</v>
       </c>
-      <c r="N322" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17209,9 +16277,6 @@
       <c r="M323" t="n">
         <v>8860.746666666666</v>
       </c>
-      <c r="N323" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17261,9 +16326,6 @@
       <c r="M324" t="n">
         <v>10579.504</v>
       </c>
-      <c r="N324" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17312,9 +16374,6 @@
       </c>
       <c r="M325" t="n">
         <v>14591.56</v>
-      </c>
-      <c r="N325" t="n">
-        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
